--- a/Data/Quality_A549_42_.xlsx
+++ b/Data/Quality_A549_42_.xlsx
@@ -436,7 +436,7 @@
         <v>0.9930438897450629</v>
       </c>
       <c r="D2">
-        <v>0.1876567638208683</v>
+        <v>-4.544409738939167</v>
       </c>
       <c r="E2">
         <v>0.0785703031806835</v>
@@ -459,7 +459,7 @@
         <v>0.9641369161796541</v>
       </c>
       <c r="D3">
-        <v>0.1652533571405711</v>
+        <v>-6.199282448796101</v>
       </c>
       <c r="E3">
         <v>0.1784017113475172</v>
@@ -482,7 +482,7 @@
         <v>0.9456887137472409</v>
       </c>
       <c r="D4">
-        <v>0.2481773942322844</v>
+        <v>-3.017880916549379</v>
       </c>
       <c r="E4">
         <v>0.2195433286805545</v>
@@ -505,7 +505,7 @@
         <v>0.9346004279180601</v>
       </c>
       <c r="D5">
-        <v>0.2112351703095986</v>
+        <v>-3.136295782637082</v>
       </c>
       <c r="E5">
         <v>0.2409143413526823</v>
@@ -528,7 +528,7 @@
         <v>0.9081228647381004</v>
       </c>
       <c r="D6">
-        <v>0.3407324390809029</v>
+        <v>-0.8417897116691107</v>
       </c>
       <c r="E6">
         <v>0.28554786882152</v>
@@ -551,7 +551,7 @@
         <v>0.8650019775739177</v>
       </c>
       <c r="D7">
-        <v>0.4614245939510403</v>
+        <v>0.03226996716671782</v>
       </c>
       <c r="E7">
         <v>0.3461297301381802</v>
@@ -574,7 +574,7 @@
         <v>0.7784802207077054</v>
       </c>
       <c r="D8">
-        <v>0.4882553880923083</v>
+        <v>0.4861710716050452</v>
       </c>
       <c r="E8">
         <v>0.4433854685324444</v>
@@ -597,7 +597,7 @@
         <v>0.6760429420035348</v>
       </c>
       <c r="D9">
-        <v>-0.6477506598862401</v>
+        <v>0.4916900206252982</v>
       </c>
       <c r="E9">
         <v>0.5361902636298758</v>
@@ -620,7 +620,7 @@
         <v>0.6738915277701111</v>
       </c>
       <c r="D10">
-        <v>-0.687759912401221</v>
+        <v>0.4744977373152667</v>
       </c>
       <c r="E10">
         <v>0.5379677499446583</v>
@@ -643,7 +643,7 @@
         <v>0.6496738636099531</v>
       </c>
       <c r="D11">
-        <v>-1.147902741493074</v>
+        <v>0.07838587849765111</v>
       </c>
       <c r="E11">
         <v>0.5575854984344426</v>
@@ -666,7 +666,7 @@
         <v>0.6376426877637158</v>
       </c>
       <c r="D12">
-        <v>-0.8456680291866887</v>
+        <v>0.2045819795018412</v>
       </c>
       <c r="E12">
         <v>0.5670791964523061</v>
@@ -689,7 +689,7 @@
         <v>0.6133645308469864</v>
       </c>
       <c r="D13">
-        <v>-0.5476841683963751</v>
+        <v>0.3462210402180118</v>
       </c>
       <c r="E13">
         <v>0.5857685449339683</v>
@@ -712,7 +712,7 @@
         <v>0.6133645308469864</v>
       </c>
       <c r="D14">
-        <v>-0.5476841683963751</v>
+        <v>0.3462210402180118</v>
       </c>
       <c r="E14">
         <v>0.5857685449339683</v>
@@ -735,7 +735,7 @@
         <v>0.5900769088415004</v>
       </c>
       <c r="D15">
-        <v>-0.4615019935101912</v>
+        <v>0.3694086235368679</v>
       </c>
       <c r="E15">
         <v>0.6031514718881896</v>
@@ -758,7 +758,7 @@
         <v>0.5743842130939418</v>
       </c>
       <c r="D16">
-        <v>-0.45433461320354</v>
+        <v>0.3510062468274602</v>
       </c>
       <c r="E16">
         <v>0.6145879835707464</v>
@@ -781,7 +781,7 @@
         <v>0.524350650891921</v>
       </c>
       <c r="D17">
-        <v>-0.09363667689669186</v>
+        <v>0.4776300338488012</v>
       </c>
       <c r="E17">
         <v>0.6497086574977285</v>
@@ -804,7 +804,7 @@
         <v>0.4978906529483064</v>
       </c>
       <c r="D18">
-        <v>-0.5382999210861161</v>
+        <v>0.4170965069249607</v>
       </c>
       <c r="E18">
         <v>0.6675354796893231</v>
@@ -827,7 +827,7 @@
         <v>0.4929095743067839</v>
       </c>
       <c r="D19">
-        <v>-0.5717174694757725</v>
+        <v>0.3695956098638616</v>
       </c>
       <c r="E19">
         <v>0.6708383867358984</v>
@@ -850,7 +850,7 @@
         <v>0.4929095743067839</v>
       </c>
       <c r="D20">
-        <v>-0.5717174694757725</v>
+        <v>0.3695956098638616</v>
       </c>
       <c r="E20">
         <v>0.6708383867358984</v>
@@ -873,7 +873,7 @@
         <v>0.49083720914108</v>
       </c>
       <c r="D21">
-        <v>-0.5766654229650792</v>
+        <v>0.3850444019717805</v>
       </c>
       <c r="E21">
         <v>0.6722077723004944</v>
@@ -896,7 +896,7 @@
         <v>0.4548140725424477</v>
       </c>
       <c r="D22">
-        <v>-0.4804572140194843</v>
+        <v>0.4923632130931052</v>
       </c>
       <c r="E22">
         <v>0.6955806931760296</v>
@@ -955,7 +955,7 @@
         <v>0.7347130998279428</v>
       </c>
       <c r="D2">
-        <v>0.2709411085105415</v>
+        <v>0.4706203216839908</v>
       </c>
       <c r="E2">
         <v>0.4852137540370066</v>
@@ -981,7 +981,7 @@
         <v>0.8326221733897838</v>
       </c>
       <c r="D3">
-        <v>0.1782097881415309</v>
+        <v>0.3846980045576974</v>
       </c>
       <c r="E3">
         <v>0.3854110505246895</v>
@@ -1007,7 +1007,7 @@
         <v>0.8966819700641151</v>
       </c>
       <c r="D4">
-        <v>0.1511825423007674</v>
+        <v>0.3554414464531692</v>
       </c>
       <c r="E4">
         <v>0.3028051510423343</v>
@@ -1033,7 +1033,7 @@
         <v>0.929694740058286</v>
       </c>
       <c r="D5">
-        <v>0.2218353864905354</v>
+        <v>0.2537405081358221</v>
       </c>
       <c r="E5">
         <v>0.2497865844916864</v>
@@ -1059,7 +1059,7 @@
         <v>0.9532435856001419</v>
       </c>
       <c r="D6">
-        <v>0.1334894770995916</v>
+        <v>0.2095446554288897</v>
       </c>
       <c r="E6">
         <v>0.2037022377990036</v>
@@ -1085,7 +1085,7 @@
         <v>0.9720635250712295</v>
       </c>
       <c r="D7">
-        <v>0.2367725975948909</v>
+        <v>0.3159076372646431</v>
       </c>
       <c r="E7">
         <v>0.1574566484779442</v>
@@ -1111,7 +1111,7 @@
         <v>0.9907314394867165</v>
       </c>
       <c r="D8">
-        <v>0.3633753454343728</v>
+        <v>0.3621398949813264</v>
       </c>
       <c r="E8">
         <v>0.09069458237722178</v>
@@ -1137,7 +1137,7 @@
         <v>0.9963214174757492</v>
       </c>
       <c r="D9">
-        <v>-0.1570657808727247</v>
+        <v>0.2348746297355453</v>
       </c>
       <c r="E9">
         <v>0.05713673928096942</v>
@@ -1163,7 +1163,7 @@
         <v>0.9980491955500332</v>
       </c>
       <c r="D10">
-        <v>-0.05339805951844778</v>
+        <v>0.1791683318611816</v>
       </c>
       <c r="E10">
         <v>0.04160850092449409</v>
@@ -1189,7 +1189,7 @@
         <v>0.9985983702823515</v>
       </c>
       <c r="D11">
-        <v>-0.1366535372152178</v>
+        <v>0.2505600369559441</v>
       </c>
       <c r="E11">
         <v>0.03526889466018324</v>
@@ -1215,7 +1215,7 @@
         <v>0.9986144288455102</v>
       </c>
       <c r="D12">
-        <v>-0.1098160225876859</v>
+        <v>0.2572872167743069</v>
       </c>
       <c r="E12">
         <v>0.03506627361359496</v>
@@ -1241,7 +1241,7 @@
         <v>0.9986184829461283</v>
       </c>
       <c r="D13">
-        <v>0.00162046408165617</v>
+        <v>0.2586660487890596</v>
       </c>
       <c r="E13">
         <v>0.03501493509407236</v>
@@ -1267,7 +1267,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D14">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E14">
         <v>0.03501273738366083</v>
@@ -1293,7 +1293,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D15">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E15">
         <v>0.03501273738366083</v>
@@ -1319,7 +1319,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D16">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E16">
         <v>0.03501273738366083</v>
@@ -1345,7 +1345,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D17">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E17">
         <v>0.03501273738366083</v>
@@ -1371,7 +1371,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D18">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E18">
         <v>0.03501273738366083</v>
@@ -1397,7 +1397,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D19">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E19">
         <v>0.03501273738366083</v>
@@ -1423,7 +1423,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D20">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E20">
         <v>0.03501273738366083</v>
@@ -1449,7 +1449,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D21">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E21">
         <v>0.03501273738366083</v>
@@ -1475,7 +1475,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D22">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E22">
         <v>0.03501273738366083</v>
@@ -1501,7 +1501,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D23">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E23">
         <v>0.03501273738366083</v>
@@ -1527,7 +1527,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D24">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E24">
         <v>0.03501273738366083</v>
@@ -1553,7 +1553,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D25">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E25">
         <v>0.03501273738366083</v>
@@ -1579,7 +1579,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D26">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E26">
         <v>0.03501273738366083</v>
@@ -1605,7 +1605,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D27">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E27">
         <v>0.03501273738366083</v>
@@ -1631,7 +1631,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D28">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E28">
         <v>0.03501273738366083</v>
@@ -1657,7 +1657,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D29">
-        <v>-0.1559729911433234</v>
+        <v>0.2428161221386812</v>
       </c>
       <c r="E29">
         <v>0.03501273738366083</v>
@@ -1683,7 +1683,7 @@
         <v>0.7288282431452396</v>
       </c>
       <c r="D30">
-        <v>0.265986637847424</v>
+        <v>0.5128160574377678</v>
       </c>
       <c r="E30">
         <v>0.4905659807012039</v>
@@ -1709,7 +1709,7 @@
         <v>0.8088593089894451</v>
       </c>
       <c r="D31">
-        <v>-0.7784350032615632</v>
+        <v>0.3349389466098933</v>
       </c>
       <c r="E31">
         <v>0.4118620495457651</v>
@@ -1735,7 +1735,7 @@
         <v>0.87212568589843</v>
       </c>
       <c r="D32">
-        <v>-0.7027052708001997</v>
+        <v>0.3289455143487344</v>
       </c>
       <c r="E32">
         <v>0.3368735080237248</v>
@@ -1761,7 +1761,7 @@
         <v>0.9030646457418218</v>
       </c>
       <c r="D33">
-        <v>-0.7399971294482113</v>
+        <v>0.287677434370276</v>
       </c>
       <c r="E33">
         <v>0.2933028624075324</v>
@@ -1787,7 +1787,7 @@
         <v>0.9357039362262852</v>
       </c>
       <c r="D34">
-        <v>-0.8834550822628935</v>
+        <v>0.2214420108936337</v>
       </c>
       <c r="E34">
         <v>0.2388731813071349</v>
@@ -1813,7 +1813,7 @@
         <v>0.9594711431339541</v>
       </c>
       <c r="D35">
-        <v>0.2253928485546928</v>
+        <v>0.3785123454782369</v>
       </c>
       <c r="E35">
         <v>0.1896519784827593</v>
@@ -1839,7 +1839,7 @@
         <v>0.9714771407224304</v>
       </c>
       <c r="D36">
-        <v>0.1271809761672992</v>
+        <v>0.3849318876987825</v>
       </c>
       <c r="E36">
         <v>0.159100567998564</v>
@@ -1865,7 +1865,7 @@
         <v>0.9804236777813446</v>
       </c>
       <c r="D37">
-        <v>-0.5596268652910341</v>
+        <v>0.2994782528042413</v>
       </c>
       <c r="E37">
         <v>0.1318076912074868</v>
@@ -1891,7 +1891,7 @@
         <v>0.9868746889865848</v>
       </c>
       <c r="D38">
-        <v>-0.4782962691284953</v>
+        <v>0.3045867965438815</v>
       </c>
       <c r="E38">
         <v>0.1079269743278049</v>
@@ -1917,7 +1917,7 @@
         <v>0.9901086337046661</v>
       </c>
       <c r="D39">
-        <v>-0.4899839491856477</v>
+        <v>0.3241439544979046</v>
       </c>
       <c r="E39">
         <v>0.09369217974503564</v>
@@ -1943,7 +1943,7 @@
         <v>0.9944014952695021</v>
       </c>
       <c r="D40">
-        <v>-0.4313631906463333</v>
+        <v>0.3245617332428798</v>
       </c>
       <c r="E40">
         <v>0.07048735678837401</v>
@@ -1969,7 +1969,7 @@
         <v>0.9962958821002896</v>
       </c>
       <c r="D41">
-        <v>-0.4248053214088905</v>
+        <v>0.3373548872788069</v>
       </c>
       <c r="E41">
         <v>0.05733470750042862</v>
@@ -1995,7 +1995,7 @@
         <v>0.9976881651400222</v>
       </c>
       <c r="D42">
-        <v>-0.5158128092107939</v>
+        <v>0.316172585103881</v>
       </c>
       <c r="E42">
         <v>0.04529534840586607</v>
@@ -2021,7 +2021,7 @@
         <v>0.9983044242362741</v>
       </c>
       <c r="D43">
-        <v>-0.4355087264152304</v>
+        <v>0.3045644098557915</v>
       </c>
       <c r="E43">
         <v>0.0387912523357439</v>
@@ -2047,7 +2047,7 @@
         <v>0.9985575332223936</v>
       </c>
       <c r="D44">
-        <v>-0.3982612920641742</v>
+        <v>0.316661466952162</v>
       </c>
       <c r="E44">
         <v>0.03577899275309035</v>
@@ -2073,7 +2073,7 @@
         <v>0.9986114980014422</v>
       </c>
       <c r="D45">
-        <v>-0.3885457213451335</v>
+        <v>0.3167060948672002</v>
       </c>
       <c r="E45">
         <v>0.03510334117549718</v>
@@ -2099,7 +2099,7 @@
         <v>0.998617793675535</v>
       </c>
       <c r="D46">
-        <v>-0.3899191139219826</v>
+        <v>0.3040589228388955</v>
       </c>
       <c r="E46">
         <v>0.03502366888256375</v>
@@ -2125,7 +2125,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D47">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E47">
         <v>0.03501273738366083</v>
@@ -2151,7 +2151,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D48">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E48">
         <v>0.03501273738366083</v>
@@ -2177,7 +2177,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D49">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E49">
         <v>0.03501273738366083</v>
@@ -2203,7 +2203,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D50">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E50">
         <v>0.03501273738366083</v>
@@ -2229,7 +2229,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D51">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E51">
         <v>0.03501273738366083</v>
@@ -2255,7 +2255,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D52">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E52">
         <v>0.03501273738366083</v>
@@ -2281,7 +2281,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D53">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E53">
         <v>0.03501273738366083</v>
@@ -2307,7 +2307,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D54">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E54">
         <v>0.03501273738366083</v>
@@ -2333,7 +2333,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D55">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E55">
         <v>0.03501273738366083</v>
@@ -2359,7 +2359,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D56">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E56">
         <v>0.03501273738366083</v>
@@ -2385,7 +2385,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D57">
-        <v>-0.4066405564165851</v>
+        <v>0.3159222344036563</v>
       </c>
       <c r="E57">
         <v>0.03501273738366083</v>
@@ -2411,7 +2411,7 @@
         <v>0.7223607318058948</v>
       </c>
       <c r="D58">
-        <v>0.2140080748225316</v>
+        <v>0.5135099057969379</v>
       </c>
       <c r="E58">
         <v>0.4963815673034635</v>
@@ -2437,7 +2437,7 @@
         <v>0.8183126636113782</v>
       </c>
       <c r="D59">
-        <v>0.2353102630877194</v>
+        <v>0.4319490866502383</v>
       </c>
       <c r="E59">
         <v>0.4015480576400676</v>
@@ -2463,7 +2463,7 @@
         <v>0.8719098425434431</v>
       </c>
       <c r="D60">
-        <v>0.2984442228116797</v>
+        <v>0.4470083579781551</v>
       </c>
       <c r="E60">
         <v>0.3371576982121074</v>
@@ -2489,7 +2489,7 @@
         <v>0.9031058650556019</v>
       </c>
       <c r="D61">
-        <v>0.2988923380933827</v>
+        <v>0.4440753260427275</v>
       </c>
       <c r="E61">
         <v>0.2932404959556917</v>
@@ -2515,7 +2515,7 @@
         <v>0.9357132002525919</v>
       </c>
       <c r="D62">
-        <v>0.1924771474123481</v>
+        <v>0.3277043583791611</v>
       </c>
       <c r="E62">
         <v>0.2388559717998709</v>
@@ -2541,7 +2541,7 @@
         <v>0.9594730866778851</v>
       </c>
       <c r="D63">
-        <v>0.3177671199549011</v>
+        <v>0.4139139829091794</v>
       </c>
       <c r="E63">
         <v>0.1896474310886385</v>
@@ -2567,7 +2567,7 @@
         <v>0.9714774283267649</v>
       </c>
       <c r="D64">
-        <v>0.2911980586477669</v>
+        <v>0.3728621682285991</v>
       </c>
       <c r="E64">
         <v>0.1590997658677558</v>
@@ -2593,7 +2593,7 @@
         <v>0.9804236777813446</v>
       </c>
       <c r="D65">
-        <v>0.2742973971017991</v>
+        <v>0.3700002632720655</v>
       </c>
       <c r="E65">
         <v>0.1318076912074868</v>
@@ -2619,7 +2619,7 @@
         <v>0.9868746889865848</v>
       </c>
       <c r="D66">
-        <v>0.3054950026838603</v>
+        <v>0.3761879373000449</v>
       </c>
       <c r="E66">
         <v>0.1079269743278049</v>
@@ -2645,7 +2645,7 @@
         <v>0.9901086337046661</v>
       </c>
       <c r="D67">
-        <v>0.2900412995752949</v>
+        <v>0.3686481447833748</v>
       </c>
       <c r="E67">
         <v>0.09369217974503564</v>
@@ -2671,7 +2671,7 @@
         <v>0.9943929029848929</v>
       </c>
       <c r="D68">
-        <v>0.3321570755773199</v>
+        <v>0.3900176327954799</v>
       </c>
       <c r="E68">
         <v>0.0705414261568366</v>
@@ -2697,7 +2697,7 @@
         <v>0.9962975738842417</v>
       </c>
       <c r="D69">
-        <v>0.3371783324392187</v>
+        <v>0.3928729140806595</v>
       </c>
       <c r="E69">
         <v>0.05732161274768538</v>
@@ -2723,7 +2723,7 @@
         <v>0.9976881651400222</v>
       </c>
       <c r="D70">
-        <v>0.3359931990671491</v>
+        <v>0.387743501480584</v>
       </c>
       <c r="E70">
         <v>0.04529534840586607</v>
@@ -2749,7 +2749,7 @@
         <v>0.9983044242362741</v>
       </c>
       <c r="D71">
-        <v>0.3419516786195872</v>
+        <v>0.3981539291891746</v>
       </c>
       <c r="E71">
         <v>0.0387912523357439</v>
@@ -2775,7 +2775,7 @@
         <v>0.9985575332223936</v>
       </c>
       <c r="D72">
-        <v>0.3398836630747372</v>
+        <v>0.4076907565220949</v>
       </c>
       <c r="E72">
         <v>0.03577899275309035</v>
@@ -2801,7 +2801,7 @@
         <v>0.9986114980014422</v>
       </c>
       <c r="D73">
-        <v>0.3361454339940455</v>
+        <v>0.3957005426361111</v>
       </c>
       <c r="E73">
         <v>0.03510334117549718</v>
@@ -2827,7 +2827,7 @@
         <v>0.998617793675535</v>
       </c>
       <c r="D74">
-        <v>0.3492645238723371</v>
+        <v>0.4064634907003195</v>
       </c>
       <c r="E74">
         <v>0.03502366888256375</v>
@@ -2853,7 +2853,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D75">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E75">
         <v>0.03501273738366083</v>
@@ -2879,7 +2879,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D76">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E76">
         <v>0.03501273738366083</v>
@@ -2905,7 +2905,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D77">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E77">
         <v>0.03501273738366083</v>
@@ -2931,7 +2931,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D78">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E78">
         <v>0.03501273738366083</v>
@@ -2957,7 +2957,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D79">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E79">
         <v>0.03501273738366083</v>
@@ -2983,7 +2983,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D80">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E80">
         <v>0.03501273738366083</v>
@@ -3009,7 +3009,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D81">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E81">
         <v>0.03501273738366083</v>
@@ -3035,7 +3035,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D82">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E82">
         <v>0.03501273738366083</v>
@@ -3061,7 +3061,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D83">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E83">
         <v>0.03501273738366083</v>
@@ -3087,7 +3087,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D84">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E84">
         <v>0.03501273738366083</v>
@@ -3113,7 +3113,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D85">
-        <v>0.3478364567984711</v>
+        <v>0.4001003994564027</v>
       </c>
       <c r="E85">
         <v>0.03501273738366083</v>
@@ -3139,7 +3139,7 @@
         <v>0.7223607318058948</v>
       </c>
       <c r="D86">
-        <v>0.2140080748225313</v>
+        <v>0.513509905796938</v>
       </c>
       <c r="E86">
         <v>0.4963815673034635</v>
@@ -3165,7 +3165,7 @@
         <v>0.8183126636113783</v>
       </c>
       <c r="D87">
-        <v>0.2353102630877173</v>
+        <v>0.4319490866502379</v>
       </c>
       <c r="E87">
         <v>0.4015480576400675</v>
@@ -3191,7 +3191,7 @@
         <v>0.8717420189466685</v>
       </c>
       <c r="D88">
-        <v>0.2984442228116795</v>
+        <v>0.4470083579781551</v>
       </c>
       <c r="E88">
         <v>0.3373784977532102</v>
@@ -3217,7 +3217,7 @@
         <v>0.9029670764257851</v>
       </c>
       <c r="D89">
-        <v>0.317273826170501</v>
+        <v>0.4392230928929675</v>
       </c>
       <c r="E89">
         <v>0.2934504358206997</v>
@@ -3243,7 +3243,7 @@
         <v>0.9356971556596526</v>
       </c>
       <c r="D90">
-        <v>0.1753017049943759</v>
+        <v>0.29185044980508</v>
       </c>
       <c r="E90">
         <v>0.2388857765791245</v>
@@ -3269,7 +3269,7 @@
         <v>0.9594726437476265</v>
       </c>
       <c r="D91">
-        <v>0.213814089482618</v>
+        <v>0.302647973791714</v>
       </c>
       <c r="E91">
         <v>0.1896484674413891</v>
@@ -3295,7 +3295,7 @@
         <v>0.9714774283267649</v>
       </c>
       <c r="D92">
-        <v>0.2998974276336756</v>
+        <v>0.3778760296585131</v>
       </c>
       <c r="E92">
         <v>0.1590997658677558</v>
@@ -3321,7 +3321,7 @@
         <v>0.9804236777813446</v>
       </c>
       <c r="D93">
-        <v>0.2650869408873896</v>
+        <v>0.3578181969186577</v>
       </c>
       <c r="E93">
         <v>0.1318076912074868</v>
@@ -3347,7 +3347,7 @@
         <v>0.9868746889865848</v>
       </c>
       <c r="D94">
-        <v>0.3171009511931093</v>
+        <v>0.3849455899943554</v>
       </c>
       <c r="E94">
         <v>0.1079269743278049</v>
@@ -3373,7 +3373,7 @@
         <v>0.9901086337046661</v>
       </c>
       <c r="D95">
-        <v>0.305766591261727</v>
+        <v>0.3784849277660244</v>
       </c>
       <c r="E95">
         <v>0.09369217974503567</v>
@@ -3399,7 +3399,7 @@
         <v>0.9940213764581722</v>
       </c>
       <c r="D96">
-        <v>0.3286079082407432</v>
+        <v>0.3983083999690051</v>
       </c>
       <c r="E96">
         <v>0.07284098407220793</v>
@@ -3425,7 +3425,7 @@
         <v>0.9963168645455641</v>
       </c>
       <c r="D97">
-        <v>0.3453088024682174</v>
+        <v>0.4121453214944714</v>
       </c>
       <c r="E97">
         <v>0.05717208701888511</v>
@@ -3451,7 +3451,7 @@
         <v>0.9976359358455953</v>
       </c>
       <c r="D98">
-        <v>0.3224033942284633</v>
+        <v>0.3795760997430347</v>
       </c>
       <c r="E98">
         <v>0.04580415012907356</v>
@@ -3477,7 +3477,7 @@
         <v>0.9982643785201237</v>
       </c>
       <c r="D99">
-        <v>0.3279170243350364</v>
+        <v>0.4023486208007936</v>
       </c>
       <c r="E99">
         <v>0.0392466605084465</v>
@@ -3503,7 +3503,7 @@
         <v>0.9985272147744441</v>
       </c>
       <c r="D100">
-        <v>0.3696196019000136</v>
+        <v>0.4107463961063007</v>
       </c>
       <c r="E100">
         <v>0.03615304734329116</v>
@@ -3529,7 +3529,7 @@
         <v>0.9986123761399023</v>
       </c>
       <c r="D101">
-        <v>0.3313686734323167</v>
+        <v>0.3766565480276554</v>
       </c>
       <c r="E101">
         <v>0.03509223911394533</v>
@@ -3555,7 +3555,7 @@
         <v>0.9986183169760736</v>
       </c>
       <c r="D102">
-        <v>0.3346739514077848</v>
+        <v>0.3891147915639128</v>
       </c>
       <c r="E102">
         <v>0.0350170383095733</v>
@@ -3581,7 +3581,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D103">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E103">
         <v>0.03501273738366083</v>
@@ -3607,7 +3607,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D104">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E104">
         <v>0.03501273738366083</v>
@@ -3633,7 +3633,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D105">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E105">
         <v>0.03501273738366083</v>
@@ -3659,7 +3659,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D106">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E106">
         <v>0.03501273738366083</v>
@@ -3685,7 +3685,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D107">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E107">
         <v>0.03501273738366083</v>
@@ -3711,7 +3711,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D108">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E108">
         <v>0.03501273738366083</v>
@@ -3737,7 +3737,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D109">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E109">
         <v>0.03501273738366083</v>
@@ -3763,7 +3763,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D110">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E110">
         <v>0.03501273738366083</v>
@@ -3789,7 +3789,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D111">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E111">
         <v>0.03501273738366083</v>
@@ -3815,7 +3815,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D112">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E112">
         <v>0.03501273738366083</v>
@@ -3841,7 +3841,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D113">
-        <v>0.3566657898219707</v>
+        <v>0.395313577040145</v>
       </c>
       <c r="E113">
         <v>0.03501273738366083</v>
@@ -3867,7 +3867,7 @@
         <v>0.7223607318058947</v>
       </c>
       <c r="D114">
-        <v>0.2140080748225218</v>
+        <v>0.5135099057969359</v>
       </c>
       <c r="E114">
         <v>0.4963815673034636</v>
@@ -3893,7 +3893,7 @@
         <v>0.8183126636113782</v>
       </c>
       <c r="D115">
-        <v>0.2353102630877209</v>
+        <v>0.4319490866502386</v>
       </c>
       <c r="E115">
         <v>0.4015480576400676</v>
@@ -3919,7 +3919,7 @@
         <v>0.8639509150675369</v>
       </c>
       <c r="D116">
-        <v>0.1924317154470829</v>
+        <v>0.2398846047063979</v>
       </c>
       <c r="E116">
         <v>0.3474745594758134</v>
@@ -3945,7 +3945,7 @@
         <v>0.8914756261991988</v>
       </c>
       <c r="D117">
-        <v>0.2013021156160819</v>
+        <v>0.1616566848143066</v>
       </c>
       <c r="E117">
         <v>0.3103407781617104</v>
@@ -3971,7 +3971,7 @@
         <v>0.9332726476882443</v>
       </c>
       <c r="D118">
-        <v>0.124406549840227</v>
+        <v>0.08472717863017287</v>
       </c>
       <c r="E118">
         <v>0.243347644512919</v>
@@ -3997,7 +3997,7 @@
         <v>0.9557195724265675</v>
       </c>
       <c r="D119">
-        <v>0.3002514050300061</v>
+        <v>0.2795364047707241</v>
       </c>
       <c r="E119">
         <v>0.1982353506611326</v>
@@ -4023,7 +4023,7 @@
         <v>0.9693478896118232</v>
       </c>
       <c r="D120">
-        <v>0.293445289026483</v>
+        <v>0.2690227909677494</v>
       </c>
       <c r="E120">
         <v>0.1649321768135601</v>
@@ -4049,7 +4049,7 @@
         <v>0.9771860003596028</v>
       </c>
       <c r="D121">
-        <v>0.2874040058791399</v>
+        <v>0.2721339013965158</v>
       </c>
       <c r="E121">
         <v>0.1422905033413143</v>
@@ -4075,7 +4075,7 @@
         <v>0.9905129684277644</v>
       </c>
       <c r="D122">
-        <v>0.3229265399082734</v>
+        <v>0.282916971151243</v>
       </c>
       <c r="E122">
         <v>0.09175724668318759</v>
@@ -4101,7 +4101,7 @@
         <v>0.9945291739583768</v>
       </c>
       <c r="D123">
-        <v>0.3423280107681014</v>
+        <v>0.2967737543616933</v>
       </c>
       <c r="E123">
         <v>0.06967895892457131</v>
@@ -4127,7 +4127,7 @@
         <v>0.9963765905353987</v>
       </c>
       <c r="D124">
-        <v>0.3482381495249758</v>
+        <v>0.2953429520106362</v>
       </c>
       <c r="E124">
         <v>0.05670663903136272</v>
@@ -4153,7 +4153,7 @@
         <v>0.997411389302068</v>
       </c>
       <c r="D125">
-        <v>0.3553663615578672</v>
+        <v>0.2930084785246008</v>
       </c>
       <c r="E125">
         <v>0.04793012606826749</v>
@@ -4179,7 +4179,7 @@
         <v>0.9982329497638015</v>
       </c>
       <c r="D126">
-        <v>0.3318450356306302</v>
+        <v>0.2699483502011187</v>
       </c>
       <c r="E126">
         <v>0.03960040692688668</v>
@@ -4205,7 +4205,7 @@
         <v>0.9985282363286168</v>
       </c>
       <c r="D127">
-        <v>0.3527205538277588</v>
+        <v>0.2784927217325177</v>
       </c>
       <c r="E127">
         <v>0.03614050691913286</v>
@@ -4231,7 +4231,7 @@
         <v>0.9986120639123588</v>
       </c>
       <c r="D128">
-        <v>0.3472256638983129</v>
+        <v>0.2757677169903535</v>
       </c>
       <c r="E128">
         <v>0.03509618692273465</v>
@@ -4257,7 +4257,7 @@
         <v>0.9986185662099447</v>
       </c>
       <c r="D129">
-        <v>0.3573097310107594</v>
+        <v>0.2797210983807125</v>
       </c>
       <c r="E129">
         <v>0.03501387990584755</v>
@@ -4283,7 +4283,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D130">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E130">
         <v>0.03501273738366083</v>
@@ -4309,7 +4309,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D131">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E131">
         <v>0.03501273738366083</v>
@@ -4335,7 +4335,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D132">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E132">
         <v>0.03501273738366083</v>
@@ -4361,7 +4361,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D133">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E133">
         <v>0.03501273738366083</v>
@@ -4387,7 +4387,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D134">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E134">
         <v>0.03501273738366083</v>
@@ -4413,7 +4413,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D135">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E135">
         <v>0.03501273738366083</v>
@@ -4439,7 +4439,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D136">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E136">
         <v>0.03501273738366083</v>
@@ -4465,7 +4465,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D137">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E137">
         <v>0.03501273738366083</v>
@@ -4491,7 +4491,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D138">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E138">
         <v>0.03501273738366083</v>
@@ -4517,7 +4517,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D139">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E139">
         <v>0.03501273738366083</v>
@@ -4543,7 +4543,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D140">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E140">
         <v>0.03501273738366083</v>
@@ -4569,7 +4569,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D141">
-        <v>0.3413474297453759</v>
+        <v>0.2643002911423152</v>
       </c>
       <c r="E141">
         <v>0.03501273738366083</v>
@@ -4595,7 +4595,7 @@
         <v>0.7194645791113866</v>
       </c>
       <c r="D142">
-        <v>0.1801306428401859</v>
+        <v>0.5055705779059011</v>
       </c>
       <c r="E142">
         <v>0.4989638159003557</v>
@@ -4621,7 +4621,7 @@
         <v>0.8129122946610483</v>
       </c>
       <c r="D143">
-        <v>0.2014489452508588</v>
+        <v>0.4202960799575391</v>
       </c>
       <c r="E143">
         <v>0.4074720503651499</v>
@@ -4647,7 +4647,7 @@
         <v>0.8500001745040642</v>
       </c>
       <c r="D144">
-        <v>0.2133259338071625</v>
+        <v>0.4204129561182334</v>
       </c>
       <c r="E144">
         <v>0.3648552311540715</v>
@@ -4673,7 +4673,7 @@
         <v>0.8732500121076472</v>
       </c>
       <c r="D145">
-        <v>0.04132728790174622</v>
+        <v>0.1885464910554989</v>
       </c>
       <c r="E145">
         <v>0.3353892696010889</v>
@@ -4699,7 +4699,7 @@
         <v>0.912737576851685</v>
       </c>
       <c r="D146">
-        <v>-0.04511094906196345</v>
+        <v>0.1012215247284868</v>
       </c>
       <c r="E146">
         <v>0.278284382890917</v>
@@ -4725,7 +4725,7 @@
         <v>0.936011379850418</v>
       </c>
       <c r="D147">
-        <v>-0.1374355153883675</v>
+        <v>0.0859549783495952</v>
       </c>
       <c r="E147">
         <v>0.2383013886141729</v>
@@ -4751,7 +4751,7 @@
         <v>0.950813781182554</v>
       </c>
       <c r="D148">
-        <v>-0.3747537401881258</v>
+        <v>-0.1918374695452991</v>
       </c>
       <c r="E148">
         <v>0.2089281310022321</v>
@@ -4777,7 +4777,7 @@
         <v>0.962904120679418</v>
       </c>
       <c r="D149">
-        <v>-0.08234330097817866</v>
+        <v>0.07315719870364656</v>
       </c>
       <c r="E149">
         <v>0.181442088201785</v>
@@ -4803,7 +4803,7 @@
         <v>0.97887825806027</v>
       </c>
       <c r="D150">
-        <v>-0.3172448380939561</v>
+        <v>-0.166470593972897</v>
       </c>
       <c r="E150">
         <v>0.1369115434962711</v>
@@ -4829,7 +4829,7 @@
         <v>0.9923468671000942</v>
       </c>
       <c r="D151">
-        <v>-0.1992704360690714</v>
+        <v>-0.09156836311239447</v>
       </c>
       <c r="E151">
         <v>0.08241283004829091</v>
@@ -4855,7 +4855,7 @@
         <v>0.9967385334556702</v>
       </c>
       <c r="D152">
-        <v>-0.01345433502253801</v>
+        <v>-0.02541473655706095</v>
       </c>
       <c r="E152">
         <v>0.05379992428288023</v>
@@ -4881,7 +4881,7 @@
         <v>0.9983873000942753</v>
       </c>
       <c r="D153">
-        <v>0.04568137072251155</v>
+        <v>0.1050585131854562</v>
       </c>
       <c r="E153">
         <v>0.037831362327873</v>
@@ -4907,7 +4907,7 @@
         <v>0.9986049235305848</v>
       </c>
       <c r="D154">
-        <v>-0.3544674265023953</v>
+        <v>-0.2067254388100097</v>
       </c>
       <c r="E154">
         <v>0.03518634910398066</v>
@@ -4933,7 +4933,7 @@
         <v>0.9986184394109766</v>
       </c>
       <c r="D155">
-        <v>-0.3492513661738674</v>
+        <v>-0.1699379199138742</v>
       </c>
       <c r="E155">
         <v>0.03501548679500815</v>
@@ -4959,7 +4959,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D156">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E156">
         <v>0.03501273738366083</v>
@@ -4985,7 +4985,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D157">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E157">
         <v>0.03501273738366083</v>
@@ -5011,7 +5011,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D158">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E158">
         <v>0.03501273738366083</v>
@@ -5037,7 +5037,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D159">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E159">
         <v>0.03501273738366083</v>
@@ -5063,7 +5063,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D160">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E160">
         <v>0.03501273738366083</v>
@@ -5089,7 +5089,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D161">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E161">
         <v>0.03501273738366083</v>
@@ -5115,7 +5115,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D162">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E162">
         <v>0.03501273738366083</v>
@@ -5141,7 +5141,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D163">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E163">
         <v>0.03501273738366083</v>
@@ -5167,7 +5167,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D164">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E164">
         <v>0.03501273738366083</v>
@@ -5193,7 +5193,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D165">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E165">
         <v>0.03501273738366083</v>
@@ -5219,7 +5219,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D166">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E166">
         <v>0.03501273738366083</v>
@@ -5245,7 +5245,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D167">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E167">
         <v>0.03501273738366083</v>
@@ -5271,7 +5271,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D168">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E168">
         <v>0.03501273738366083</v>
@@ -5297,7 +5297,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D169">
-        <v>-0.3256293665807906</v>
+        <v>-0.2176796147450335</v>
       </c>
       <c r="E169">
         <v>0.03501273738366083</v>
@@ -5323,7 +5323,7 @@
         <v>0.708940162172636</v>
       </c>
       <c r="D170">
-        <v>0.1819133876508645</v>
+        <v>0.5493633512311964</v>
       </c>
       <c r="E170">
         <v>0.5082370739472515</v>
@@ -5349,7 +5349,7 @@
         <v>0.8047833065803225</v>
       </c>
       <c r="D171">
-        <v>0.1370467569872698</v>
+        <v>0.4120207029311649</v>
       </c>
       <c r="E171">
         <v>0.4162302852905649</v>
@@ -5375,7 +5375,7 @@
         <v>0.8494647942765953</v>
       </c>
       <c r="D172">
-        <v>-0.1546566166574119</v>
+        <v>0.03040278960582732</v>
       </c>
       <c r="E172">
         <v>0.3655057728714661</v>
@@ -5401,7 +5401,7 @@
         <v>0.8731146557350495</v>
       </c>
       <c r="D173">
-        <v>0.06605123517651756</v>
+        <v>0.2262439236553651</v>
       </c>
       <c r="E173">
         <v>0.3355683029969639</v>
@@ -5427,7 +5427,7 @@
         <v>0.9079536772109419</v>
       </c>
       <c r="D174">
-        <v>-0.3324687136176234</v>
+        <v>-0.09260287734328965</v>
       </c>
       <c r="E174">
         <v>0.2858106595443808</v>
@@ -5453,7 +5453,7 @@
         <v>0.9343029360896695</v>
       </c>
       <c r="D175">
-        <v>-0.1437871643068822</v>
+        <v>0.08399737839399923</v>
       </c>
       <c r="E175">
         <v>0.2414616593753206</v>
@@ -5479,7 +5479,7 @@
         <v>0.9510287271649002</v>
       </c>
       <c r="D176">
-        <v>-0.5114689447147018</v>
+        <v>-0.2553806529190945</v>
       </c>
       <c r="E176">
         <v>0.2084711185125951</v>
@@ -5505,7 +5505,7 @@
         <v>0.9629225273563522</v>
       </c>
       <c r="D177">
-        <v>0.05183829963187558</v>
+        <v>0.2036481189114454</v>
       </c>
       <c r="E177">
         <v>0.181397067564014</v>
@@ -5531,7 +5531,7 @@
         <v>0.9788784271279087</v>
       </c>
       <c r="D178">
-        <v>0.1185798714793339</v>
+        <v>0.2036080554278683</v>
       </c>
       <c r="E178">
         <v>0.1369109955453078</v>
@@ -5557,7 +5557,7 @@
         <v>0.9895293201147138</v>
       </c>
       <c r="D179">
-        <v>-0.2117662245087271</v>
+        <v>-0.02692880425188582</v>
       </c>
       <c r="E179">
         <v>0.09639680541374518</v>
@@ -5583,7 +5583,7 @@
         <v>0.9961968177953255</v>
       </c>
       <c r="D180">
-        <v>-0.1281415376445201</v>
+        <v>-0.003253391673271988</v>
       </c>
       <c r="E180">
         <v>0.05809633911761553</v>
@@ -5609,7 +5609,7 @@
         <v>0.9983885764298797</v>
       </c>
       <c r="D181">
-        <v>-0.07290724744284494</v>
+        <v>-0.0241923505524535</v>
       </c>
       <c r="E181">
         <v>0.03781638896800089</v>
@@ -5635,7 +5635,7 @@
         <v>0.9986049235305848</v>
       </c>
       <c r="D182">
-        <v>-0.2588818863626463</v>
+        <v>-0.1339552804562982</v>
       </c>
       <c r="E182">
         <v>0.03518634910398066</v>
@@ -5661,7 +5661,7 @@
         <v>0.9986184394109766</v>
       </c>
       <c r="D183">
-        <v>-0.003693373154144641</v>
+        <v>0.05560032005585158</v>
       </c>
       <c r="E183">
         <v>0.03501548679500815</v>
@@ -5687,7 +5687,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D184">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E184">
         <v>0.03501273738366083</v>
@@ -5713,7 +5713,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D185">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E185">
         <v>0.03501273738366083</v>
@@ -5739,7 +5739,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D186">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E186">
         <v>0.03501273738366083</v>
@@ -5765,7 +5765,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D187">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E187">
         <v>0.03501273738366083</v>
@@ -5791,7 +5791,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D188">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E188">
         <v>0.03501273738366083</v>
@@ -5817,7 +5817,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D189">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E189">
         <v>0.03501273738366083</v>
@@ -5843,7 +5843,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D190">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E190">
         <v>0.03501273738366083</v>
@@ -5869,7 +5869,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D191">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E191">
         <v>0.03501273738366083</v>
@@ -5895,7 +5895,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D192">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E192">
         <v>0.03501273738366083</v>
@@ -5921,7 +5921,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D193">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E193">
         <v>0.03501273738366083</v>
@@ -5947,7 +5947,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D194">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E194">
         <v>0.03501273738366083</v>
@@ -5973,7 +5973,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D195">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E195">
         <v>0.03501273738366083</v>
@@ -5999,7 +5999,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D196">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E196">
         <v>0.03501273738366083</v>
@@ -6025,7 +6025,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D197">
-        <v>-0.2534581629493622</v>
+        <v>-0.118112529923764</v>
       </c>
       <c r="E197">
         <v>0.03501273738366083</v>
@@ -6051,7 +6051,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D198">
-        <v>0.1121401233109609</v>
+        <v>0.4978018741370746</v>
       </c>
       <c r="E198">
         <v>0.5097153154397485</v>
@@ -6077,7 +6077,7 @@
         <v>0.7986229786808837</v>
       </c>
       <c r="D199">
-        <v>0.3569826674098358</v>
+        <v>0.4355952570327937</v>
       </c>
       <c r="E199">
         <v>0.4227466325140595</v>
@@ -6103,7 +6103,7 @@
         <v>0.8465530397959402</v>
       </c>
       <c r="D200">
-        <v>0.423597358650199</v>
+        <v>0.4803655841985596</v>
       </c>
       <c r="E200">
         <v>0.3690237732641946</v>
@@ -6129,7 +6129,7 @@
         <v>0.8744619760269756</v>
       </c>
       <c r="D201">
-        <v>0.3462003104115141</v>
+        <v>0.4080052835636465</v>
       </c>
       <c r="E201">
         <v>0.3337819477858663</v>
@@ -6155,7 +6155,7 @@
         <v>0.9233851541828768</v>
       </c>
       <c r="D202">
-        <v>0.1881508043326762</v>
+        <v>0.2380247830456694</v>
       </c>
       <c r="E202">
         <v>0.2607544125732282</v>
@@ -6181,7 +6181,7 @@
         <v>0.9622093024754702</v>
       </c>
       <c r="D203">
-        <v>0.3787292802409699</v>
+        <v>0.465422024970672</v>
       </c>
       <c r="E203">
         <v>0.1831334404886001</v>
@@ -6207,7 +6207,7 @@
         <v>0.9785068854578975</v>
       </c>
       <c r="D204">
-        <v>0.3441762319822955</v>
+        <v>0.4303286669955777</v>
       </c>
       <c r="E204">
         <v>0.1381099210653927</v>
@@ -6233,7 +6233,7 @@
         <v>0.9899628548378865</v>
       </c>
       <c r="D205">
-        <v>0.3714878552055462</v>
+        <v>0.4450090561412823</v>
       </c>
       <c r="E205">
         <v>0.09438007172670028</v>
@@ -6259,7 +6259,7 @@
         <v>0.9956892347608489</v>
       </c>
       <c r="D206">
-        <v>0.4468332464014437</v>
+        <v>0.4941891913157188</v>
       </c>
       <c r="E206">
         <v>0.06185180621616921</v>
@@ -6285,7 +6285,7 @@
         <v>0.9981495921553396</v>
       </c>
       <c r="D207">
-        <v>0.3802206967691125</v>
+        <v>0.4523177196286348</v>
       </c>
       <c r="E207">
         <v>0.04052368501037128</v>
@@ -6311,7 +6311,7 @@
         <v>0.9985964210124686</v>
       </c>
       <c r="D208">
-        <v>0.3778997678847971</v>
+        <v>0.4498776604761424</v>
       </c>
       <c r="E208">
         <v>0.03529341066018377</v>
@@ -6337,7 +6337,7 @@
         <v>0.9986185405100836</v>
       </c>
       <c r="D209">
-        <v>0.4354744845643856</v>
+        <v>0.4896137896788187</v>
       </c>
       <c r="E209">
         <v>0.03501420559922149</v>
@@ -6363,7 +6363,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D210">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E210">
         <v>0.03501273738366083</v>
@@ -6389,7 +6389,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D211">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E211">
         <v>0.03501273738366083</v>
@@ -6415,7 +6415,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D212">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E212">
         <v>0.03501273738366083</v>
@@ -6441,7 +6441,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D213">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E213">
         <v>0.03501273738366083</v>
@@ -6467,7 +6467,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D214">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E214">
         <v>0.03501273738366083</v>
@@ -6493,7 +6493,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D215">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E215">
         <v>0.03501273738366083</v>
@@ -6519,7 +6519,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D216">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E216">
         <v>0.03501273738366083</v>
@@ -6545,7 +6545,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D217">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E217">
         <v>0.03501273738366083</v>
@@ -6571,7 +6571,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D218">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E218">
         <v>0.03501273738366083</v>
@@ -6597,7 +6597,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D219">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E219">
         <v>0.03501273738366083</v>
@@ -6623,7 +6623,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D220">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E220">
         <v>0.03501273738366083</v>
@@ -6649,7 +6649,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D221">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E221">
         <v>0.03501273738366083</v>
@@ -6675,7 +6675,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D222">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E222">
         <v>0.03501273738366083</v>
@@ -6701,7 +6701,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D223">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E223">
         <v>0.03501273738366083</v>
@@ -6727,7 +6727,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D224">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E224">
         <v>0.03501273738366083</v>
@@ -6753,7 +6753,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D225">
-        <v>0.4002090485014038</v>
+        <v>0.4658093113647254</v>
       </c>
       <c r="E225">
         <v>0.03501273738366083</v>
@@ -6779,7 +6779,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D226">
-        <v>0.1121401233109609</v>
+        <v>0.4978018741370746</v>
       </c>
       <c r="E226">
         <v>0.5097153154397485</v>
@@ -6805,7 +6805,7 @@
         <v>0.7973523539624309</v>
       </c>
       <c r="D227">
-        <v>-0.1348916206071016</v>
+        <v>0.3470526719698185</v>
       </c>
       <c r="E227">
         <v>0.424078233471142</v>
@@ -6831,7 +6831,7 @@
         <v>0.846559667052238</v>
       </c>
       <c r="D228">
-        <v>-0.007938474173724064</v>
+        <v>0.205894043847596</v>
       </c>
       <c r="E228">
         <v>0.3690158042515509</v>
@@ -6857,7 +6857,7 @@
         <v>0.8744555460890677</v>
       </c>
       <c r="D229">
-        <v>-0.1333153980864363</v>
+        <v>0.1809192586049042</v>
       </c>
       <c r="E229">
         <v>0.3337904956729936</v>
@@ -6883,7 +6883,7 @@
         <v>0.9233831412612461</v>
       </c>
       <c r="D230">
-        <v>-0.1869647201497548</v>
+        <v>0.1485651871688901</v>
       </c>
       <c r="E230">
         <v>0.2607578379847413</v>
@@ -6909,7 +6909,7 @@
         <v>0.9472386175878867</v>
       </c>
       <c r="D231">
-        <v>-0.0327374824786284</v>
+        <v>0.3694569763286331</v>
       </c>
       <c r="E231">
         <v>0.2163880551128356</v>
@@ -6935,7 +6935,7 @@
         <v>0.9662439015218696</v>
       </c>
       <c r="D232">
-        <v>-0.196672180896357</v>
+        <v>0.1362123788441301</v>
       </c>
       <c r="E232">
         <v>0.1730817681125274</v>
@@ -6961,7 +6961,7 @@
         <v>0.9830409722814611</v>
       </c>
       <c r="D233">
-        <v>-0.09576530121656601</v>
+        <v>0.2984172213179933</v>
       </c>
       <c r="E233">
         <v>0.1226805390225685</v>
@@ -6987,7 +6987,7 @@
         <v>0.9924086397766804</v>
       </c>
       <c r="D234">
-        <v>-0.1222129325942956</v>
+        <v>0.2381130527732094</v>
       </c>
       <c r="E234">
         <v>0.08207955636657692</v>
@@ -7013,7 +7013,7 @@
         <v>0.9972058658299038</v>
       </c>
       <c r="D235">
-        <v>-0.03713432517315929</v>
+        <v>0.3008818790943227</v>
       </c>
       <c r="E235">
         <v>0.04979650111363527</v>
@@ -7039,7 +7039,7 @@
         <v>0.998316024018907</v>
       </c>
       <c r="D236">
-        <v>-0.09337603424256158</v>
+        <v>0.281070025418283</v>
       </c>
       <c r="E236">
         <v>0.03865833514824823</v>
@@ -7065,7 +7065,7 @@
         <v>0.9986064664993869</v>
       </c>
       <c r="D237">
-        <v>-0.08743706510130922</v>
+        <v>0.2748617317739871</v>
       </c>
       <c r="E237">
         <v>0.03516688549028459</v>
@@ -7091,7 +7091,7 @@
         <v>0.9986185405100836</v>
       </c>
       <c r="D238">
-        <v>-0.06965828682413844</v>
+        <v>0.2718320552877446</v>
       </c>
       <c r="E238">
         <v>0.03501420559922149</v>
@@ -7117,7 +7117,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D239">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E239">
         <v>0.03501273738366083</v>
@@ -7143,7 +7143,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D240">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E240">
         <v>0.03501273738366083</v>
@@ -7169,7 +7169,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D241">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E241">
         <v>0.03501273738366083</v>
@@ -7195,7 +7195,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D242">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E242">
         <v>0.03501273738366083</v>
@@ -7221,7 +7221,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D243">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E243">
         <v>0.03501273738366083</v>
@@ -7247,7 +7247,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D244">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E244">
         <v>0.03501273738366083</v>
@@ -7273,7 +7273,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D245">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E245">
         <v>0.03501273738366083</v>
@@ -7299,7 +7299,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D246">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E246">
         <v>0.03501273738366083</v>
@@ -7325,7 +7325,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D247">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E247">
         <v>0.03501273738366083</v>
@@ -7351,7 +7351,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D248">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E248">
         <v>0.03501273738366083</v>
@@ -7377,7 +7377,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D249">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E249">
         <v>0.03501273738366083</v>
@@ -7403,7 +7403,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D250">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E250">
         <v>0.03501273738366083</v>
@@ -7429,7 +7429,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D251">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E251">
         <v>0.03501273738366083</v>
@@ -7455,7 +7455,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D252">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E252">
         <v>0.03501273738366083</v>
@@ -7481,7 +7481,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D253">
-        <v>-0.1025605276769159</v>
+        <v>0.248537951679586</v>
       </c>
       <c r="E253">
         <v>0.03501273738366083</v>
@@ -7507,7 +7507,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D254">
-        <v>0.1121401233109585</v>
+        <v>0.4978018741370741</v>
       </c>
       <c r="E254">
         <v>0.5097153154397485</v>
@@ -7533,7 +7533,7 @@
         <v>0.7973523539624309</v>
       </c>
       <c r="D255">
-        <v>-0.1348916206071005</v>
+        <v>0.3470526719698191</v>
       </c>
       <c r="E255">
         <v>0.4240782334711421</v>
@@ -7559,7 +7559,7 @@
         <v>0.8458984550382943</v>
       </c>
       <c r="D256">
-        <v>-0.16334309084724</v>
+        <v>0.1826628294625485</v>
       </c>
       <c r="E256">
         <v>0.3698100393193806</v>
@@ -7585,7 +7585,7 @@
         <v>0.8736058836878249</v>
       </c>
       <c r="D257">
-        <v>-0.2111265132579998</v>
+        <v>0.08779458456867273</v>
       </c>
       <c r="E257">
         <v>0.3349181081961078</v>
@@ -7611,7 +7611,7 @@
         <v>0.9225864308468936</v>
       </c>
       <c r="D258">
-        <v>-0.1480566977738609</v>
+        <v>0.202805495718132</v>
       </c>
       <c r="E258">
         <v>0.262110093894988</v>
@@ -7637,7 +7637,7 @@
         <v>0.946792643425062</v>
       </c>
       <c r="D259">
-        <v>-0.1724705566109983</v>
+        <v>0.1211451902102231</v>
       </c>
       <c r="E259">
         <v>0.2173006582973963</v>
@@ -7663,7 +7663,7 @@
         <v>0.9658996432376534</v>
       </c>
       <c r="D260">
-        <v>-0.2549640324207274</v>
+        <v>0.08024267519797401</v>
       </c>
       <c r="E260">
         <v>0.1739621080722076</v>
@@ -7689,7 +7689,7 @@
         <v>0.9826379487812966</v>
       </c>
       <c r="D261">
-        <v>-0.28237968705243</v>
+        <v>0.05097148465717438</v>
       </c>
       <c r="E261">
         <v>0.1241297032105397</v>
@@ -7715,7 +7715,7 @@
         <v>0.9922762942372725</v>
       </c>
       <c r="D262">
-        <v>-0.2928810351551798</v>
+        <v>0.01696917589335778</v>
       </c>
       <c r="E262">
         <v>0.08279194032087141</v>
@@ -7741,7 +7741,7 @@
         <v>0.9962143955082721</v>
       </c>
       <c r="D263">
-        <v>-0.257058779462523</v>
+        <v>0.02349711347840888</v>
       </c>
       <c r="E263">
         <v>0.05796192753680517</v>
@@ -7767,7 +7767,7 @@
         <v>0.9982298035252138</v>
       </c>
       <c r="D264">
-        <v>-0.2745026977045728</v>
+        <v>0.02010785871903342</v>
       </c>
       <c r="E264">
         <v>0.03963564557372061</v>
@@ -7793,7 +7793,7 @@
         <v>0.9986054424919342</v>
       </c>
       <c r="D265">
-        <v>-0.2915023841676783</v>
+        <v>0.01208310102202415</v>
       </c>
       <c r="E265">
         <v>0.03517980392380103</v>
@@ -7819,7 +7819,7 @@
         <v>0.99861651394243</v>
       </c>
       <c r="D266">
-        <v>-0.2403148716766437</v>
+        <v>0.05067926243211118</v>
       </c>
       <c r="E266">
         <v>0.03503987868352589</v>
@@ -7845,7 +7845,7 @@
         <v>0.9986184829461283</v>
       </c>
       <c r="D267">
-        <v>-0.1628266192855541</v>
+        <v>0.1029873003016045</v>
       </c>
       <c r="E267">
         <v>0.03501493509407236</v>
@@ -7871,7 +7871,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D268">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E268">
         <v>0.03501273738366083</v>
@@ -7897,7 +7897,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D269">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E269">
         <v>0.03501273738366083</v>
@@ -7923,7 +7923,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D270">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E270">
         <v>0.03501273738366083</v>
@@ -7949,7 +7949,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D271">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E271">
         <v>0.03501273738366083</v>
@@ -7975,7 +7975,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D272">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E272">
         <v>0.03501273738366083</v>
@@ -8001,7 +8001,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D273">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E273">
         <v>0.03501273738366083</v>
@@ -8027,7 +8027,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D274">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E274">
         <v>0.03501273738366083</v>
@@ -8053,7 +8053,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D275">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E275">
         <v>0.03501273738366083</v>
@@ -8079,7 +8079,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D276">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E276">
         <v>0.03501273738366083</v>
@@ -8105,7 +8105,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D277">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E277">
         <v>0.03501273738366083</v>
@@ -8131,7 +8131,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D278">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E278">
         <v>0.03501273738366083</v>
@@ -8157,7 +8157,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D279">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E279">
         <v>0.03501273738366083</v>
@@ -8183,7 +8183,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D280">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E280">
         <v>0.03501273738366083</v>
@@ -8209,7 +8209,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D281">
-        <v>-0.2953105417014843</v>
+        <v>0.007197387393178212</v>
       </c>
       <c r="E281">
         <v>0.03501273738366083</v>
@@ -8235,7 +8235,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D282">
-        <v>0.1121401233109638</v>
+        <v>0.4978018741370753</v>
       </c>
       <c r="E282">
         <v>0.5097153154397485</v>
@@ -8261,7 +8261,7 @@
         <v>0.7973523539624309</v>
       </c>
       <c r="D283">
-        <v>0.3573517791251651</v>
+        <v>0.4383274674340154</v>
       </c>
       <c r="E283">
         <v>0.424078233471142</v>
@@ -8287,7 +8287,7 @@
         <v>0.8458984550382942</v>
       </c>
       <c r="D284">
-        <v>0.3550211121490475</v>
+        <v>0.455264259570024</v>
       </c>
       <c r="E284">
         <v>0.3698100393193806</v>
@@ -8313,7 +8313,7 @@
         <v>0.8736058836878249</v>
       </c>
       <c r="D285">
-        <v>0.2928987535411074</v>
+        <v>0.4262120095853494</v>
       </c>
       <c r="E285">
         <v>0.3349181081961079</v>
@@ -8339,7 +8339,7 @@
         <v>0.9225864308468936</v>
       </c>
       <c r="D286">
-        <v>0.1242840253387872</v>
+        <v>0.1273127998565298</v>
       </c>
       <c r="E286">
         <v>0.262110093894988</v>
@@ -8365,7 +8365,7 @@
         <v>0.9426849000382657</v>
       </c>
       <c r="D287">
-        <v>0.3212141005564868</v>
+        <v>0.3626814318263132</v>
       </c>
       <c r="E287">
         <v>0.225532808225784</v>
@@ -8391,7 +8391,7 @@
         <v>0.966501876087796</v>
       </c>
       <c r="D288">
-        <v>0.2944759294850134</v>
+        <v>0.3117101675780805</v>
       </c>
       <c r="E288">
         <v>0.1724191274021278</v>
@@ -8417,7 +8417,7 @@
         <v>0.9794908603734983</v>
       </c>
       <c r="D289">
-        <v>0.2614601187254058</v>
+        <v>0.268013072790686</v>
       </c>
       <c r="E289">
         <v>0.1349114845882914</v>
@@ -8443,7 +8443,7 @@
         <v>0.9909799827515091</v>
       </c>
       <c r="D290">
-        <v>0.263913615549913</v>
+        <v>0.2568976275326622</v>
       </c>
       <c r="E290">
         <v>0.08947029812921899</v>
@@ -8469,7 +8469,7 @@
         <v>0.9965083939740629</v>
       </c>
       <c r="D291">
-        <v>0.264531839724939</v>
+        <v>0.267390570821083</v>
       </c>
       <c r="E291">
         <v>0.05566571831914143</v>
@@ -8495,7 +8495,7 @@
         <v>0.9986028955653899</v>
       </c>
       <c r="D292">
-        <v>0.2589519053418452</v>
+        <v>0.2447998795459194</v>
       </c>
       <c r="E292">
         <v>0.03521191428970468</v>
@@ -8521,7 +8521,7 @@
         <v>0.9986156822429134</v>
       </c>
       <c r="D293">
-        <v>0.3257782862617707</v>
+        <v>0.3034610831866726</v>
       </c>
       <c r="E293">
         <v>0.03505040942630258</v>
@@ -8547,7 +8547,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D294">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E294">
         <v>0.03501273738366083</v>
@@ -8573,7 +8573,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D295">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E295">
         <v>0.03501273738366083</v>
@@ -8599,7 +8599,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D296">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E296">
         <v>0.03501273738366083</v>
@@ -8625,7 +8625,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D297">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E297">
         <v>0.03501273738366083</v>
@@ -8651,7 +8651,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D298">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E298">
         <v>0.03501273738366083</v>
@@ -8677,7 +8677,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D299">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E299">
         <v>0.03501273738366083</v>
@@ -8703,7 +8703,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D300">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E300">
         <v>0.03501273738366083</v>
@@ -8729,7 +8729,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D301">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E301">
         <v>0.03501273738366083</v>
@@ -8755,7 +8755,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D302">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E302">
         <v>0.03501273738366083</v>
@@ -8781,7 +8781,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D303">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E303">
         <v>0.03501273738366083</v>
@@ -8807,7 +8807,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D304">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E304">
         <v>0.03501273738366083</v>
@@ -8833,7 +8833,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D305">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E305">
         <v>0.03501273738366083</v>
@@ -8859,7 +8859,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D306">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E306">
         <v>0.03501273738366083</v>
@@ -8885,7 +8885,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D307">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E307">
         <v>0.03501273738366083</v>
@@ -8911,7 +8911,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D308">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E308">
         <v>0.03501273738366083</v>
@@ -8937,7 +8937,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D309">
-        <v>0.2604855025995058</v>
+        <v>0.2457040789931096</v>
       </c>
       <c r="E309">
         <v>0.03501273738366083</v>
@@ -8963,7 +8963,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D310">
-        <v>0.1121401233109605</v>
+        <v>0.4978018741370748</v>
       </c>
       <c r="E310">
         <v>0.5097153154397485</v>
@@ -8989,7 +8989,7 @@
         <v>0.7973523539624309</v>
       </c>
       <c r="D311">
-        <v>-0.1348916206070983</v>
+        <v>0.3470526719698196</v>
       </c>
       <c r="E311">
         <v>0.4240782334711421</v>
@@ -9015,7 +9015,7 @@
         <v>0.8458984550382943</v>
       </c>
       <c r="D312">
-        <v>-0.06781775378873989</v>
+        <v>0.3782641572623059</v>
       </c>
       <c r="E312">
         <v>0.3698100393193806</v>
@@ -9041,7 +9041,7 @@
         <v>0.8736058836878249</v>
       </c>
       <c r="D313">
-        <v>-0.2331548591336812</v>
+        <v>0.158140507751439</v>
       </c>
       <c r="E313">
         <v>0.3349181081961078</v>
@@ -9067,7 +9067,7 @@
         <v>0.91801431323015</v>
       </c>
       <c r="D314">
-        <v>-0.1167712636793454</v>
+        <v>0.2450936188407673</v>
       </c>
       <c r="E314">
         <v>0.269739296166813</v>
@@ -9093,7 +9093,7 @@
         <v>0.9431932841502714</v>
       </c>
       <c r="D315">
-        <v>-0.05638725922381482</v>
+        <v>0.2729995704061129</v>
       </c>
       <c r="E315">
         <v>0.2245303439314372</v>
@@ -9119,7 +9119,7 @@
         <v>0.9668087384841327</v>
       </c>
       <c r="D316">
-        <v>-0.1267854708407659</v>
+        <v>0.2157452492784695</v>
       </c>
       <c r="E316">
         <v>0.1716275804761555</v>
@@ -9145,7 +9145,7 @@
         <v>0.9794908603734983</v>
       </c>
       <c r="D317">
-        <v>-0.1110323052697073</v>
+        <v>0.2034274867605251</v>
       </c>
       <c r="E317">
         <v>0.1349114845882914</v>
@@ -9171,7 +9171,7 @@
         <v>0.9909799827515091</v>
       </c>
       <c r="D318">
-        <v>-0.09585237989979212</v>
+        <v>0.2019589034141576</v>
       </c>
       <c r="E318">
         <v>0.08947029812921899</v>
@@ -9197,7 +9197,7 @@
         <v>0.9965083939740629</v>
       </c>
       <c r="D319">
-        <v>-0.002960387253186036</v>
+        <v>0.250477845754428</v>
       </c>
       <c r="E319">
         <v>0.05566571831914143</v>
@@ -9223,7 +9223,7 @@
         <v>0.9986028955653899</v>
       </c>
       <c r="D320">
-        <v>-0.03726014583346737</v>
+        <v>0.2122435542496233</v>
       </c>
       <c r="E320">
         <v>0.03521191428970468</v>
@@ -9249,7 +9249,7 @@
         <v>0.9986156822429134</v>
       </c>
       <c r="D321">
-        <v>-0.06373656282241225</v>
+        <v>0.202624516138682</v>
       </c>
       <c r="E321">
         <v>0.03505040942630258</v>
@@ -9275,7 +9275,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D322">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E322">
         <v>0.03501273738366083</v>
@@ -9301,7 +9301,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D323">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E323">
         <v>0.03501273738366083</v>
@@ -9327,7 +9327,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D324">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E324">
         <v>0.03501273738366083</v>
@@ -9353,7 +9353,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D325">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E325">
         <v>0.03501273738366083</v>
@@ -9379,7 +9379,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D326">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E326">
         <v>0.03501273738366083</v>
@@ -9405,7 +9405,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D327">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E327">
         <v>0.03501273738366083</v>
@@ -9431,7 +9431,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D328">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E328">
         <v>0.03501273738366083</v>
@@ -9457,7 +9457,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D329">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E329">
         <v>0.03501273738366083</v>
@@ -9483,7 +9483,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D330">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E330">
         <v>0.03501273738366083</v>
@@ -9509,7 +9509,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D331">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E331">
         <v>0.03501273738366083</v>
@@ -9535,7 +9535,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D332">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E332">
         <v>0.03501273738366083</v>
@@ -9561,7 +9561,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D333">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E333">
         <v>0.03501273738366083</v>
@@ -9587,7 +9587,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D334">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E334">
         <v>0.03501273738366083</v>
@@ -9613,7 +9613,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D335">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E335">
         <v>0.03501273738366083</v>
@@ -9639,7 +9639,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D336">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E336">
         <v>0.03501273738366083</v>
@@ -9665,7 +9665,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D337">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E337">
         <v>0.03501273738366083</v>
@@ -9691,7 +9691,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D338">
-        <v>0.1121401233109605</v>
+        <v>0.4978018741370748</v>
       </c>
       <c r="E338">
         <v>0.5097153154397485</v>
@@ -9717,7 +9717,7 @@
         <v>0.7973523539624309</v>
       </c>
       <c r="D339">
-        <v>-0.1348916206070983</v>
+        <v>0.3470526719698196</v>
       </c>
       <c r="E339">
         <v>0.4240782334711421</v>
@@ -9743,7 +9743,7 @@
         <v>0.8458984550382943</v>
       </c>
       <c r="D340">
-        <v>-0.06781775378873989</v>
+        <v>0.3782641572623059</v>
       </c>
       <c r="E340">
         <v>0.3698100393193806</v>
@@ -9769,7 +9769,7 @@
         <v>0.8736058836878249</v>
       </c>
       <c r="D341">
-        <v>-0.2331548591336812</v>
+        <v>0.158140507751439</v>
       </c>
       <c r="E341">
         <v>0.3349181081961078</v>
@@ -9795,7 +9795,7 @@
         <v>0.91801431323015</v>
       </c>
       <c r="D342">
-        <v>-0.1167712636793454</v>
+        <v>0.2450936188407673</v>
       </c>
       <c r="E342">
         <v>0.269739296166813</v>
@@ -9821,7 +9821,7 @@
         <v>0.9431932841502714</v>
       </c>
       <c r="D343">
-        <v>-0.05638725922381482</v>
+        <v>0.2729995704061129</v>
       </c>
       <c r="E343">
         <v>0.2245303439314372</v>
@@ -9847,7 +9847,7 @@
         <v>0.9668087384841327</v>
       </c>
       <c r="D344">
-        <v>-0.1267854708407659</v>
+        <v>0.2157452492784695</v>
       </c>
       <c r="E344">
         <v>0.1716275804761555</v>
@@ -9873,7 +9873,7 @@
         <v>0.9794908603734983</v>
       </c>
       <c r="D345">
-        <v>-0.1110323052697073</v>
+        <v>0.2034274867605251</v>
       </c>
       <c r="E345">
         <v>0.1349114845882914</v>
@@ -9899,7 +9899,7 @@
         <v>0.9909799827515091</v>
       </c>
       <c r="D346">
-        <v>-0.09585237989979212</v>
+        <v>0.2019589034141576</v>
       </c>
       <c r="E346">
         <v>0.08947029812921899</v>
@@ -9925,7 +9925,7 @@
         <v>0.9965083939740629</v>
       </c>
       <c r="D347">
-        <v>-0.002960387253186036</v>
+        <v>0.250477845754428</v>
       </c>
       <c r="E347">
         <v>0.05566571831914143</v>
@@ -9951,7 +9951,7 @@
         <v>0.9986028955653899</v>
       </c>
       <c r="D348">
-        <v>-0.03726014583346737</v>
+        <v>0.2122435542496233</v>
       </c>
       <c r="E348">
         <v>0.03521191428970468</v>
@@ -9977,7 +9977,7 @@
         <v>0.9986156822429134</v>
       </c>
       <c r="D349">
-        <v>-0.06373656282241225</v>
+        <v>0.202624516138682</v>
       </c>
       <c r="E349">
         <v>0.03505040942630258</v>
@@ -10003,7 +10003,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D350">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E350">
         <v>0.03501273738366083</v>
@@ -10029,7 +10029,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D351">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E351">
         <v>0.03501273738366083</v>
@@ -10055,7 +10055,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D352">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E352">
         <v>0.03501273738366083</v>
@@ -10081,7 +10081,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D353">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E353">
         <v>0.03501273738366083</v>
@@ -10107,7 +10107,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D354">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E354">
         <v>0.03501273738366083</v>
@@ -10133,7 +10133,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D355">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E355">
         <v>0.03501273738366083</v>
@@ -10159,7 +10159,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D356">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E356">
         <v>0.03501273738366083</v>
@@ -10185,7 +10185,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D357">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E357">
         <v>0.03501273738366083</v>
@@ -10211,7 +10211,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D358">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E358">
         <v>0.03501273738366083</v>
@@ -10237,7 +10237,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D359">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E359">
         <v>0.03501273738366083</v>
@@ -10263,7 +10263,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D360">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E360">
         <v>0.03501273738366083</v>
@@ -10289,7 +10289,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D361">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E361">
         <v>0.03501273738366083</v>
@@ -10315,7 +10315,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D362">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E362">
         <v>0.03501273738366083</v>
@@ -10341,7 +10341,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D363">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E363">
         <v>0.03501273738366083</v>
@@ -10367,7 +10367,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D364">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E364">
         <v>0.03501273738366083</v>
@@ -10393,7 +10393,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D365">
-        <v>-0.1398095296084592</v>
+        <v>0.1570150584912416</v>
       </c>
       <c r="E365">
         <v>0.03501273738366083</v>
@@ -10419,7 +10419,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D366">
-        <v>0.1121401233109678</v>
+        <v>0.4978018741370762</v>
       </c>
       <c r="E366">
         <v>0.5097153154397485</v>
@@ -10445,7 +10445,7 @@
         <v>0.7973523539624309</v>
       </c>
       <c r="D367">
-        <v>0.357351779125165</v>
+        <v>0.4383274674340155</v>
       </c>
       <c r="E367">
         <v>0.424078233471142</v>
@@ -10471,7 +10471,7 @@
         <v>0.8458984550382942</v>
       </c>
       <c r="D368">
-        <v>0.3550211121490475</v>
+        <v>0.455264259570024</v>
       </c>
       <c r="E368">
         <v>0.3698100393193806</v>
@@ -10497,7 +10497,7 @@
         <v>0.8736058836878249</v>
       </c>
       <c r="D369">
-        <v>0.2572298774524064</v>
+        <v>0.3171161133308139</v>
       </c>
       <c r="E369">
         <v>0.3349181081961078</v>
@@ -10523,7 +10523,7 @@
         <v>0.9128236464679544</v>
       </c>
       <c r="D370">
-        <v>0.3587720135333241</v>
+        <v>0.4698780026192232</v>
       </c>
       <c r="E370">
         <v>0.2781471088031351</v>
@@ -10549,7 +10549,7 @@
         <v>0.949705389571205</v>
       </c>
       <c r="D371">
-        <v>0.3658864048383602</v>
+        <v>0.4584216344481885</v>
       </c>
       <c r="E371">
         <v>0.2112690720337038</v>
@@ -10575,7 +10575,7 @@
         <v>0.9695128168090886</v>
       </c>
       <c r="D372">
-        <v>0.4440545744970423</v>
+        <v>0.492749476429276</v>
       </c>
       <c r="E372">
         <v>0.1644878600815002</v>
@@ -10601,7 +10601,7 @@
         <v>0.9795490698075205</v>
       </c>
       <c r="D373">
-        <v>0.3553221576837891</v>
+        <v>0.3902186629588169</v>
       </c>
       <c r="E373">
         <v>0.1347198943644793</v>
@@ -10627,7 +10627,7 @@
         <v>0.984960633071043</v>
       </c>
       <c r="D374">
-        <v>0.4108135085439859</v>
+        <v>0.4084445858964963</v>
       </c>
       <c r="E374">
         <v>0.1155287243987989</v>
@@ -10653,7 +10653,7 @@
         <v>0.9949553050321457</v>
       </c>
       <c r="D375">
-        <v>0.3858831022466693</v>
+        <v>0.4134909698886555</v>
       </c>
       <c r="E375">
         <v>0.06691025055314231</v>
@@ -10679,7 +10679,7 @@
         <v>0.9981876342875585</v>
       </c>
       <c r="D376">
-        <v>0.3552148523452822</v>
+        <v>0.4052563132196131</v>
       </c>
       <c r="E376">
         <v>0.04010496291896667</v>
@@ -10705,7 +10705,7 @@
         <v>0.9985514063293067</v>
       </c>
       <c r="D377">
-        <v>0.3905218387960376</v>
+        <v>0.4020702148850281</v>
       </c>
       <c r="E377">
         <v>0.03585489806380175</v>
@@ -10731,7 +10731,7 @@
         <v>0.9985988719009495</v>
       </c>
       <c r="D378">
-        <v>0.4102010222140319</v>
+        <v>0.4080535601413691</v>
       </c>
       <c r="E378">
         <v>0.03526258303721207</v>
@@ -10757,7 +10757,7 @@
         <v>0.998613586501382</v>
       </c>
       <c r="D379">
-        <v>0.3968363241546179</v>
+        <v>0.4217304972876894</v>
       </c>
       <c r="E379">
         <v>0.03507693108926171</v>
@@ -10783,7 +10783,7 @@
         <v>0.9986185263001874</v>
       </c>
       <c r="D380">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E380">
         <v>0.03501438567940149</v>
@@ -10809,7 +10809,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D381">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E381">
         <v>0.03501273738366083</v>
@@ -10835,7 +10835,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D382">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E382">
         <v>0.03501273738366083</v>
@@ -10861,7 +10861,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D383">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E383">
         <v>0.03501273738366083</v>
@@ -10887,7 +10887,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D384">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E384">
         <v>0.03501273738366083</v>
@@ -10913,7 +10913,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D385">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E385">
         <v>0.03501273738366083</v>
@@ -10939,7 +10939,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D386">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E386">
         <v>0.03501273738366083</v>
@@ -10965,7 +10965,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D387">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E387">
         <v>0.03501273738366083</v>
@@ -10991,7 +10991,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D388">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E388">
         <v>0.03501273738366083</v>
@@ -11017,7 +11017,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D389">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E389">
         <v>0.03501273738366083</v>
@@ -11043,7 +11043,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D390">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E390">
         <v>0.03501273738366083</v>
@@ -11069,7 +11069,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D391">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E391">
         <v>0.03501273738366083</v>
@@ -11095,7 +11095,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D392">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E392">
         <v>0.03501273738366083</v>
@@ -11121,7 +11121,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D393">
-        <v>0.3974185119892487</v>
+        <v>0.4228331425380375</v>
       </c>
       <c r="E393">
         <v>0.03501273738366083</v>
@@ -11147,7 +11147,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D394">
-        <v>0.1121401233109646</v>
+        <v>0.4978018741370756</v>
       </c>
       <c r="E394">
         <v>0.5097153154397485</v>
@@ -11173,7 +11173,7 @@
         <v>0.7949908529359662</v>
       </c>
       <c r="D395">
-        <v>-0.1168989925543706</v>
+        <v>0.5394839123043961</v>
       </c>
       <c r="E395">
         <v>0.4265420185527781</v>
@@ -11199,7 +11199,7 @@
         <v>0.845688256869656</v>
       </c>
       <c r="D396">
-        <v>0.03216683415994137</v>
+        <v>0.5612835299657937</v>
       </c>
       <c r="E396">
         <v>0.3700621682112182</v>
@@ -11225,7 +11225,7 @@
         <v>0.8735607748338649</v>
       </c>
       <c r="D397">
-        <v>-0.04587571598227425</v>
+        <v>0.4760808805466048</v>
       </c>
       <c r="E397">
         <v>0.3349778674030928</v>
@@ -11251,7 +11251,7 @@
         <v>0.9111660483521361</v>
       </c>
       <c r="D398">
-        <v>-0.0372175881187955</v>
+        <v>0.311111979817808</v>
       </c>
       <c r="E398">
         <v>0.2807790441337991</v>
@@ -11277,7 +11277,7 @@
         <v>0.9480776983660747</v>
       </c>
       <c r="D399">
-        <v>0.07922811577986477</v>
+        <v>0.4642882294159656</v>
       </c>
       <c r="E399">
         <v>0.2146605157022679</v>
@@ -11303,7 +11303,7 @@
         <v>0.9691443618887822</v>
       </c>
       <c r="D400">
-        <v>0.1981740590939467</v>
+        <v>0.5095254960274227</v>
       </c>
       <c r="E400">
         <v>0.1654788395312303</v>
@@ -11329,7 +11329,7 @@
         <v>0.9795396059840247</v>
       </c>
       <c r="D401">
-        <v>0.07995215587710391</v>
+        <v>0.4113433342727693</v>
       </c>
       <c r="E401">
         <v>0.1347510620870183</v>
@@ -11355,7 +11355,7 @@
         <v>0.984960633071043</v>
       </c>
       <c r="D402">
-        <v>0.3347615109654452</v>
+        <v>0.5876244407626146</v>
       </c>
       <c r="E402">
         <v>0.1155287243987989</v>
@@ -11381,7 +11381,7 @@
         <v>0.9949553050321457</v>
       </c>
       <c r="D403">
-        <v>0.1582155986441797</v>
+        <v>0.4241226143265789</v>
       </c>
       <c r="E403">
         <v>0.06691025055314231</v>
@@ -11407,7 +11407,7 @@
         <v>0.9981876342875585</v>
       </c>
       <c r="D404">
-        <v>0.1588006014074839</v>
+        <v>0.4506861205264862</v>
       </c>
       <c r="E404">
         <v>0.04010496291896667</v>
@@ -11433,7 +11433,7 @@
         <v>0.9985514063293067</v>
       </c>
       <c r="D405">
-        <v>0.1747068916646286</v>
+        <v>0.4344984610424206</v>
       </c>
       <c r="E405">
         <v>0.03585489806380175</v>
@@ -11459,7 +11459,7 @@
         <v>0.9985988719009495</v>
       </c>
       <c r="D406">
-        <v>0.1671061517870941</v>
+        <v>0.441662593032911</v>
       </c>
       <c r="E406">
         <v>0.03526258303721207</v>
@@ -11485,7 +11485,7 @@
         <v>0.998613586501382</v>
       </c>
       <c r="D407">
-        <v>0.1727351439792324</v>
+        <v>0.4323621417256125</v>
       </c>
       <c r="E407">
         <v>0.03507693108926171</v>
@@ -11511,7 +11511,7 @@
         <v>0.9986185263001874</v>
       </c>
       <c r="D408">
-        <v>0.1739194036084407</v>
+        <v>0.4330818812996636</v>
       </c>
       <c r="E408">
         <v>0.03501438567940149</v>
@@ -11537,7 +11537,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D409">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E409">
         <v>0.03501273738366083</v>
@@ -11563,7 +11563,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D410">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E410">
         <v>0.03501273738366083</v>
@@ -11589,7 +11589,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D411">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E411">
         <v>0.03501273738366083</v>
@@ -11615,7 +11615,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D412">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E412">
         <v>0.03501273738366083</v>
@@ -11641,7 +11641,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D413">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E413">
         <v>0.03501273738366083</v>
@@ -11667,7 +11667,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D414">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E414">
         <v>0.03501273738366083</v>
@@ -11693,7 +11693,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D415">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E415">
         <v>0.03501273738366083</v>
@@ -11719,7 +11719,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D416">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E416">
         <v>0.03501273738366083</v>
@@ -11745,7 +11745,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D417">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E417">
         <v>0.03501273738366083</v>
@@ -11771,7 +11771,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D418">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E418">
         <v>0.03501273738366083</v>
@@ -11797,7 +11797,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D419">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E419">
         <v>0.03501273738366083</v>
@@ -11823,7 +11823,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D420">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E420">
         <v>0.03501273738366083</v>
@@ -11849,7 +11849,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D421">
-        <v>0.1735688714158464</v>
+        <v>0.4340105319619663</v>
       </c>
       <c r="E421">
         <v>0.03501273738366083</v>
@@ -11875,7 +11875,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D422">
-        <v>0.1121401233109638</v>
+        <v>0.4978018741370753</v>
       </c>
       <c r="E422">
         <v>0.5097153154397485</v>
@@ -11901,7 +11901,7 @@
         <v>0.787178705720753</v>
       </c>
       <c r="D423">
-        <v>-0.3431054536004852</v>
+        <v>0.4904230834033372</v>
       </c>
       <c r="E423">
         <v>0.4345930136532309</v>
@@ -11927,7 +11927,7 @@
         <v>0.8796761209043098</v>
       </c>
       <c r="D424">
-        <v>0.007119700570714427</v>
+        <v>0.5671139561031637</v>
       </c>
       <c r="E424">
         <v>0.3267767226460304</v>
@@ -11953,7 +11953,7 @@
         <v>0.9279841979671969</v>
       </c>
       <c r="D425">
-        <v>-0.2507426107649611</v>
+        <v>0.4714426278553582</v>
       </c>
       <c r="E425">
         <v>0.2528070036925899</v>
@@ -11979,7 +11979,7 @@
         <v>0.9581688638834048</v>
       </c>
       <c r="D426">
-        <v>-0.2842340962971965</v>
+        <v>0.2877871273199413</v>
       </c>
       <c r="E426">
         <v>0.1926748504083367</v>
@@ -12005,7 +12005,7 @@
         <v>0.969773133889421</v>
       </c>
       <c r="D427">
-        <v>-0.1215940651110616</v>
+        <v>0.3631922445025761</v>
       </c>
       <c r="E427">
         <v>0.1637841086912448</v>
@@ -12031,7 +12031,7 @@
         <v>0.9791541823137527</v>
       </c>
       <c r="D428">
-        <v>-0.2045066131068183</v>
+        <v>0.3143262356848496</v>
       </c>
       <c r="E428">
         <v>0.1360143304758106</v>
@@ -12057,7 +12057,7 @@
         <v>0.9845578680366819</v>
       </c>
       <c r="D429">
-        <v>-0.1266343599157718</v>
+        <v>0.3798486076094724</v>
       </c>
       <c r="E429">
         <v>0.1170654746138592</v>
@@ -12083,7 +12083,7 @@
         <v>0.9967885872010794</v>
       </c>
       <c r="D430">
-        <v>-0.2225522600420369</v>
+        <v>0.3104977301060877</v>
       </c>
       <c r="E430">
         <v>0.05338549419936207</v>
@@ -12109,7 +12109,7 @@
         <v>0.9983959074917514</v>
       </c>
       <c r="D431">
-        <v>-0.1854234019756644</v>
+        <v>0.3247101553717976</v>
       </c>
       <c r="E431">
         <v>0.03773026936345834</v>
@@ -12135,7 +12135,7 @@
         <v>0.9985902392632716</v>
       </c>
       <c r="D432">
-        <v>-0.1991349627050261</v>
+        <v>0.3230639369778519</v>
       </c>
       <c r="E432">
         <v>0.03537104623209027</v>
@@ -12161,7 +12161,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D433">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E433">
         <v>0.03501273738366083</v>
@@ -12187,7 +12187,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D434">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E434">
         <v>0.03501273738366083</v>
@@ -12213,7 +12213,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D435">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E435">
         <v>0.03501273738366083</v>
@@ -12239,7 +12239,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D436">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E436">
         <v>0.03501273738366083</v>
@@ -12265,7 +12265,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D437">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E437">
         <v>0.03501273738366083</v>
@@ -12291,7 +12291,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D438">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E438">
         <v>0.03501273738366083</v>
@@ -12317,7 +12317,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D439">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E439">
         <v>0.03501273738366083</v>
@@ -12343,7 +12343,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D440">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E440">
         <v>0.03501273738366083</v>
@@ -12369,7 +12369,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D441">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E441">
         <v>0.03501273738366083</v>
@@ -12395,7 +12395,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D442">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E442">
         <v>0.03501273738366083</v>
@@ -12421,7 +12421,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D443">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E443">
         <v>0.03501273738366083</v>
@@ -12447,7 +12447,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D444">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E444">
         <v>0.03501273738366083</v>
@@ -12473,7 +12473,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D445">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E445">
         <v>0.03501273738366083</v>
@@ -12499,7 +12499,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D446">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E446">
         <v>0.03501273738366083</v>
@@ -12525,7 +12525,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D447">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E447">
         <v>0.03501273738366083</v>
@@ -12551,7 +12551,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D448">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E448">
         <v>0.03501273738366083</v>
@@ -12577,7 +12577,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D449">
-        <v>-0.1746623920632187</v>
+        <v>0.3247158553972715</v>
       </c>
       <c r="E449">
         <v>0.03501273738366083</v>
@@ -12603,7 +12603,7 @@
         <v>0.7072445658992135</v>
       </c>
       <c r="D450">
-        <v>0.1121401233109637</v>
+        <v>0.4978018741370754</v>
       </c>
       <c r="E450">
         <v>0.5097153154397485</v>
@@ -12629,7 +12629,7 @@
         <v>0.787178705720753</v>
       </c>
       <c r="D451">
-        <v>-0.3431054536004798</v>
+        <v>0.4904230834033371</v>
       </c>
       <c r="E451">
         <v>0.4345930136532309</v>
@@ -12655,7 +12655,7 @@
         <v>0.8796761209043097</v>
       </c>
       <c r="D452">
-        <v>0.007119700570712872</v>
+        <v>0.5671139561031633</v>
       </c>
       <c r="E452">
         <v>0.3267767226460304</v>
@@ -12681,7 +12681,7 @@
         <v>0.9279841979671969</v>
       </c>
       <c r="D453">
-        <v>-0.250742610764962</v>
+        <v>0.471442627855358</v>
       </c>
       <c r="E453">
         <v>0.2528070036925899</v>
@@ -12707,7 +12707,7 @@
         <v>0.9581688638834048</v>
       </c>
       <c r="D454">
-        <v>-0.351980208376508</v>
+        <v>0.2978184803004733</v>
       </c>
       <c r="E454">
         <v>0.1926748504083367</v>
@@ -12733,7 +12733,7 @@
         <v>0.969773133889421</v>
       </c>
       <c r="D455">
-        <v>-0.2437789196375435</v>
+        <v>0.3205209353318833</v>
       </c>
       <c r="E455">
         <v>0.1637841086912448</v>
@@ -12759,7 +12759,7 @@
         <v>0.9791541823137527</v>
       </c>
       <c r="D456">
-        <v>-0.1759694985528766</v>
+        <v>0.335437638258354</v>
       </c>
       <c r="E456">
         <v>0.1360143304758106</v>
@@ -12785,7 +12785,7 @@
         <v>0.9845578680366819</v>
       </c>
       <c r="D457">
-        <v>-0.1994859036460739</v>
+        <v>0.3298928000026233</v>
       </c>
       <c r="E457">
         <v>0.1170654746138592</v>
@@ -12811,7 +12811,7 @@
         <v>0.9967885872010794</v>
       </c>
       <c r="D458">
-        <v>-0.3001678497653697</v>
+        <v>0.2857595373230366</v>
       </c>
       <c r="E458">
         <v>0.05338549419936207</v>
@@ -12837,7 +12837,7 @@
         <v>0.9983959074917514</v>
       </c>
       <c r="D459">
-        <v>-0.2976890254801621</v>
+        <v>0.2934158022326971</v>
       </c>
       <c r="E459">
         <v>0.03773026936345834</v>
@@ -12863,7 +12863,7 @@
         <v>0.9985902392632716</v>
       </c>
       <c r="D460">
-        <v>-0.2843770667904644</v>
+        <v>0.2995626455472373</v>
       </c>
       <c r="E460">
         <v>0.03537104623209027</v>
@@ -12889,7 +12889,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D461">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E461">
         <v>0.03501273738366083</v>
@@ -12915,7 +12915,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D462">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E462">
         <v>0.03501273738366083</v>
@@ -12941,7 +12941,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D463">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E463">
         <v>0.03501273738366083</v>
@@ -12967,7 +12967,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D464">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E464">
         <v>0.03501273738366083</v>
@@ -12993,7 +12993,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D465">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E465">
         <v>0.03501273738366083</v>
@@ -13019,7 +13019,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D466">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E466">
         <v>0.03501273738366083</v>
@@ -13045,7 +13045,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D467">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E467">
         <v>0.03501273738366083</v>
@@ -13071,7 +13071,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D468">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E468">
         <v>0.03501273738366083</v>
@@ -13097,7 +13097,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D469">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E469">
         <v>0.03501273738366083</v>
@@ -13123,7 +13123,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D470">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E470">
         <v>0.03501273738366083</v>
@@ -13149,7 +13149,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D471">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E471">
         <v>0.03501273738366083</v>
@@ -13175,7 +13175,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D472">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E472">
         <v>0.03501273738366083</v>
@@ -13201,7 +13201,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D473">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E473">
         <v>0.03501273738366083</v>
@@ -13227,7 +13227,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D474">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E474">
         <v>0.03501273738366083</v>
@@ -13253,7 +13253,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D475">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E475">
         <v>0.03501273738366083</v>
@@ -13279,7 +13279,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D476">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E476">
         <v>0.03501273738366083</v>
@@ -13305,7 +13305,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D477">
-        <v>-0.2956624349786476</v>
+        <v>0.2934277023128818</v>
       </c>
       <c r="E477">
         <v>0.03501273738366083</v>
@@ -13331,7 +13331,7 @@
         <v>0.6784410634581934</v>
       </c>
       <c r="D478">
-        <v>0.00097837228206199</v>
+        <v>0.5074696234441014</v>
       </c>
       <c r="E478">
         <v>0.5342019786920065</v>
@@ -13357,7 +13357,7 @@
         <v>0.7688399390110003</v>
       </c>
       <c r="D479">
-        <v>0.1388884223937527</v>
+        <v>0.5133717259485824</v>
       </c>
       <c r="E479">
         <v>0.4529305353863423</v>
@@ -13383,7 +13383,7 @@
         <v>0.8645334765198641</v>
       </c>
       <c r="D480">
-        <v>0.08104497173135405</v>
+        <v>0.5571650190949531</v>
       </c>
       <c r="E480">
         <v>0.3467298192767089</v>
@@ -13409,7 +13409,7 @@
         <v>0.9212015338337038</v>
       </c>
       <c r="D481">
-        <v>-0.3157678204267786</v>
+        <v>0.4567879755310064</v>
       </c>
       <c r="E481">
         <v>0.2644442220792924</v>
@@ -13435,7 +13435,7 @@
         <v>0.9514343262085424</v>
       </c>
       <c r="D482">
-        <v>-0.4384862434878229</v>
+        <v>0.4062464090728306</v>
       </c>
       <c r="E482">
         <v>0.2076060042227037</v>
@@ -13461,7 +13461,7 @@
         <v>0.967937541054447</v>
       </c>
       <c r="D483">
-        <v>-0.1959472134182219</v>
+        <v>0.4573552298661742</v>
       </c>
       <c r="E483">
         <v>0.1686838923230738</v>
@@ -13487,7 +13487,7 @@
         <v>0.9808672658427263</v>
       </c>
       <c r="D484">
-        <v>-0.227302474604826</v>
+        <v>0.455799371966607</v>
       </c>
       <c r="E484">
         <v>0.1303057916515455</v>
@@ -13513,7 +13513,7 @@
         <v>0.9885959667471858</v>
       </c>
       <c r="D485">
-        <v>-0.1850380131228975</v>
+        <v>0.4234028594718664</v>
       </c>
       <c r="E485">
         <v>0.1006014957686531</v>
@@ -13539,7 +13539,7 @@
         <v>0.9943033053291209</v>
       </c>
       <c r="D486">
-        <v>-0.1982623895674336</v>
+        <v>0.4376652611736703</v>
       </c>
       <c r="E486">
         <v>0.07110279484834031</v>
@@ -13565,7 +13565,7 @@
         <v>0.9985892973679288</v>
       </c>
       <c r="D487">
-        <v>-0.2154464420886686</v>
+        <v>0.4397364660979679</v>
       </c>
       <c r="E487">
         <v>0.03538286038605656</v>
@@ -13591,7 +13591,7 @@
         <v>0.9986180406588199</v>
       </c>
       <c r="D488">
-        <v>-0.1964946027071444</v>
+        <v>0.4396602346589923</v>
       </c>
       <c r="E488">
         <v>0.03502053959314617</v>
@@ -13617,7 +13617,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D489">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E489">
         <v>0.03501273738366083</v>
@@ -13643,7 +13643,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D490">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E490">
         <v>0.03501273738366083</v>
@@ -13669,7 +13669,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D491">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E491">
         <v>0.03501273738366083</v>
@@ -13695,7 +13695,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D492">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E492">
         <v>0.03501273738366083</v>
@@ -13721,7 +13721,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D493">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E493">
         <v>0.03501273738366083</v>
@@ -13747,7 +13747,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D494">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E494">
         <v>0.03501273738366083</v>
@@ -13773,7 +13773,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D495">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E495">
         <v>0.03501273738366083</v>
@@ -13799,7 +13799,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D496">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E496">
         <v>0.03501273738366083</v>
@@ -13825,7 +13825,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D497">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E497">
         <v>0.03501273738366083</v>
@@ -13851,7 +13851,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D498">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E498">
         <v>0.03501273738366083</v>
@@ -13877,7 +13877,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D499">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E499">
         <v>0.03501273738366083</v>
@@ -13903,7 +13903,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D500">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E500">
         <v>0.03501273738366083</v>
@@ -13929,7 +13929,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D501">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E501">
         <v>0.03501273738366083</v>
@@ -13955,7 +13955,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D502">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E502">
         <v>0.03501273738366083</v>
@@ -13981,7 +13981,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D503">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E503">
         <v>0.03501273738366083</v>
@@ -14007,7 +14007,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D504">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E504">
         <v>0.03501273738366083</v>
@@ -14033,7 +14033,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D505">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E505">
         <v>0.03501273738366083</v>
@@ -14059,7 +14059,7 @@
         <v>0.6784410634581934</v>
       </c>
       <c r="D506">
-        <v>0.00097837228206199</v>
+        <v>0.5074696234441014</v>
       </c>
       <c r="E506">
         <v>0.5342019786920065</v>
@@ -14085,7 +14085,7 @@
         <v>0.7688399390110003</v>
       </c>
       <c r="D507">
-        <v>0.1388884223937527</v>
+        <v>0.5133717259485824</v>
       </c>
       <c r="E507">
         <v>0.4529305353863423</v>
@@ -14111,7 +14111,7 @@
         <v>0.8645334765198641</v>
       </c>
       <c r="D508">
-        <v>0.08104497173135405</v>
+        <v>0.5571650190949531</v>
       </c>
       <c r="E508">
         <v>0.3467298192767089</v>
@@ -14137,7 +14137,7 @@
         <v>0.9212015338337038</v>
       </c>
       <c r="D509">
-        <v>-0.3157678204267786</v>
+        <v>0.4567879755310064</v>
       </c>
       <c r="E509">
         <v>0.2644442220792924</v>
@@ -14163,7 +14163,7 @@
         <v>0.9514343262085424</v>
       </c>
       <c r="D510">
-        <v>-0.4384862434878229</v>
+        <v>0.4062464090728306</v>
       </c>
       <c r="E510">
         <v>0.2076060042227037</v>
@@ -14189,7 +14189,7 @@
         <v>0.967937541054447</v>
       </c>
       <c r="D511">
-        <v>-0.1959472134182219</v>
+        <v>0.4573552298661742</v>
       </c>
       <c r="E511">
         <v>0.1686838923230738</v>
@@ -14215,7 +14215,7 @@
         <v>0.9808672658427263</v>
       </c>
       <c r="D512">
-        <v>-0.227302474604826</v>
+        <v>0.455799371966607</v>
       </c>
       <c r="E512">
         <v>0.1303057916515455</v>
@@ -14241,7 +14241,7 @@
         <v>0.9885959667471858</v>
       </c>
       <c r="D513">
-        <v>-0.1850380131228975</v>
+        <v>0.4234028594718664</v>
       </c>
       <c r="E513">
         <v>0.1006014957686531</v>
@@ -14267,7 +14267,7 @@
         <v>0.9943033053291209</v>
       </c>
       <c r="D514">
-        <v>-0.1982623895674336</v>
+        <v>0.4376652611736703</v>
       </c>
       <c r="E514">
         <v>0.07110279484834031</v>
@@ -14293,7 +14293,7 @@
         <v>0.9985892973679288</v>
       </c>
       <c r="D515">
-        <v>-0.2154464420886686</v>
+        <v>0.4397364660979679</v>
       </c>
       <c r="E515">
         <v>0.03538286038605656</v>
@@ -14319,7 +14319,7 @@
         <v>0.9986180406588199</v>
       </c>
       <c r="D516">
-        <v>-0.1964946027071444</v>
+        <v>0.4396602346589923</v>
       </c>
       <c r="E516">
         <v>0.03502053959314617</v>
@@ -14345,7 +14345,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D517">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E517">
         <v>0.03501273738366083</v>
@@ -14371,7 +14371,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D518">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E518">
         <v>0.03501273738366083</v>
@@ -14397,7 +14397,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D519">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E519">
         <v>0.03501273738366083</v>
@@ -14423,7 +14423,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D520">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E520">
         <v>0.03501273738366083</v>
@@ -14449,7 +14449,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D521">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E521">
         <v>0.03501273738366083</v>
@@ -14475,7 +14475,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D522">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E522">
         <v>0.03501273738366083</v>
@@ -14501,7 +14501,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D523">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E523">
         <v>0.03501273738366083</v>
@@ -14527,7 +14527,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D524">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E524">
         <v>0.03501273738366083</v>
@@ -14553,7 +14553,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D525">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E525">
         <v>0.03501273738366083</v>
@@ -14579,7 +14579,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D526">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E526">
         <v>0.03501273738366083</v>
@@ -14605,7 +14605,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D527">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E527">
         <v>0.03501273738366083</v>
@@ -14631,7 +14631,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D528">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E528">
         <v>0.03501273738366083</v>
@@ -14657,7 +14657,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D529">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E529">
         <v>0.03501273738366083</v>
@@ -14683,7 +14683,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D530">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E530">
         <v>0.03501273738366083</v>
@@ -14709,7 +14709,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D531">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E531">
         <v>0.03501273738366083</v>
@@ -14735,7 +14735,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D532">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E532">
         <v>0.03501273738366083</v>
@@ -14761,7 +14761,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D533">
-        <v>-0.1969936251049811</v>
+        <v>0.4392161604456255</v>
       </c>
       <c r="E533">
         <v>0.03501273738366083</v>
@@ -14787,7 +14787,7 @@
         <v>0.6511527867632922</v>
       </c>
       <c r="D534">
-        <v>-1.126587193919698</v>
+        <v>0.3686181201143178</v>
       </c>
       <c r="E534">
         <v>0.556407313077885</v>
@@ -14813,7 +14813,7 @@
         <v>0.7450080436517226</v>
       </c>
       <c r="D535">
-        <v>-0.4078474917976163</v>
+        <v>0.2888122724620242</v>
       </c>
       <c r="E535">
         <v>0.4757057938655728</v>
@@ -14839,7 +14839,7 @@
         <v>0.8229785973827</v>
       </c>
       <c r="D536">
-        <v>-1.611768274350839</v>
+        <v>0.3799938476667978</v>
       </c>
       <c r="E536">
         <v>0.3963584206570093</v>
@@ -14865,7 +14865,7 @@
         <v>0.8595025568548561</v>
       </c>
       <c r="D537">
-        <v>-1.474723539910137</v>
+        <v>0.3545574435803001</v>
       </c>
       <c r="E537">
         <v>0.3531095072765117</v>
@@ -14891,7 +14891,7 @@
         <v>0.8841402586451992</v>
       </c>
       <c r="D538">
-        <v>-1.15110692081521</v>
+        <v>0.3897235995845215</v>
       </c>
       <c r="E538">
         <v>0.3206575557584748</v>
@@ -14917,7 +14917,7 @@
         <v>0.9183368812607995</v>
       </c>
       <c r="D539">
-        <v>-0.8756706390600684</v>
+        <v>0.3886726881768937</v>
       </c>
       <c r="E539">
         <v>0.2692081362227846</v>
@@ -14943,7 +14943,7 @@
         <v>0.9546128374315931</v>
       </c>
       <c r="D540">
-        <v>-0.5905856467098565</v>
+        <v>0.3251262330342914</v>
       </c>
       <c r="E540">
         <v>0.20069738647877</v>
@@ -14969,7 +14969,7 @@
         <v>0.9773563264671796</v>
       </c>
       <c r="D541">
-        <v>-0.9741017742238751</v>
+        <v>0.4044144291425676</v>
       </c>
       <c r="E541">
         <v>0.1417583478039676</v>
@@ -14995,7 +14995,7 @@
         <v>0.9877791644205637</v>
       </c>
       <c r="D542">
-        <v>-0.6330364408118672</v>
+        <v>0.2686151755818726</v>
       </c>
       <c r="E542">
         <v>0.1041419369743098</v>
@@ -15021,7 +15021,7 @@
         <v>0.9949487615906767</v>
       </c>
       <c r="D543">
-        <v>-0.5705464998627998</v>
+        <v>0.2666336039937697</v>
       </c>
       <c r="E543">
         <v>0.0669536309189042</v>
@@ -15047,7 +15047,7 @@
         <v>0.9959675326900883</v>
       </c>
       <c r="D544">
-        <v>-0.8114234661181625</v>
+        <v>0.3522758084994104</v>
       </c>
       <c r="E544">
         <v>0.05982195863009692</v>
@@ -15073,7 +15073,7 @@
         <v>0.9965402072565388</v>
       </c>
       <c r="D545">
-        <v>-0.6296699098170413</v>
+        <v>0.2924981656513174</v>
       </c>
       <c r="E545">
         <v>0.05541154279956482</v>
@@ -15099,7 +15099,7 @@
         <v>0.9970899526107626</v>
       </c>
       <c r="D546">
-        <v>-0.5339505248915859</v>
+        <v>0.1708221191486807</v>
       </c>
       <c r="E546">
         <v>0.0508188965917</v>
@@ -15125,7 +15125,7 @@
         <v>0.9978781425262924</v>
       </c>
       <c r="D547">
-        <v>-0.553590049764968</v>
+        <v>0.2622061285509737</v>
       </c>
       <c r="E547">
         <v>0.04339436172607312</v>
@@ -15151,7 +15151,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D548">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E548">
         <v>0.03501273738366083</v>
@@ -15177,7 +15177,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D549">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E549">
         <v>0.03501273738366083</v>
@@ -15203,7 +15203,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D550">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E550">
         <v>0.03501273738366083</v>
@@ -15229,7 +15229,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D551">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E551">
         <v>0.03501273738366083</v>
@@ -15255,7 +15255,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D552">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E552">
         <v>0.03501273738366083</v>
@@ -15281,7 +15281,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D553">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E553">
         <v>0.03501273738366083</v>
@@ -15307,7 +15307,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D554">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E554">
         <v>0.03501273738366083</v>
@@ -15333,7 +15333,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D555">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E555">
         <v>0.03501273738366083</v>
@@ -15359,7 +15359,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D556">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E556">
         <v>0.03501273738366083</v>
@@ -15385,7 +15385,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D557">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E557">
         <v>0.03501273738366083</v>
@@ -15411,7 +15411,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D558">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E558">
         <v>0.03501273738366083</v>
@@ -15437,7 +15437,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D559">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E559">
         <v>0.03501273738366083</v>
@@ -15463,7 +15463,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D560">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E560">
         <v>0.03501273738366083</v>
@@ -15489,7 +15489,7 @@
         <v>0.9986186563623647</v>
       </c>
       <c r="D561">
-        <v>-0.5522264041136087</v>
+        <v>0.2675794576692193</v>
       </c>
       <c r="E561">
         <v>0.03501273738366083</v>
@@ -15515,7 +15515,7 @@
         <v>0.6511527867632922</v>
       </c>
       <c r="D562">
-        <v>-1.126587193919697</v>
+        <v>0.3686181201143178</v>
       </c>
       <c r="E562">
         <v>0.556407313077885</v>
@@ -15541,7 +15541,7 @@
         <v>0.7336776936883368</v>
       </c>
       <c r="D563">
-        <v>-0.4123090459215919</v>
+        <v>0.444325399566679</v>
       </c>
       <c r="E563">
         <v>0.4861597186657765</v>
@@ -15567,7 +15567,7 @@
         <v>0.8158884879831938</v>
       </c>
       <c r="D564">
-        <v>-1.09878081087811</v>
+        <v>0.1585773455376672</v>
       </c>
       <c r="E564">
         <v>0.4042180222234931</v>
@@ -15593,7 +15593,7 @@
         <v>0.8591596075494095</v>
       </c>
       <c r="D565">
-        <v>-1.842900110729287</v>
+        <v>0.4703971838634212</v>
       </c>
       <c r="E565">
         <v>0.3535402085342119</v>
@@ -15619,7 +15619,7 @@
         <v>0.8911230610272316</v>
       </c>
       <c r="D566">
-        <v>-0.5859526693947048</v>
+        <v>0.300689627515371</v>
       </c>
       <c r="E566">
         <v>0.3108444743597286</v>
@@ -15645,7 +15645,7 @@
         <v>0.9151867601260624</v>
       </c>
       <c r="D567">
-        <v>-1.008042373817828</v>
+        <v>0.2342286424071819</v>
       </c>
       <c r="E567">
         <v>0.2743513030715798</v>
@@ -15671,7 +15671,7 @@
         <v>0.9297079039621853</v>
       </c>
       <c r="D568">
-        <v>-0.8062180397727328</v>
+        <v>0.4395007594306972</v>
       </c>
       <c r="E568">
         <v>0.2497631984710021</v>
@@ -15697,7 +15697,7 @@
         <v>0.9411127070532541</v>
       </c>
       <c r="D569">
-        <v>-0.8427872619304482</v>
+        <v>0.4662467836039917</v>
       </c>
       <c r="E569">
         <v>0.2286051424539248</v>
@@ -15723,7 +15723,7 @@
         <v>0.9517522615470976</v>
       </c>
       <c r="D570">
-        <v>-0.9923896167125428</v>
+        <v>0.2175470010170658</v>
       </c>
       <c r="E570">
         <v>0.2069253417189287</v>
@@ -15749,7 +15749,7 @@
         <v>0.9694756045806695</v>
       </c>
       <c r="D571">
-        <v>-0.8422709274610851</v>
+        <v>0.5006115327756573</v>
       </c>
       <c r="E571">
         <v>0.1645882152558829</v>
@@ -15775,7 +15775,7 @@
         <v>0.9763292117199147</v>
       </c>
       <c r="D572">
-        <v>-1.495603057091135</v>
+        <v>0.4137751165684771</v>
       </c>
       <c r="E572">
         <v>0.1449377653071424</v>
@@ -15801,7 +15801,7 @@
         <v>0.9768227162319146</v>
       </c>
       <c r="D573">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E573">
         <v>0.1434189271709641</v>
@@ -15827,7 +15827,7 @@
         <v>0.9781271881186983</v>
       </c>
       <c r="D574">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E574">
         <v>0.1393245052000493</v>
@@ -15853,7 +15853,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D575">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E575">
         <v>0.1392535838926726</v>
@@ -15879,7 +15879,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D576">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E576">
         <v>0.1392535838926726</v>
@@ -15905,7 +15905,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D577">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E577">
         <v>0.1392535838926726</v>
@@ -15931,7 +15931,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D578">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E578">
         <v>0.1392535838926726</v>
@@ -15957,7 +15957,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D579">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E579">
         <v>0.1392535838926726</v>
@@ -15983,7 +15983,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D580">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E580">
         <v>0.1392535838926726</v>
@@ -16009,7 +16009,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D581">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E581">
         <v>0.1392535838926726</v>
@@ -16035,7 +16035,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D582">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E582">
         <v>0.1392535838926726</v>
@@ -16061,7 +16061,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D583">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E583">
         <v>0.1392535838926726</v>
@@ -16087,7 +16087,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D584">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E584">
         <v>0.1392535838926726</v>
@@ -16113,7 +16113,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D585">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E585">
         <v>0.1392535838926726</v>
@@ -16139,7 +16139,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D586">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E586">
         <v>0.1392535838926726</v>
@@ -16165,7 +16165,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D587">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E587">
         <v>0.1392535838926726</v>
@@ -16191,7 +16191,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D588">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E588">
         <v>0.1392535838926726</v>
@@ -16217,7 +16217,7 @@
         <v>0.9781494505856073</v>
       </c>
       <c r="D589">
-        <v>-0.6720333010215076</v>
+        <v>0.2188359322039006</v>
       </c>
       <c r="E589">
         <v>0.1392535838926726</v>
@@ -16279,7 +16279,7 @@
         <v>0.8835210176372809</v>
       </c>
       <c r="D2">
-        <v>0.1404523608182761</v>
+        <v>0.2868385529106248</v>
       </c>
       <c r="E2">
         <v>0.3215133305659224</v>
@@ -16305,7 +16305,7 @@
         <v>0.9144698246645013</v>
       </c>
       <c r="D3">
-        <v>0.1585718714005739</v>
+        <v>0.3716444552387695</v>
       </c>
       <c r="E3">
         <v>0.2755084234748652</v>
@@ -16331,7 +16331,7 @@
         <v>0.9222647402261228</v>
       </c>
       <c r="D4">
-        <v>0.01212771105910315</v>
+        <v>0.1705417909501963</v>
       </c>
       <c r="E4">
         <v>0.2626541260681011</v>
@@ -16357,7 +16357,7 @@
         <v>0.9217714782294906</v>
       </c>
       <c r="D5">
-        <v>0.05922074065781269</v>
+        <v>0.3256298108732399</v>
       </c>
       <c r="E5">
         <v>0.2634861321938368</v>
@@ -16383,7 +16383,7 @@
         <v>0.9193850041784565</v>
       </c>
       <c r="D6">
-        <v>-0.03074175961080461</v>
+        <v>0.2048365245069452</v>
       </c>
       <c r="E6">
         <v>0.2674749520763867</v>
@@ -16409,7 +16409,7 @@
         <v>0.9185951051087086</v>
       </c>
       <c r="D7">
-        <v>-0.08630171884255011</v>
+        <v>0.1316216506422175</v>
       </c>
       <c r="E7">
         <v>0.2687821728111587</v>
@@ -16435,7 +16435,7 @@
         <v>0.9271519432295672</v>
       </c>
       <c r="D8">
-        <v>-0.04241669463798292</v>
+        <v>0.1441002476751629</v>
       </c>
       <c r="E8">
         <v>0.2542635967839618</v>
@@ -16461,7 +16461,7 @@
         <v>0.9278387046567764</v>
       </c>
       <c r="D9">
-        <v>-0.0718863451272016</v>
+        <v>0.1558415510276653</v>
       </c>
       <c r="E9">
         <v>0.2530622474589964</v>
@@ -16487,7 +16487,7 @@
         <v>0.9299561625791863</v>
       </c>
       <c r="D10">
-        <v>-0.07189221665758416</v>
+        <v>0.1445460554081937</v>
       </c>
       <c r="E10">
         <v>0.2493217497525748</v>
@@ -16513,7 +16513,7 @@
         <v>0.9327098649379992</v>
       </c>
       <c r="D11">
-        <v>-0.01726917297898711</v>
+        <v>0.2031847038894747</v>
       </c>
       <c r="E11">
         <v>0.244371694606955</v>
@@ -16539,7 +16539,7 @@
         <v>0.9313589352572614</v>
       </c>
       <c r="D12">
-        <v>-0.04366283363158052</v>
+        <v>0.1740750448974521</v>
       </c>
       <c r="E12">
         <v>0.2468125313546816</v>
@@ -16565,7 +16565,7 @@
         <v>0.9296521398934976</v>
       </c>
       <c r="D13">
-        <v>-0.08743624913890113</v>
+        <v>0.1799324575053658</v>
       </c>
       <c r="E13">
         <v>0.2498622497992103</v>
@@ -16591,7 +16591,7 @@
         <v>0.934538310067353</v>
       </c>
       <c r="D14">
-        <v>-0.1868377566305723</v>
+        <v>0.1275966378956668</v>
       </c>
       <c r="E14">
         <v>0.2410287268812467</v>
@@ -16617,7 +16617,7 @@
         <v>0.9399045758539455</v>
       </c>
       <c r="D15">
-        <v>-0.1852422003607843</v>
+        <v>0.1579295509643028</v>
       </c>
       <c r="E15">
         <v>0.2309382671924657</v>
@@ -16643,7 +16643,7 @@
         <v>0.9429499295168207</v>
       </c>
       <c r="D16">
-        <v>-0.1511170051915376</v>
+        <v>0.1745073836692695</v>
       </c>
       <c r="E16">
         <v>0.2250107634121946</v>
@@ -16669,7 +16669,7 @@
         <v>0.9446288576655917</v>
       </c>
       <c r="D17">
-        <v>-0.110362844200365</v>
+        <v>0.191952189670077</v>
       </c>
       <c r="E17">
         <v>0.2216751148433675</v>
@@ -16695,7 +16695,7 @@
         <v>0.9409103433325059</v>
       </c>
       <c r="D18">
-        <v>-0.1453239002112809</v>
+        <v>0.1433276882856422</v>
       </c>
       <c r="E18">
         <v>0.2289976015839682</v>
@@ -16721,7 +16721,7 @@
         <v>0.9399761618278969</v>
       </c>
       <c r="D19">
-        <v>-0.1678513092074247</v>
+        <v>0.1034756440058178</v>
       </c>
       <c r="E19">
         <v>0.2308006787888391</v>
@@ -16747,7 +16747,7 @@
         <v>0.9402224508680673</v>
       </c>
       <c r="D20">
-        <v>-0.1539298175254669</v>
+        <v>0.1230869348883082</v>
       </c>
       <c r="E20">
         <v>0.2303266828783789</v>
@@ -16773,7 +16773,7 @@
         <v>0.8884854679551411</v>
       </c>
       <c r="D21">
-        <v>-0.5393668474756046</v>
+        <v>0.2108785635542488</v>
       </c>
       <c r="E21">
         <v>0.3145871171617919</v>
@@ -16799,7 +16799,7 @@
         <v>0.9148342861745794</v>
       </c>
       <c r="D22">
-        <v>-0.2396065033846726</v>
+        <v>0.2908995067519163</v>
       </c>
       <c r="E22">
         <v>0.2749207980350017</v>
@@ -16825,7 +16825,7 @@
         <v>0.9215454404443445</v>
       </c>
       <c r="D23">
-        <v>-0.3004019403447784</v>
+        <v>0.09552525219153318</v>
       </c>
       <c r="E23">
         <v>0.2638665232585315</v>
@@ -16851,7 +16851,7 @@
         <v>0.9191707519725092</v>
       </c>
       <c r="D24">
-        <v>-0.1165287198525438</v>
+        <v>0.2045967469138179</v>
       </c>
       <c r="E24">
         <v>0.2678301531892336</v>
@@ -16877,7 +16877,7 @@
         <v>0.9149245787259018</v>
       </c>
       <c r="D25">
-        <v>-0.2392561777013225</v>
+        <v>0.04623944282817838</v>
       </c>
       <c r="E25">
         <v>0.2747750240958976</v>
@@ -16903,7 +16903,7 @@
         <v>0.9106759774144969</v>
       </c>
       <c r="D26">
-        <v>-0.232652788282399</v>
+        <v>0.01807053946692827</v>
       </c>
       <c r="E26">
         <v>0.2815524668597752</v>
@@ -16929,7 +16929,7 @@
         <v>0.9247232929406872</v>
       </c>
       <c r="D27">
-        <v>-0.2691439752683915</v>
+        <v>-0.01143754913634498</v>
       </c>
       <c r="E27">
         <v>0.2584672409463389</v>
@@ -16955,7 +16955,7 @@
         <v>0.9277843781658532</v>
       </c>
       <c r="D28">
-        <v>-0.2640746897505273</v>
+        <v>0.02486646311682117</v>
       </c>
       <c r="E28">
         <v>0.2531574882474413</v>
@@ -16981,7 +16981,7 @@
         <v>0.930209759157011</v>
       </c>
       <c r="D29">
-        <v>-0.2380863970233855</v>
+        <v>0.029190065342236</v>
       </c>
       <c r="E29">
         <v>0.2488700006923163</v>
@@ -17007,7 +17007,7 @@
         <v>0.9340262636205949</v>
       </c>
       <c r="D30">
-        <v>-0.177456974525692</v>
+        <v>0.07034371003427475</v>
       </c>
       <c r="E30">
         <v>0.2419695633957042</v>
@@ -17033,7 +17033,7 @@
         <v>0.9375470588511113</v>
       </c>
       <c r="D31">
-        <v>-0.1693584085321038</v>
+        <v>0.05489467284715221</v>
       </c>
       <c r="E31">
         <v>0.2354244954676251</v>
@@ -17059,7 +17059,7 @@
         <v>0.9380938272249407</v>
       </c>
       <c r="D32">
-        <v>-0.1961171758409823</v>
+        <v>0.002847814288793327</v>
       </c>
       <c r="E32">
         <v>0.234391672638752</v>
@@ -17085,7 +17085,7 @@
         <v>0.9386854559483209</v>
       </c>
       <c r="D33">
-        <v>-0.2581555162847222</v>
+        <v>0.004121707903721017</v>
       </c>
       <c r="E33">
         <v>0.2332689594113976</v>
@@ -17111,7 +17111,7 @@
         <v>0.940170112325761</v>
       </c>
       <c r="D34">
-        <v>-0.2300653472536753</v>
+        <v>0.05216333209006185</v>
       </c>
       <c r="E34">
         <v>0.2304274926762829</v>
@@ -17137,7 +17137,7 @@
         <v>0.9449340052563548</v>
       </c>
       <c r="D35">
-        <v>-0.2067151991739835</v>
+        <v>0.0867234306343504</v>
       </c>
       <c r="E35">
         <v>0.2210634507416736</v>
@@ -17163,7 +17163,7 @@
         <v>0.9460198614006546</v>
       </c>
       <c r="D36">
-        <v>-0.1633485218515551</v>
+        <v>0.1099666838606841</v>
       </c>
       <c r="E36">
         <v>0.2188730037711579</v>
@@ -17189,7 +17189,7 @@
         <v>0.9426530699613797</v>
       </c>
       <c r="D37">
-        <v>-0.1847916547849906</v>
+        <v>0.05861032740836469</v>
       </c>
       <c r="E37">
         <v>0.2255954246237915</v>
@@ -17215,7 +17215,7 @@
         <v>0.94185353105551</v>
       </c>
       <c r="D38">
-        <v>-0.1991311049951394</v>
+        <v>0.02366557861858631</v>
       </c>
       <c r="E38">
         <v>0.2271626224640825</v>
@@ -17241,7 +17241,7 @@
         <v>0.9416986214595919</v>
       </c>
       <c r="D39">
-        <v>-0.1949488441654799</v>
+        <v>0.0412240428092675</v>
       </c>
       <c r="E39">
         <v>0.2274650162673519</v>
@@ -17267,7 +17267,7 @@
         <v>0.8376296985449421</v>
       </c>
       <c r="D40">
-        <v>-0.1041637231680246</v>
+        <v>0.2198932365519085</v>
       </c>
       <c r="E40">
         <v>0.3796020061617019</v>
@@ -17293,7 +17293,7 @@
         <v>0.8882197798487199</v>
       </c>
       <c r="D41">
-        <v>-0.01479862490442385</v>
+        <v>0.2782266846901352</v>
       </c>
       <c r="E41">
         <v>0.3149616527882312</v>
@@ -17319,7 +17319,7 @@
         <v>0.9083835368924325</v>
       </c>
       <c r="D42">
-        <v>-0.2090051852307744</v>
+        <v>0.08838541130220667</v>
       </c>
       <c r="E42">
         <v>0.2851425054581723</v>
@@ -17345,7 +17345,7 @@
         <v>0.9220117191472915</v>
       </c>
       <c r="D43">
-        <v>-0.08872436841094045</v>
+        <v>0.1874719240705716</v>
       </c>
       <c r="E43">
         <v>0.2630812362397892</v>
@@ -17371,7 +17371,7 @@
         <v>0.9182983795718491</v>
       </c>
       <c r="D44">
-        <v>-0.2243428842697728</v>
+        <v>0.0411998321200483</v>
       </c>
       <c r="E44">
         <v>0.2692715904887954</v>
@@ -17397,7 +17397,7 @@
         <v>0.9194226168261788</v>
       </c>
       <c r="D45">
-        <v>-0.2345870825927725</v>
+        <v>0.02874051161284175</v>
       </c>
       <c r="E45">
         <v>0.267412546721175</v>
@@ -17423,7 +17423,7 @@
         <v>0.9278186149708868</v>
       </c>
       <c r="D46">
-        <v>-0.1883300758936142</v>
+        <v>0.09315626689711853</v>
       </c>
       <c r="E46">
         <v>0.2530974712395914</v>
@@ -17449,7 +17449,7 @@
         <v>0.9260627191376871</v>
       </c>
       <c r="D47">
-        <v>-0.194263415251356</v>
+        <v>0.08243357912622351</v>
       </c>
       <c r="E47">
         <v>0.2561574185015695</v>
@@ -17475,7 +17475,7 @@
         <v>0.9270078482446493</v>
       </c>
       <c r="D48">
-        <v>-0.1379431113524312</v>
+        <v>0.1272939828320777</v>
       </c>
       <c r="E48">
         <v>0.2545149419187983</v>
@@ -17501,7 +17501,7 @@
         <v>0.9325907634797543</v>
       </c>
       <c r="D49">
-        <v>-0.09182163711569569</v>
+        <v>0.1454689621849846</v>
       </c>
       <c r="E49">
         <v>0.2445878641672547</v>
@@ -17527,7 +17527,7 @@
         <v>0.934413188941756</v>
       </c>
       <c r="D50">
-        <v>-0.1214682356024177</v>
+        <v>0.1296320415909918</v>
       </c>
       <c r="E50">
         <v>0.241258963747785</v>
@@ -17553,7 +17553,7 @@
         <v>0.9371951405429522</v>
       </c>
       <c r="D51">
-        <v>-0.1124439098809762</v>
+        <v>0.1638198623542251</v>
       </c>
       <c r="E51">
         <v>0.2360868646245657</v>
@@ -17579,7 +17579,7 @@
         <v>0.9390058749523624</v>
       </c>
       <c r="D52">
-        <v>-0.1708314706120033</v>
+        <v>0.1640317799558124</v>
       </c>
       <c r="E52">
         <v>0.2326586497835251</v>
@@ -17605,7 +17605,7 @@
         <v>0.9435388231471539</v>
       </c>
       <c r="D53">
-        <v>-0.1236564640227651</v>
+        <v>0.2004923229717431</v>
       </c>
       <c r="E53">
         <v>0.2238464254092886</v>
@@ -17631,7 +17631,7 @@
         <v>0.94704327308033</v>
       </c>
       <c r="D54">
-        <v>-0.08148619379432342</v>
+        <v>0.2188827579745853</v>
       </c>
       <c r="E54">
         <v>0.2167882641571359</v>
@@ -17657,7 +17657,7 @@
         <v>0.9485087896923496</v>
       </c>
       <c r="D55">
-        <v>-0.04602904644347561</v>
+        <v>0.2313811556205508</v>
       </c>
       <c r="E55">
         <v>0.2137675355889951</v>
@@ -17683,7 +17683,7 @@
         <v>0.9455618662466102</v>
       </c>
       <c r="D56">
-        <v>-0.08860382370544562</v>
+        <v>0.1730837759403611</v>
       </c>
       <c r="E56">
         <v>0.2197995579369482</v>
@@ -17709,7 +17709,7 @@
         <v>0.9454999444488661</v>
       </c>
       <c r="D57">
-        <v>-0.1151469361657014</v>
+        <v>0.1260057442306594</v>
       </c>
       <c r="E57">
         <v>0.219924530219043</v>
@@ -17735,7 +17735,7 @@
         <v>0.9451231203251149</v>
       </c>
       <c r="D58">
-        <v>-0.1052896630160065</v>
+        <v>0.1487499302392598</v>
       </c>
       <c r="E58">
         <v>0.2206835212954548</v>
@@ -17761,7 +17761,7 @@
         <v>0.8258060931371213</v>
       </c>
       <c r="D59">
-        <v>0.2329097291243143</v>
+        <v>0.4798433060697488</v>
       </c>
       <c r="E59">
         <v>0.3931802371952799</v>
@@ -17787,7 +17787,7 @@
         <v>0.878656915089423</v>
       </c>
       <c r="D60">
-        <v>0.1836951594099386</v>
+        <v>0.4026767009948422</v>
       </c>
       <c r="E60">
         <v>0.3281577885959638</v>
@@ -17813,7 +17813,7 @@
         <v>0.9026844481899148</v>
       </c>
       <c r="D61">
-        <v>0.02994835508174187</v>
+        <v>0.2270444896194074</v>
       </c>
       <c r="E61">
         <v>0.2938774922810869</v>
@@ -17839,7 +17839,7 @@
         <v>0.9104368505896758</v>
       </c>
       <c r="D62">
-        <v>0.1458688583551144</v>
+        <v>0.343189624509997</v>
       </c>
       <c r="E62">
         <v>0.2819290830602758</v>
@@ -17865,7 +17865,7 @@
         <v>0.9108586337399218</v>
       </c>
       <c r="D63">
-        <v>0.1618678981366144</v>
+        <v>0.3313011851455794</v>
       </c>
       <c r="E63">
         <v>0.2812644499577315</v>
@@ -17891,7 +17891,7 @@
         <v>0.9128145468308102</v>
       </c>
       <c r="D64">
-        <v>0.09190860370313758</v>
+        <v>0.287201910872804</v>
       </c>
       <c r="E64">
         <v>0.2781616251921275</v>
@@ -17917,7 +17917,7 @@
         <v>0.9258834080811347</v>
       </c>
       <c r="D65">
-        <v>0.04716458398786916</v>
+        <v>0.267685758904288</v>
       </c>
       <c r="E65">
         <v>0.2564678440562179</v>
@@ -17943,7 +17943,7 @@
         <v>0.9265123373488381</v>
       </c>
       <c r="D66">
-        <v>0.01036551614778958</v>
+        <v>0.2430870817541532</v>
       </c>
       <c r="E66">
         <v>0.2553773744740903</v>
@@ -17969,7 +17969,7 @@
         <v>0.9267872051122429</v>
       </c>
       <c r="D67">
-        <v>0.003952330251851044</v>
+        <v>0.223789037505167</v>
       </c>
       <c r="E67">
         <v>0.2548993298180662</v>
@@ -17995,7 +17995,7 @@
         <v>0.9319587779425447</v>
       </c>
       <c r="D68">
-        <v>0.06477676330722537</v>
+        <v>0.2525568009574268</v>
       </c>
       <c r="E68">
         <v>0.2457317384191084</v>
@@ -18021,7 +18021,7 @@
         <v>0.9356941445667724</v>
       </c>
       <c r="D69">
-        <v>0.04623428050372569</v>
+        <v>0.2392264718527095</v>
       </c>
       <c r="E69">
         <v>0.2388913696352943</v>
@@ -18047,7 +18047,7 @@
         <v>0.9354523069002252</v>
       </c>
       <c r="D70">
-        <v>0.08572423824967368</v>
+        <v>0.2771354609119422</v>
       </c>
       <c r="E70">
         <v>0.2393401523755386</v>
@@ -18073,7 +18073,7 @@
         <v>0.9347739241269238</v>
       </c>
       <c r="D71">
-        <v>0.05292215393626754</v>
+        <v>0.2730988305718524</v>
       </c>
       <c r="E71">
         <v>0.240594572573536</v>
@@ -18099,7 +18099,7 @@
         <v>0.9396000973371194</v>
       </c>
       <c r="D72">
-        <v>0.07592657850166573</v>
+        <v>0.2959738206227044</v>
       </c>
       <c r="E72">
         <v>0.2315225621020556</v>
@@ -18125,7 +18125,7 @@
         <v>0.943357752247961</v>
       </c>
       <c r="D73">
-        <v>0.1113650950440733</v>
+        <v>0.3366206210354011</v>
       </c>
       <c r="E73">
         <v>0.22420507564666</v>
@@ -18151,7 +18151,7 @@
         <v>0.9442080019396577</v>
       </c>
       <c r="D74">
-        <v>0.1143215343693922</v>
+        <v>0.3376947613998762</v>
       </c>
       <c r="E74">
         <v>0.222515955722202</v>
@@ -18177,7 +18177,7 @@
         <v>0.941490077471232</v>
       </c>
       <c r="D75">
-        <v>0.0559104395639819</v>
+        <v>0.2842862712846181</v>
       </c>
       <c r="E75">
         <v>0.2278714742152007</v>
@@ -18203,7 +18203,7 @@
         <v>0.9418330905804515</v>
       </c>
       <c r="D76">
-        <v>0.02077831417250908</v>
+        <v>0.2410591054663322</v>
       </c>
       <c r="E76">
         <v>0.2272025466761964</v>
@@ -18229,7 +18229,7 @@
         <v>0.9417135265864714</v>
       </c>
       <c r="D77">
-        <v>0.02708333241539185</v>
+        <v>0.2532534207711679</v>
       </c>
       <c r="E77">
         <v>0.2274359379527833</v>
@@ -18255,7 +18255,7 @@
         <v>0.9018097561930757</v>
       </c>
       <c r="D78">
-        <v>0.6060931670460782</v>
+        <v>0.6532061513571814</v>
       </c>
       <c r="E78">
         <v>0.2951952532018267</v>
@@ -18281,7 +18281,7 @@
         <v>0.930216396956364</v>
       </c>
       <c r="D79">
-        <v>0.3533653754734384</v>
+        <v>0.4939313853947196</v>
       </c>
       <c r="E79">
         <v>0.2488581653096681</v>
@@ -18307,7 +18307,7 @@
         <v>0.9340163164349727</v>
       </c>
       <c r="D80">
-        <v>0.1802292334072185</v>
+        <v>0.2681078657526426</v>
       </c>
       <c r="E80">
         <v>0.241987804180411</v>
@@ -18333,7 +18333,7 @@
         <v>0.937890617238876</v>
       </c>
       <c r="D81">
-        <v>0.2624422212474375</v>
+        <v>0.3515480566899452</v>
       </c>
       <c r="E81">
         <v>0.2347760584187206</v>
@@ -18359,7 +18359,7 @@
         <v>0.9324559340865671</v>
       </c>
       <c r="D82">
-        <v>0.2297037552552855</v>
+        <v>0.3252735898191237</v>
       </c>
       <c r="E82">
         <v>0.2448323496511943</v>
@@ -18385,7 +18385,7 @@
         <v>0.9308368636579726</v>
       </c>
       <c r="D83">
-        <v>0.156292167656639</v>
+        <v>0.2723371903781472</v>
       </c>
       <c r="E83">
         <v>0.2477493592656455</v>
@@ -18411,7 +18411,7 @@
         <v>0.9403919419844156</v>
       </c>
       <c r="D84">
-        <v>0.156780403325813</v>
+        <v>0.25346938663038</v>
       </c>
       <c r="E84">
         <v>0.2299999210887085</v>
@@ -18437,7 +18437,7 @@
         <v>0.9387158704894171</v>
       </c>
       <c r="D85">
-        <v>0.128339257760034</v>
+        <v>0.2584264875834265</v>
       </c>
       <c r="E85">
         <v>0.2332110967255953</v>
@@ -18463,7 +18463,7 @@
         <v>0.9369000894516201</v>
       </c>
       <c r="D86">
-        <v>0.1152540440709632</v>
+        <v>0.2448396719142497</v>
       </c>
       <c r="E86">
         <v>0.2366407713446425</v>
@@ -18489,7 +18489,7 @@
         <v>0.9383728593932325</v>
       </c>
       <c r="D87">
-        <v>0.107743697530265</v>
+        <v>0.2232136079871133</v>
       </c>
       <c r="E87">
         <v>0.2338628345725762</v>
@@ -18515,7 +18515,7 @@
         <v>0.9422078764193882</v>
       </c>
       <c r="D88">
-        <v>0.09254686105999543</v>
+        <v>0.2208935121626894</v>
       </c>
       <c r="E88">
         <v>0.2264693986829487</v>
@@ -18541,7 +18541,7 @@
         <v>0.9423076698878153</v>
       </c>
       <c r="D89">
-        <v>0.02445158306600181</v>
+        <v>0.1440665190462516</v>
       </c>
       <c r="E89">
         <v>0.2262737843836445</v>
@@ -18567,7 +18567,7 @@
         <v>0.9420068604460367</v>
       </c>
       <c r="D90">
-        <v>0.01538016585691382</v>
+        <v>0.1656269194155303</v>
       </c>
       <c r="E90">
         <v>0.2268629164017307</v>
@@ -18593,7 +18593,7 @@
         <v>0.9459235341783557</v>
       </c>
       <c r="D91">
-        <v>0.03163303759656622</v>
+        <v>0.182823195927817</v>
       </c>
       <c r="E91">
         <v>0.2190682054843016</v>
@@ -18619,7 +18619,7 @@
         <v>0.9480950793675613</v>
       </c>
       <c r="D92">
-        <v>0.05867842410208779</v>
+        <v>0.2184254283479096</v>
       </c>
       <c r="E92">
         <v>0.2146245838683846</v>
@@ -18645,7 +18645,7 @@
         <v>0.9491888453203402</v>
       </c>
       <c r="D93">
-        <v>0.06750603803561561</v>
+        <v>0.2247658163113063</v>
       </c>
       <c r="E93">
         <v>0.2123512064057037</v>
@@ -18671,7 +18671,7 @@
         <v>0.9468021724167192</v>
       </c>
       <c r="D94">
-        <v>0.02975143447806572</v>
+        <v>0.1755050283924876</v>
       </c>
       <c r="E94">
         <v>0.2172811990627067</v>
@@ -18697,7 +18697,7 @@
         <v>0.945996145306105</v>
       </c>
       <c r="D95">
-        <v>0.003086619194410445</v>
+        <v>0.1343668616977857</v>
       </c>
       <c r="E95">
         <v>0.2189210792575099</v>
@@ -18723,7 +18723,7 @@
         <v>0.9449648753692187</v>
       </c>
       <c r="D96">
-        <v>0.03482194972863728</v>
+        <v>0.1736135055609506</v>
       </c>
       <c r="E96">
         <v>0.221001477736399</v>
@@ -18749,7 +18749,7 @@
         <v>0.886718501504542</v>
       </c>
       <c r="D97">
-        <v>0.5376497992444573</v>
+        <v>0.6002788735331337</v>
       </c>
       <c r="E97">
         <v>0.3170696645160141</v>
@@ -18775,7 +18775,7 @@
         <v>0.9116876195173583</v>
       </c>
       <c r="D98">
-        <v>0.5331138049461406</v>
+        <v>0.5913275372506881</v>
       </c>
       <c r="E98">
         <v>0.2799535610752692</v>
@@ -18801,7 +18801,7 @@
         <v>0.9207503290083631</v>
       </c>
       <c r="D99">
-        <v>0.3105234932881666</v>
+        <v>0.3928250087002122</v>
       </c>
       <c r="E99">
         <v>0.2652002532296883</v>
@@ -18827,7 +18827,7 @@
         <v>0.9223725123384982</v>
       </c>
       <c r="D100">
-        <v>0.3769981178820326</v>
+        <v>0.4326621705541659</v>
       </c>
       <c r="E100">
         <v>0.2624719911655581</v>
@@ -18853,7 +18853,7 @@
         <v>0.9192583434366158</v>
       </c>
       <c r="D101">
-        <v>0.3266149648284612</v>
+        <v>0.3831909496698994</v>
       </c>
       <c r="E101">
         <v>0.2676849953729823</v>
@@ -18879,7 +18879,7 @@
         <v>0.9195800282913136</v>
       </c>
       <c r="D102">
-        <v>0.2438949490004104</v>
+        <v>0.3345632959790762</v>
       </c>
       <c r="E102">
         <v>0.2671512179385549</v>
@@ -18905,7 +18905,7 @@
         <v>0.9322532267358451</v>
       </c>
       <c r="D103">
-        <v>0.2235790226362985</v>
+        <v>0.3073362009337126</v>
       </c>
       <c r="E103">
         <v>0.2451994591542665</v>
@@ -18931,7 +18931,7 @@
         <v>0.9323587760470312</v>
       </c>
       <c r="D104">
-        <v>0.1888735972541843</v>
+        <v>0.3084255228051846</v>
       </c>
       <c r="E104">
         <v>0.2450083746116283</v>
@@ -18957,7 +18957,7 @@
         <v>0.935634498177532</v>
       </c>
       <c r="D105">
-        <v>0.1689254543622862</v>
+        <v>0.2905282184172413</v>
       </c>
       <c r="E105">
         <v>0.239002134859676</v>
@@ -18983,7 +18983,7 @@
         <v>0.9363669950255327</v>
       </c>
       <c r="D106">
-        <v>0.1662109146730681</v>
+        <v>0.2852311683312218</v>
       </c>
       <c r="E106">
         <v>0.2376382890016542</v>
@@ -19009,7 +19009,7 @@
         <v>0.9400874132216617</v>
       </c>
       <c r="D107">
-        <v>0.1191835184077455</v>
+        <v>0.2458798638292007</v>
       </c>
       <c r="E107">
         <v>0.2305866904239496</v>
@@ -19035,7 +19035,7 @@
         <v>0.9422436852233919</v>
       </c>
       <c r="D108">
-        <v>0.05575918219886544</v>
+        <v>0.175753883898404</v>
       </c>
       <c r="E108">
         <v>0.2263992260157923</v>
@@ -19061,7 +19061,7 @@
         <v>0.9428490448430591</v>
       </c>
       <c r="D109">
-        <v>0.03364336470776164</v>
+        <v>0.1834286218471632</v>
       </c>
       <c r="E109">
         <v>0.2252096247866482</v>
@@ -19087,7 +19087,7 @@
         <v>0.9467869946003789</v>
       </c>
       <c r="D110">
-        <v>0.02916932095579627</v>
+        <v>0.1737107108411028</v>
       </c>
       <c r="E110">
         <v>0.2173121929875539</v>
@@ -19113,7 +19113,7 @@
         <v>0.9492436629770866</v>
       </c>
       <c r="D111">
-        <v>0.02352648830752424</v>
+        <v>0.2116533609907274</v>
       </c>
       <c r="E111">
         <v>0.2122366278557068</v>
@@ -19139,7 +19139,7 @@
         <v>0.9499377517533926</v>
       </c>
       <c r="D112">
-        <v>0.03962425648533741</v>
+        <v>0.2167203073465148</v>
       </c>
       <c r="E112">
         <v>0.2107804732171711</v>
@@ -19165,7 +19165,7 @@
         <v>0.9470184232920738</v>
       </c>
       <c r="D113">
-        <v>0.002067928577053069</v>
+        <v>0.1714159583411464</v>
       </c>
       <c r="E113">
         <v>0.2168391218191092</v>
@@ -19191,7 +19191,7 @@
         <v>0.9469188243647034</v>
       </c>
       <c r="D114">
-        <v>-0.02900757907065943</v>
+        <v>0.119870667930903</v>
       </c>
       <c r="E114">
         <v>0.21704284172429</v>
@@ -19217,7 +19217,7 @@
         <v>0.9468332578995985</v>
       </c>
       <c r="D115">
-        <v>0.008433964106399294</v>
+        <v>0.1670759334275655</v>
       </c>
       <c r="E115">
         <v>0.2172177070153333</v>
@@ -19243,7 +19243,7 @@
         <v>0.8918073937042237</v>
       </c>
       <c r="D116">
-        <v>0.4535956735099277</v>
+        <v>0.472751321516496</v>
       </c>
       <c r="E116">
         <v>0.3098660470366715</v>
@@ -19269,7 +19269,7 @@
         <v>0.9217747039472642</v>
       </c>
       <c r="D117">
-        <v>0.509300497265176</v>
+        <v>0.5504007975664337</v>
       </c>
       <c r="E117">
         <v>0.2634806997719892</v>
@@ -19295,7 +19295,7 @@
         <v>0.9235819877190066</v>
       </c>
       <c r="D118">
-        <v>0.2535756145719917</v>
+        <v>0.297860641641896</v>
       </c>
       <c r="E118">
         <v>0.2604192411045196</v>
@@ -19321,7 +19321,7 @@
         <v>0.9290811819395246</v>
       </c>
       <c r="D119">
-        <v>0.3538149907715222</v>
+        <v>0.4302738969518388</v>
       </c>
       <c r="E119">
         <v>0.2508741678672134</v>
@@ -19347,7 +19347,7 @@
         <v>0.9215293428541229</v>
       </c>
       <c r="D120">
-        <v>0.2867040036528506</v>
+        <v>0.3747635652946416</v>
       </c>
       <c r="E120">
         <v>0.2638935924137581</v>
@@ -19373,7 +19373,7 @@
         <v>0.9233512878908687</v>
       </c>
       <c r="D121">
-        <v>0.1855202731921139</v>
+        <v>0.3161611441331377</v>
       </c>
       <c r="E121">
         <v>0.2608120372367344</v>
@@ -19399,7 +19399,7 @@
         <v>0.9339600670744793</v>
       </c>
       <c r="D122">
-        <v>0.1328573389144064</v>
+        <v>0.2888341372840364</v>
       </c>
       <c r="E122">
         <v>0.242090926337566</v>
@@ -19425,7 +19425,7 @@
         <v>0.9295647448814812</v>
       </c>
       <c r="D123">
-        <v>0.04209965958031736</v>
+        <v>0.254639565566139</v>
       </c>
       <c r="E123">
         <v>0.2500174068744773</v>
@@ -19451,7 +19451,7 @@
         <v>0.9334468119548482</v>
       </c>
       <c r="D124">
-        <v>0.07200882383543394</v>
+        <v>0.2429715202585636</v>
       </c>
       <c r="E124">
         <v>0.2430298576218711</v>
@@ -19477,7 +19477,7 @@
         <v>0.9343509184565075</v>
       </c>
       <c r="D125">
-        <v>0.09135545155636093</v>
+        <v>0.2665577604044778</v>
       </c>
       <c r="E125">
         <v>0.241373466559202</v>
@@ -19503,7 +19503,7 @@
         <v>0.939795934660045</v>
       </c>
       <c r="D126">
-        <v>0.05347436565762576</v>
+        <v>0.2397714517317272</v>
       </c>
       <c r="E126">
         <v>0.231146919352172</v>
@@ -19529,7 +19529,7 @@
         <v>0.9404552758670115</v>
       </c>
       <c r="D127">
-        <v>0.02171295676067542</v>
+        <v>0.2210650307630914</v>
       </c>
       <c r="E127">
         <v>0.2298777005377964</v>
@@ -19555,7 +19555,7 @@
         <v>0.9411855616392701</v>
       </c>
       <c r="D128">
-        <v>0.0439525101563859</v>
+        <v>0.2345392714233629</v>
       </c>
       <c r="E128">
         <v>0.2284636850470199</v>
@@ -19581,7 +19581,7 @@
         <v>0.9443273226791944</v>
       </c>
       <c r="D129">
-        <v>0.0117136838678491</v>
+        <v>0.21783479439612</v>
       </c>
       <c r="E129">
         <v>0.2222778841316477</v>
@@ -19607,7 +19607,7 @@
         <v>0.9456931869189913</v>
       </c>
       <c r="D130">
-        <v>0.03028567259123716</v>
+        <v>0.2529647169849185</v>
       </c>
       <c r="E130">
         <v>0.2195342875096915</v>
@@ -19633,7 +19633,7 @@
         <v>0.9469354885351339</v>
       </c>
       <c r="D131">
-        <v>0.05614235863155026</v>
+        <v>0.2727073525511827</v>
       </c>
       <c r="E131">
         <v>0.217008770108771</v>
@@ -19659,7 +19659,7 @@
         <v>0.9440987294715233</v>
       </c>
       <c r="D132">
-        <v>0.006782740157161182</v>
+        <v>0.2231188087083114</v>
       </c>
       <c r="E132">
         <v>0.222733755537455</v>
@@ -19685,7 +19685,7 @@
         <v>0.9439782421806294</v>
       </c>
       <c r="D133">
-        <v>-0.03176742220421569</v>
+        <v>0.1793489044310508</v>
       </c>
       <c r="E133">
         <v>0.2229736619070856</v>
@@ -19711,7 +19711,7 @@
         <v>0.9421515403657608</v>
       </c>
       <c r="D134">
-        <v>0.003327154040050462</v>
+        <v>0.2164950825149234</v>
       </c>
       <c r="E134">
         <v>0.2265797535520656</v>
@@ -19737,7 +19737,7 @@
         <v>0.8892326202791341</v>
       </c>
       <c r="D135">
-        <v>0.4450543139180068</v>
+        <v>0.2641766990580325</v>
       </c>
       <c r="E135">
         <v>0.3135314721352117</v>
@@ -19763,7 +19763,7 @@
         <v>0.9239308917541095</v>
       </c>
       <c r="D136">
-        <v>0.4025082165364199</v>
+        <v>0.3276886126148701</v>
       </c>
       <c r="E136">
         <v>0.2598240589554528</v>
@@ -19789,7 +19789,7 @@
         <v>0.9266015519746398</v>
       </c>
       <c r="D137">
-        <v>0.337937914807903</v>
+        <v>0.2642051979385875</v>
       </c>
       <c r="E137">
         <v>0.2552223122834587</v>
@@ -19815,7 +19815,7 @@
         <v>0.9312710753063383</v>
       </c>
       <c r="D138">
-        <v>0.3959275904682562</v>
+        <v>0.3935503792028334</v>
       </c>
       <c r="E138">
         <v>0.2469704397603807</v>
@@ -19841,7 +19841,7 @@
         <v>0.9211195091228629</v>
       </c>
       <c r="D139">
-        <v>0.3406433988767412</v>
+        <v>0.3397310492938633</v>
       </c>
       <c r="E139">
         <v>0.2645818219595772</v>
@@ -19867,7 +19867,7 @@
         <v>0.9251495595678527</v>
       </c>
       <c r="D140">
-        <v>0.3304195364590499</v>
+        <v>0.411185692189441</v>
       </c>
       <c r="E140">
         <v>0.2577343955626038</v>
@@ -19893,7 +19893,7 @@
         <v>0.9347686901378488</v>
       </c>
       <c r="D141">
-        <v>0.311614659058791</v>
+        <v>0.3927545543941914</v>
       </c>
       <c r="E141">
         <v>0.240604225492912</v>
@@ -19919,7 +19919,7 @@
         <v>0.9344879430885421</v>
       </c>
       <c r="D142">
-        <v>0.2771587908554147</v>
+        <v>0.3785629019424337</v>
       </c>
       <c r="E142">
         <v>0.2411214341925568</v>
@@ -19945,7 +19945,7 @@
         <v>0.9364394121393125</v>
       </c>
       <c r="D143">
-        <v>0.2993490762346515</v>
+        <v>0.3849669187369653</v>
       </c>
       <c r="E143">
         <v>0.2375030291787275</v>
@@ -19971,7 +19971,7 @@
         <v>0.9386882992487852</v>
       </c>
       <c r="D144">
-        <v>0.3154445830006153</v>
+        <v>0.3894480214420554</v>
       </c>
       <c r="E144">
         <v>0.2332635507319382</v>
@@ -19997,7 +19997,7 @@
         <v>0.938356151888771</v>
       </c>
       <c r="D145">
-        <v>0.3289977917036154</v>
+        <v>0.3991333686346338</v>
       </c>
       <c r="E145">
         <v>0.2338945332651364</v>
@@ -20023,7 +20023,7 @@
         <v>0.9380885151652859</v>
       </c>
       <c r="D146">
-        <v>0.2718038335215724</v>
+        <v>0.3450607745571751</v>
       </c>
       <c r="E146">
         <v>0.2344017287913373</v>
@@ -20049,7 +20049,7 @@
         <v>0.9396082131136493</v>
       </c>
       <c r="D147">
-        <v>0.2739496017519424</v>
+        <v>0.3525339495028308</v>
       </c>
       <c r="E147">
         <v>0.2315070070397489</v>
@@ -20075,7 +20075,7 @@
         <v>0.9433125492760248</v>
       </c>
       <c r="D148">
-        <v>0.2542320836985873</v>
+        <v>0.359759482582698</v>
       </c>
       <c r="E148">
         <v>0.2242945204953483</v>
@@ -20101,7 +20101,7 @@
         <v>0.944952798615269</v>
       </c>
       <c r="D149">
-        <v>0.2427859383262517</v>
+        <v>0.354615606603264</v>
       </c>
       <c r="E149">
         <v>0.2210257243796536</v>
@@ -20127,7 +20127,7 @@
         <v>0.9460923650630655</v>
       </c>
       <c r="D150">
-        <v>0.2585522322362367</v>
+        <v>0.3688302887818301</v>
       </c>
       <c r="E150">
         <v>0.2187259642578212</v>
@@ -20153,7 +20153,7 @@
         <v>0.943659183053872</v>
       </c>
       <c r="D151">
-        <v>0.1974554770610564</v>
+        <v>0.3127744216809842</v>
       </c>
       <c r="E151">
         <v>0.2236077082053755</v>
@@ -20179,7 +20179,7 @@
         <v>0.9456674670230869</v>
       </c>
       <c r="D152">
-        <v>0.1854059252962669</v>
+        <v>0.3184194123312502</v>
       </c>
       <c r="E152">
         <v>0.2195862674577091</v>
@@ -20205,7 +20205,7 @@
         <v>0.9441492194745964</v>
       </c>
       <c r="D153">
-        <v>0.2184518735307586</v>
+        <v>0.3471055131527893</v>
       </c>
       <c r="E153">
         <v>0.2226331462995132</v>
@@ -20231,7 +20231,7 @@
         <v>0.9210410591674689</v>
       </c>
       <c r="D154">
-        <v>0.2250138711724275</v>
+        <v>0.1190827401761579</v>
       </c>
       <c r="E154">
         <v>0.2647133581206688</v>
@@ -20257,7 +20257,7 @@
         <v>0.9260731767982238</v>
       </c>
       <c r="D155">
-        <v>0.1958148803214822</v>
+        <v>0.203797012366487</v>
       </c>
       <c r="E155">
         <v>0.2561393024576438</v>
@@ -20283,7 +20283,7 @@
         <v>0.9315483528710469</v>
       </c>
       <c r="D156">
-        <v>0.2596830209324792</v>
+        <v>0.3490985119156894</v>
       </c>
       <c r="E156">
         <v>0.246471751837092</v>
@@ -20309,7 +20309,7 @@
         <v>0.9333238361595213</v>
       </c>
       <c r="D157">
-        <v>0.3363119450425449</v>
+        <v>0.444565031948012</v>
       </c>
       <c r="E157">
         <v>0.2432542871163682</v>
@@ -20335,7 +20335,7 @@
         <v>0.9265688494560396</v>
       </c>
       <c r="D158">
-        <v>0.2725201780869326</v>
+        <v>0.3830487910523754</v>
       </c>
       <c r="E158">
         <v>0.2552791628243402</v>
@@ -20361,7 +20361,7 @@
         <v>0.929560132460699</v>
       </c>
       <c r="D159">
-        <v>0.3184013958026485</v>
+        <v>0.464317531122649</v>
       </c>
       <c r="E159">
         <v>0.2500255928787951</v>
@@ -20387,7 +20387,7 @@
         <v>0.9371791817437654</v>
       </c>
       <c r="D160">
-        <v>0.313778196458697</v>
+        <v>0.4376209242149083</v>
       </c>
       <c r="E160">
         <v>0.236116857714146</v>
@@ -20413,7 +20413,7 @@
         <v>0.9342366788476227</v>
       </c>
       <c r="D161">
-        <v>0.3003451204544065</v>
+        <v>0.4786733959215791</v>
       </c>
       <c r="E161">
         <v>0.2415833889545546</v>
@@ -20439,7 +20439,7 @@
         <v>0.9350429220693054</v>
       </c>
       <c r="D162">
-        <v>0.272897427935057</v>
+        <v>0.474403490693584</v>
       </c>
       <c r="E162">
         <v>0.2400979436625413</v>
@@ -20465,7 +20465,7 @@
         <v>0.9318359533846756</v>
       </c>
       <c r="D163">
-        <v>0.2762686392926995</v>
+        <v>0.477603848648041</v>
       </c>
       <c r="E163">
         <v>0.2459534296438446</v>
@@ -20491,7 +20491,7 @@
         <v>0.9329086119382552</v>
       </c>
       <c r="D164">
-        <v>0.3161516193343673</v>
+        <v>0.4993427795233375</v>
       </c>
       <c r="E164">
         <v>0.2440105416922332</v>
@@ -20517,7 +20517,7 @@
         <v>0.9345629474364215</v>
       </c>
       <c r="D165">
-        <v>0.2439983867139595</v>
+        <v>0.4389902545231538</v>
       </c>
       <c r="E165">
         <v>0.2409833654450217</v>
@@ -20543,7 +20543,7 @@
         <v>0.9363449345022751</v>
       </c>
       <c r="D166">
-        <v>0.2206108391655111</v>
+        <v>0.4238302944311099</v>
       </c>
       <c r="E166">
         <v>0.2376794780883277</v>
@@ -20569,7 +20569,7 @@
         <v>0.939609630708429</v>
       </c>
       <c r="D167">
-        <v>0.2344520656337737</v>
+        <v>0.4288853782093348</v>
       </c>
       <c r="E167">
         <v>0.2315042899066132</v>
@@ -20595,7 +20595,7 @@
         <v>0.9411961748142484</v>
       </c>
       <c r="D168">
-        <v>0.233818006737328</v>
+        <v>0.413638777316892</v>
       </c>
       <c r="E168">
         <v>0.2284430707682</v>
@@ -20621,7 +20621,7 @@
         <v>0.9399565885225577</v>
       </c>
       <c r="D169">
-        <v>0.2680142307889662</v>
+        <v>0.4351011349458477</v>
       </c>
       <c r="E169">
         <v>0.2308383068718893</v>
@@ -20647,7 +20647,7 @@
         <v>0.9381917815756877</v>
       </c>
       <c r="D170">
-        <v>0.269475883515026</v>
+        <v>0.4442248860419328</v>
       </c>
       <c r="E170">
         <v>0.2342061598492059</v>
@@ -20673,7 +20673,7 @@
         <v>0.9391753954171034</v>
       </c>
       <c r="D171">
-        <v>0.2505464970059285</v>
+        <v>0.4346726727253052</v>
       </c>
       <c r="E171">
         <v>0.2323351116997308</v>
@@ -20699,7 +20699,7 @@
         <v>0.9375802764630647</v>
       </c>
       <c r="D172">
-        <v>0.2554599200477664</v>
+        <v>0.4375049737569047</v>
       </c>
       <c r="E172">
         <v>0.2353618780830055</v>
@@ -20725,7 +20725,7 @@
         <v>0.898528773900672</v>
       </c>
       <c r="D173">
-        <v>0.3362376665829767</v>
+        <v>0.1956694909072167</v>
       </c>
       <c r="E173">
         <v>0.3000866356168922</v>
@@ -20751,7 +20751,7 @@
         <v>0.9338098015753544</v>
       </c>
       <c r="D174">
-        <v>0.3053168330130672</v>
+        <v>0.2717116933222162</v>
       </c>
       <c r="E174">
         <v>0.2423661934558447</v>
@@ -20777,7 +20777,7 @@
         <v>0.9420612467558007</v>
       </c>
       <c r="D175">
-        <v>0.3171680617725625</v>
+        <v>0.3722955170130435</v>
       </c>
       <c r="E175">
         <v>0.2267565147565068</v>
@@ -20803,7 +20803,7 @@
         <v>0.9471863708294164</v>
       </c>
       <c r="D176">
-        <v>0.3720568510496333</v>
+        <v>0.4224491775932735</v>
       </c>
       <c r="E176">
         <v>0.2164951673272432</v>
@@ -20829,7 +20829,7 @@
         <v>0.9374981573225559</v>
       </c>
       <c r="D177">
-        <v>0.2973266837717182</v>
+        <v>0.3625095571143589</v>
       </c>
       <c r="E177">
         <v>0.2355166477724056</v>
@@ -20855,7 +20855,7 @@
         <v>0.9376061243965942</v>
       </c>
       <c r="D178">
-        <v>0.3192829458880377</v>
+        <v>0.4569504159389821</v>
       </c>
       <c r="E178">
         <v>0.235313141499675</v>
@@ -20881,7 +20881,7 @@
         <v>0.9424795655620291</v>
       </c>
       <c r="D179">
-        <v>0.3045424390772705</v>
+        <v>0.4224507434845395</v>
       </c>
       <c r="E179">
         <v>0.2259364388439798</v>
@@ -20907,7 +20907,7 @@
         <v>0.9369021968330025</v>
       </c>
       <c r="D180">
-        <v>0.3307401535227155</v>
+        <v>0.5029701463230741</v>
       </c>
       <c r="E180">
         <v>0.236636819702593</v>
@@ -20933,7 +20933,7 @@
         <v>0.9391440343009239</v>
       </c>
       <c r="D181">
-        <v>0.3206770643443809</v>
+        <v>0.4964692526065078</v>
       </c>
       <c r="E181">
         <v>0.2323949998775621</v>
@@ -20959,7 +20959,7 @@
         <v>0.9400601381675109</v>
       </c>
       <c r="D182">
-        <v>0.3296243388083667</v>
+        <v>0.5026283020152875</v>
       </c>
       <c r="E182">
         <v>0.2306391714565328</v>
@@ -20985,7 +20985,7 @@
         <v>0.9393497254416309</v>
       </c>
       <c r="D183">
-        <v>0.3348487429734565</v>
+        <v>0.4745478763170811</v>
       </c>
       <c r="E183">
         <v>0.2320019237639508</v>
@@ -21011,7 +21011,7 @@
         <v>0.9391711748101842</v>
       </c>
       <c r="D184">
-        <v>0.2789928561089599</v>
+        <v>0.4240310069476684</v>
       </c>
       <c r="E184">
         <v>0.2323431724029322</v>
@@ -21037,7 +21037,7 @@
         <v>0.9414365077530364</v>
       </c>
       <c r="D185">
-        <v>0.2648613114506762</v>
+        <v>0.4215981748625224</v>
       </c>
       <c r="E185">
         <v>0.2279757660799586</v>
@@ -21063,7 +21063,7 @@
         <v>0.9430135959813356</v>
       </c>
       <c r="D186">
-        <v>0.2464450601322393</v>
+        <v>0.4259588419047827</v>
       </c>
       <c r="E186">
         <v>0.2248851751468399</v>
@@ -21089,7 +21089,7 @@
         <v>0.9438848006614501</v>
       </c>
       <c r="D187">
-        <v>0.2508910909371408</v>
+        <v>0.4167750720355335</v>
       </c>
       <c r="E187">
         <v>0.2231595389468107</v>
@@ -21115,7 +21115,7 @@
         <v>0.9447296873839874</v>
       </c>
       <c r="D188">
-        <v>0.265171453859912</v>
+        <v>0.4250592906558973</v>
       </c>
       <c r="E188">
         <v>0.2214731899496777</v>
@@ -21141,7 +21141,7 @@
         <v>0.9420593945921935</v>
       </c>
       <c r="D189">
-        <v>0.2662046306672207</v>
+        <v>0.4437769799034156</v>
       </c>
       <c r="E189">
         <v>0.2267601391597287</v>
@@ -21167,7 +21167,7 @@
         <v>0.9421211288018252</v>
       </c>
       <c r="D190">
-        <v>0.2594041786651716</v>
+        <v>0.4459805399051818</v>
       </c>
       <c r="E190">
         <v>0.2266393034460601</v>
@@ -21193,7 +21193,7 @@
         <v>0.9410832119625868</v>
       </c>
       <c r="D191">
-        <v>0.2599438880870329</v>
+        <v>0.4477414101796243</v>
       </c>
       <c r="E191">
         <v>0.2286623864276575</v>
@@ -21219,7 +21219,7 @@
         <v>0.8977246682690875</v>
       </c>
       <c r="D192">
-        <v>0.2051463756601887</v>
+        <v>0.05529758750436853</v>
       </c>
       <c r="E192">
         <v>0.3012733030172036</v>
@@ -21245,7 +21245,7 @@
         <v>0.9333328606674057</v>
       </c>
       <c r="D193">
-        <v>0.1534030575758661</v>
+        <v>0.209681973101577</v>
       </c>
       <c r="E193">
         <v>0.2432378245277049</v>
@@ -21271,7 +21271,7 @@
         <v>0.9266952236634405</v>
       </c>
       <c r="D194">
-        <v>0.1806223337902044</v>
+        <v>0.3576083682964184</v>
       </c>
       <c r="E194">
         <v>0.255059401907725</v>
@@ -21297,7 +21297,7 @@
         <v>0.9355402796205151</v>
       </c>
       <c r="D195">
-        <v>0.3021359468042484</v>
+        <v>0.4559641455719126</v>
       </c>
       <c r="E195">
         <v>0.2391769971772826</v>
@@ -21323,7 +21323,7 @@
         <v>0.9281767677623617</v>
       </c>
       <c r="D196">
-        <v>0.253907694075719</v>
+        <v>0.3982597684138371</v>
       </c>
       <c r="E196">
         <v>0.2524687752786164</v>
@@ -21349,7 +21349,7 @@
         <v>0.9296778749097072</v>
       </c>
       <c r="D197">
-        <v>0.2792686059564918</v>
+        <v>0.4924960450937875</v>
       </c>
       <c r="E197">
         <v>0.2498165426715902</v>
@@ -21375,7 +21375,7 @@
         <v>0.9355874472894834</v>
       </c>
       <c r="D198">
-        <v>0.257592942563371</v>
+        <v>0.4498631919776431</v>
       </c>
       <c r="E198">
         <v>0.2390894736363822</v>
@@ -21401,7 +21401,7 @@
         <v>0.93858228391998</v>
       </c>
       <c r="D199">
-        <v>0.2390104146951129</v>
+        <v>0.4995799055203167</v>
       </c>
       <c r="E199">
         <v>0.2334651340421457</v>
@@ -21427,7 +21427,7 @@
         <v>0.9393835471198</v>
       </c>
       <c r="D200">
-        <v>0.2419206057906178</v>
+        <v>0.4976208521723108</v>
       </c>
       <c r="E200">
         <v>0.2319372267061765</v>
@@ -21453,7 +21453,7 @@
         <v>0.9404559800432835</v>
       </c>
       <c r="D201">
-        <v>0.2622613709001747</v>
+        <v>0.4988253753966357</v>
       </c>
       <c r="E201">
         <v>0.2298763412662311</v>
@@ -21479,7 +21479,7 @@
         <v>0.9412360672552743</v>
       </c>
       <c r="D202">
-        <v>0.2968282548731578</v>
+        <v>0.5165441563826196</v>
       </c>
       <c r="E202">
         <v>0.2283655698759387</v>
@@ -21505,7 +21505,7 @@
         <v>0.9420124565612861</v>
       </c>
       <c r="D203">
-        <v>0.2212569675173679</v>
+        <v>0.4579712885818696</v>
       </c>
       <c r="E203">
         <v>0.2268519704375706</v>
@@ -21531,7 +21531,7 @@
         <v>0.9437072468314347</v>
       </c>
       <c r="D204">
-        <v>0.1809643518158105</v>
+        <v>0.452098054632845</v>
       </c>
       <c r="E204">
         <v>0.2235123091249183</v>
@@ -21557,7 +21557,7 @@
         <v>0.9458586653791428</v>
       </c>
       <c r="D205">
-        <v>0.1912345395827396</v>
+        <v>0.4541851405408532</v>
       </c>
       <c r="E205">
         <v>0.219199560520867</v>
@@ -21583,7 +21583,7 @@
         <v>0.9480192819708201</v>
       </c>
       <c r="D206">
-        <v>0.1923769965713684</v>
+        <v>0.4404002720784711</v>
       </c>
       <c r="E206">
         <v>0.2147812361643854</v>
@@ -21609,7 +21609,7 @@
         <v>0.9484700892438277</v>
       </c>
       <c r="D207">
-        <v>0.1996130439549074</v>
+        <v>0.4502917849729511</v>
       </c>
       <c r="E207">
         <v>0.2138478536236387</v>
@@ -21635,7 +21635,7 @@
         <v>0.9464246731938337</v>
       </c>
       <c r="D208">
-        <v>0.2174700755396045</v>
+        <v>0.447970849527962</v>
       </c>
       <c r="E208">
         <v>0.2180507651239173</v>
@@ -21661,7 +21661,7 @@
         <v>0.9459947216816088</v>
       </c>
       <c r="D209">
-        <v>0.207276012345837</v>
+        <v>0.4475597242779649</v>
       </c>
       <c r="E209">
         <v>0.2189239647863207</v>
@@ -21687,7 +21687,7 @@
         <v>0.9442084710428758</v>
       </c>
       <c r="D210">
-        <v>0.2155768975287664</v>
+        <v>0.4516608750002059</v>
       </c>
       <c r="E210">
         <v>0.222515020254985</v>
@@ -21713,7 +21713,7 @@
         <v>0.914761979226993</v>
       </c>
       <c r="D211">
-        <v>0.303729152860339</v>
+        <v>0.1174067884883578</v>
       </c>
       <c r="E211">
         <v>0.2750374791811311</v>
@@ -21739,7 +21739,7 @@
         <v>0.9175923889565694</v>
       </c>
       <c r="D212">
-        <v>0.1958809605680115</v>
+        <v>0.2788960487474847</v>
       </c>
       <c r="E212">
         <v>0.2704324873300731</v>
@@ -21765,7 +21765,7 @@
         <v>0.9213582333530136</v>
       </c>
       <c r="D213">
-        <v>0.2754022947460991</v>
+        <v>0.4378190165867688</v>
       </c>
       <c r="E213">
         <v>0.2641811528460348</v>
@@ -21791,7 +21791,7 @@
         <v>0.9321118628392346</v>
       </c>
       <c r="D214">
-        <v>0.3068469040489155</v>
+        <v>0.4621403744097896</v>
       </c>
       <c r="E214">
         <v>0.2454551487325598</v>
@@ -21817,7 +21817,7 @@
         <v>0.9248489830416742</v>
       </c>
       <c r="D215">
-        <v>0.2468150542257201</v>
+        <v>0.3872917879961767</v>
       </c>
       <c r="E215">
         <v>0.2582513684203374</v>
@@ -21843,7 +21843,7 @@
         <v>0.9277475096558565</v>
       </c>
       <c r="D216">
-        <v>0.2700319532879831</v>
+        <v>0.4808232859918832</v>
       </c>
       <c r="E216">
         <v>0.2532221027185317</v>
@@ -21869,7 +21869,7 @@
         <v>0.9343460925348221</v>
       </c>
       <c r="D217">
-        <v>0.2748391312175062</v>
+        <v>0.4587525718108714</v>
       </c>
       <c r="E217">
         <v>0.2413823381840037</v>
@@ -21895,7 +21895,7 @@
         <v>0.9310913236222859</v>
       </c>
       <c r="D218">
-        <v>0.2821809582687188</v>
+        <v>0.4888339426778249</v>
       </c>
       <c r="E218">
         <v>0.2472931886195535</v>
@@ -21921,7 +21921,7 @@
         <v>0.9337451694404578</v>
       </c>
       <c r="D219">
-        <v>0.2498941050468384</v>
+        <v>0.4837685420324647</v>
       </c>
       <c r="E219">
         <v>0.2424844951286795</v>
@@ -21947,7 +21947,7 @@
         <v>0.93287246430599</v>
       </c>
       <c r="D220">
-        <v>0.2640545070054658</v>
+        <v>0.4918556568488435</v>
       </c>
       <c r="E220">
         <v>0.2440762670843886</v>
@@ -21973,7 +21973,7 @@
         <v>0.9355285884013574</v>
       </c>
       <c r="D221">
-        <v>0.2955962089774941</v>
+        <v>0.5052891710454591</v>
       </c>
       <c r="E221">
         <v>0.239198686256097</v>
@@ -21999,7 +21999,7 @@
         <v>0.9358822225112026</v>
       </c>
       <c r="D222">
-        <v>0.2282065572471906</v>
+        <v>0.4539891330579291</v>
       </c>
       <c r="E222">
         <v>0.2385417661826734</v>
@@ -22025,7 +22025,7 @@
         <v>0.9380569327293622</v>
       </c>
       <c r="D223">
-        <v>0.2248216767731157</v>
+        <v>0.4499619331860796</v>
       </c>
       <c r="E223">
         <v>0.2344615079561744</v>
@@ -22051,7 +22051,7 @@
         <v>0.9423357818580953</v>
       </c>
       <c r="D224">
-        <v>0.2432336485981624</v>
+        <v>0.4640430930814748</v>
       </c>
       <c r="E224">
         <v>0.2262186490045927</v>
@@ -22077,7 +22077,7 @@
         <v>0.9436340819111673</v>
       </c>
       <c r="D225">
-        <v>0.2413817008634911</v>
+        <v>0.4457768179123818</v>
       </c>
       <c r="E225">
         <v>0.2236575138727209</v>
@@ -22103,7 +22103,7 @@
         <v>0.9430719710167047</v>
       </c>
       <c r="D226">
-        <v>0.2342943014732276</v>
+        <v>0.4468622277925189</v>
       </c>
       <c r="E226">
         <v>0.2247699630721759</v>
@@ -22129,7 +22129,7 @@
         <v>0.9411755208515565</v>
       </c>
       <c r="D227">
-        <v>0.272736837178631</v>
+        <v>0.4737935851954006</v>
       </c>
       <c r="E227">
         <v>0.2284831858492737</v>
@@ -22155,7 +22155,7 @@
         <v>0.9419599105876133</v>
       </c>
       <c r="D228">
-        <v>0.2652617208775386</v>
+        <v>0.4744493815242283</v>
       </c>
       <c r="E228">
         <v>0.2269547292180841</v>
@@ -22181,7 +22181,7 @@
         <v>0.9406031623376518</v>
       </c>
       <c r="D229">
-        <v>0.2669034753850145</v>
+        <v>0.475420690565182</v>
       </c>
       <c r="E229">
         <v>0.2295920586381689</v>
@@ -22207,7 +22207,7 @@
         <v>0.914761979226993</v>
       </c>
       <c r="D230">
-        <v>0.303729152860339</v>
+        <v>0.1174067884883578</v>
       </c>
       <c r="E230">
         <v>0.2750374791811311</v>
@@ -22233,7 +22233,7 @@
         <v>0.9175923889565694</v>
       </c>
       <c r="D231">
-        <v>0.1958809605680115</v>
+        <v>0.2788960487474847</v>
       </c>
       <c r="E231">
         <v>0.2704324873300731</v>
@@ -22259,7 +22259,7 @@
         <v>0.9213582333530136</v>
       </c>
       <c r="D232">
-        <v>0.2754022947460991</v>
+        <v>0.4378190165867688</v>
       </c>
       <c r="E232">
         <v>0.2641811528460348</v>
@@ -22285,7 +22285,7 @@
         <v>0.9321118628392346</v>
       </c>
       <c r="D233">
-        <v>0.3068469040489155</v>
+        <v>0.4621403744097896</v>
       </c>
       <c r="E233">
         <v>0.2454551487325598</v>
@@ -22311,7 +22311,7 @@
         <v>0.9248489830416742</v>
       </c>
       <c r="D234">
-        <v>0.2468150542257201</v>
+        <v>0.3872917879961767</v>
       </c>
       <c r="E234">
         <v>0.2582513684203374</v>
@@ -22337,7 +22337,7 @@
         <v>0.9277475096558565</v>
       </c>
       <c r="D235">
-        <v>0.2700319532879831</v>
+        <v>0.4808232859918832</v>
       </c>
       <c r="E235">
         <v>0.2532221027185317</v>
@@ -22363,7 +22363,7 @@
         <v>0.9343460925348221</v>
       </c>
       <c r="D236">
-        <v>0.2748391312175062</v>
+        <v>0.4587525718108714</v>
       </c>
       <c r="E236">
         <v>0.2413823381840037</v>
@@ -22389,7 +22389,7 @@
         <v>0.9310913236222859</v>
       </c>
       <c r="D237">
-        <v>0.2821809582687188</v>
+        <v>0.4888339426778249</v>
       </c>
       <c r="E237">
         <v>0.2472931886195535</v>
@@ -22415,7 +22415,7 @@
         <v>0.9337451694404578</v>
       </c>
       <c r="D238">
-        <v>0.2498941050468384</v>
+        <v>0.4837685420324647</v>
       </c>
       <c r="E238">
         <v>0.2424844951286795</v>
@@ -22441,7 +22441,7 @@
         <v>0.93287246430599</v>
       </c>
       <c r="D239">
-        <v>0.2640545070054658</v>
+        <v>0.4918556568488435</v>
       </c>
       <c r="E239">
         <v>0.2440762670843886</v>
@@ -22467,7 +22467,7 @@
         <v>0.9355285884013574</v>
       </c>
       <c r="D240">
-        <v>0.2955962089774941</v>
+        <v>0.5052891710454591</v>
       </c>
       <c r="E240">
         <v>0.239198686256097</v>
@@ -22493,7 +22493,7 @@
         <v>0.9358822225112026</v>
       </c>
       <c r="D241">
-        <v>0.2282065572471906</v>
+        <v>0.4539891330579291</v>
       </c>
       <c r="E241">
         <v>0.2385417661826734</v>
@@ -22519,7 +22519,7 @@
         <v>0.9380569327293622</v>
       </c>
       <c r="D242">
-        <v>0.2248216767731157</v>
+        <v>0.4499619331860796</v>
       </c>
       <c r="E242">
         <v>0.2344615079561744</v>
@@ -22545,7 +22545,7 @@
         <v>0.9423357818580953</v>
       </c>
       <c r="D243">
-        <v>0.2432336485981624</v>
+        <v>0.4640430930814748</v>
       </c>
       <c r="E243">
         <v>0.2262186490045927</v>
@@ -22571,7 +22571,7 @@
         <v>0.9436340819111673</v>
       </c>
       <c r="D244">
-        <v>0.2413817008634911</v>
+        <v>0.4457768179123818</v>
       </c>
       <c r="E244">
         <v>0.2236575138727209</v>
@@ -22597,7 +22597,7 @@
         <v>0.9430719710167047</v>
       </c>
       <c r="D245">
-        <v>0.2342943014732276</v>
+        <v>0.4468622277925189</v>
       </c>
       <c r="E245">
         <v>0.2247699630721759</v>
@@ -22623,7 +22623,7 @@
         <v>0.9411755208515565</v>
       </c>
       <c r="D246">
-        <v>0.272736837178631</v>
+        <v>0.4737935851954006</v>
       </c>
       <c r="E246">
         <v>0.2284831858492737</v>
@@ -22649,7 +22649,7 @@
         <v>0.9419599105876133</v>
       </c>
       <c r="D247">
-        <v>0.2652617208775386</v>
+        <v>0.4744493815242283</v>
       </c>
       <c r="E247">
         <v>0.2269547292180841</v>
@@ -22675,7 +22675,7 @@
         <v>0.9406031623376518</v>
       </c>
       <c r="D248">
-        <v>0.2669034753850145</v>
+        <v>0.475420690565182</v>
       </c>
       <c r="E248">
         <v>0.2295920586381689</v>
@@ -22701,7 +22701,7 @@
         <v>0.8836953124150126</v>
       </c>
       <c r="D249">
-        <v>0.2720579074952073</v>
+        <v>0.1317649742077571</v>
       </c>
       <c r="E249">
         <v>0.3212726902702396</v>
@@ -22727,7 +22727,7 @@
         <v>0.9285722118172151</v>
       </c>
       <c r="D250">
-        <v>0.3149922318868477</v>
+        <v>0.2714358849568702</v>
       </c>
       <c r="E250">
         <v>0.2517727952061977</v>
@@ -22753,7 +22753,7 @@
         <v>0.9387223849299841</v>
       </c>
       <c r="D251">
-        <v>0.3674610230551608</v>
+        <v>0.4135095665022416</v>
       </c>
       <c r="E251">
         <v>0.23319870134512</v>
@@ -22779,7 +22779,7 @@
         <v>0.9436937710132456</v>
       </c>
       <c r="D252">
-        <v>0.4103511056612813</v>
+        <v>0.4416791075152068</v>
       </c>
       <c r="E252">
         <v>0.2235390606234052</v>
@@ -22805,7 +22805,7 @@
         <v>0.9350013642185508</v>
       </c>
       <c r="D253">
-        <v>0.3323274499655355</v>
+        <v>0.3571130868532364</v>
       </c>
       <c r="E253">
         <v>0.2401747355952167</v>
@@ -22831,7 +22831,7 @@
         <v>0.9386752946579826</v>
       </c>
       <c r="D254">
-        <v>0.3155161768733801</v>
+        <v>0.4219476640257906</v>
       </c>
       <c r="E254">
         <v>0.2332882877409466</v>
@@ -22857,7 +22857,7 @@
         <v>0.9453416487169169</v>
       </c>
       <c r="D255">
-        <v>0.2752738312342263</v>
+        <v>0.3663353933788783</v>
       </c>
       <c r="E255">
         <v>0.2202436846864418</v>
@@ -22883,7 +22883,7 @@
         <v>0.9470582621953667</v>
       </c>
       <c r="D256">
-        <v>0.2567274843779709</v>
+        <v>0.444005323588641</v>
       </c>
       <c r="E256">
         <v>0.2167575816132227</v>
@@ -22909,7 +22909,7 @@
         <v>0.9478167338243269</v>
       </c>
       <c r="D257">
-        <v>0.2264878548219051</v>
+        <v>0.4501285961715026</v>
       </c>
       <c r="E257">
         <v>0.2151992877641833</v>
@@ -22935,7 +22935,7 @@
         <v>0.9462680582758713</v>
       </c>
       <c r="D258">
-        <v>0.2485803179454442</v>
+        <v>0.4618847515433601</v>
       </c>
       <c r="E258">
         <v>0.2183692427119653</v>
@@ -22961,7 +22961,7 @@
         <v>0.9456969609922777</v>
       </c>
       <c r="D259">
-        <v>0.2730033327959436</v>
+        <v>0.4829146098820875</v>
       </c>
       <c r="E259">
         <v>0.219526659066423</v>
@@ -22987,7 +22987,7 @@
         <v>0.9469121006501923</v>
       </c>
       <c r="D260">
-        <v>0.2089364321699603</v>
+        <v>0.4216727518449076</v>
       </c>
       <c r="E260">
         <v>0.2170565875379138</v>
@@ -23013,7 +23013,7 @@
         <v>0.9477829044949641</v>
       </c>
       <c r="D261">
-        <v>0.1732850878602351</v>
+        <v>0.4184838762274311</v>
       </c>
       <c r="E261">
         <v>0.2152690310806158</v>
@@ -23039,7 +23039,7 @@
         <v>0.9506294762002075</v>
       </c>
       <c r="D262">
-        <v>0.2095382697837221</v>
+        <v>0.4521135587664264</v>
       </c>
       <c r="E262">
         <v>0.2093192008187324</v>
@@ -23065,7 +23065,7 @@
         <v>0.9520862232976459</v>
       </c>
       <c r="D263">
-        <v>0.2098967003272126</v>
+        <v>0.4398501111787296</v>
       </c>
       <c r="E263">
         <v>0.2062079490447575</v>
@@ -23091,7 +23091,7 @@
         <v>0.950747228578491</v>
       </c>
       <c r="D264">
-        <v>0.2301981036841092</v>
+        <v>0.4477846703903459</v>
       </c>
       <c r="E264">
         <v>0.2090694308537688</v>
@@ -23117,7 +23117,7 @@
         <v>0.9482523880224579</v>
       </c>
       <c r="D265">
-        <v>0.2675492844217003</v>
+        <v>0.4711710961935892</v>
       </c>
       <c r="E265">
         <v>0.2142991048584637</v>
@@ -23143,7 +23143,7 @@
         <v>0.9497544778095308</v>
       </c>
       <c r="D266">
-        <v>0.2458641283817171</v>
+        <v>0.4644989932056659</v>
       </c>
       <c r="E266">
         <v>0.2111659460901505</v>
@@ -23169,7 +23169,7 @@
         <v>0.9488641179847722</v>
       </c>
       <c r="D267">
-        <v>0.2582145495927516</v>
+        <v>0.4722258509685935</v>
       </c>
       <c r="E267">
         <v>0.2130286798856965</v>
@@ -23195,7 +23195,7 @@
         <v>0.8796844309665429</v>
       </c>
       <c r="D268">
-        <v>0.3182365311782366</v>
+        <v>0.378822285800376</v>
       </c>
       <c r="E268">
         <v>0.3267654381785993</v>
@@ -23221,7 +23221,7 @@
         <v>0.9248817556693543</v>
       </c>
       <c r="D269">
-        <v>0.3536726579203103</v>
+        <v>0.4388048528346548</v>
       </c>
       <c r="E269">
         <v>0.2581950518247028</v>
@@ -23247,7 +23247,7 @@
         <v>0.927816096680955</v>
       </c>
       <c r="D270">
-        <v>0.3396075269241323</v>
+        <v>0.4735898216060206</v>
       </c>
       <c r="E270">
         <v>0.2531018862785533</v>
@@ -23273,7 +23273,7 @@
         <v>0.9348630857549197</v>
       </c>
       <c r="D271">
-        <v>0.383595777789957</v>
+        <v>0.5064905599288856</v>
       </c>
       <c r="E271">
         <v>0.2404300744072703</v>
@@ -23299,7 +23299,7 @@
         <v>0.9329870555109319</v>
       </c>
       <c r="D272">
-        <v>0.3073647772395246</v>
+        <v>0.4334223208107233</v>
       </c>
       <c r="E272">
         <v>0.2438678508235401</v>
@@ -23325,7 +23325,7 @@
         <v>0.935414373687796</v>
       </c>
       <c r="D273">
-        <v>0.3337899574520208</v>
+        <v>0.5247656598210289</v>
       </c>
       <c r="E273">
         <v>0.2394104694304708</v>
@@ -23351,7 +23351,7 @@
         <v>0.9423019213578253</v>
       </c>
       <c r="D274">
-        <v>0.2889331833401309</v>
+        <v>0.5171041185427033</v>
       </c>
       <c r="E274">
         <v>0.226285057192636</v>
@@ -23377,7 +23377,7 @@
         <v>0.9424525640224514</v>
       </c>
       <c r="D275">
-        <v>0.2417690261610165</v>
+        <v>0.5531590268224842</v>
       </c>
       <c r="E275">
         <v>0.2259894627473594</v>
@@ -23403,7 +23403,7 @@
         <v>0.9439646860787756</v>
       </c>
       <c r="D276">
-        <v>0.2211397160885681</v>
+        <v>0.5687260303403423</v>
       </c>
       <c r="E276">
         <v>0.2230006377728602</v>
@@ -23429,7 +23429,7 @@
         <v>0.9438415158135306</v>
       </c>
       <c r="D277">
-        <v>0.2522055226532098</v>
+        <v>0.574779001763295</v>
       </c>
       <c r="E277">
         <v>0.2232455901844483</v>
@@ -23455,7 +23455,7 @@
         <v>0.9454397748449475</v>
       </c>
       <c r="D278">
-        <v>0.286534306682611</v>
+        <v>0.5801134644560397</v>
       </c>
       <c r="E278">
         <v>0.2200458981829614</v>
@@ -23481,7 +23481,7 @@
         <v>0.9465790529134309</v>
       </c>
       <c r="D279">
-        <v>0.2800514586189654</v>
+        <v>0.5688351848707729</v>
       </c>
       <c r="E279">
         <v>0.2177363769244017</v>
@@ -23507,7 +23507,7 @@
         <v>0.9469695370902874</v>
       </c>
       <c r="D280">
-        <v>0.2482695296428644</v>
+        <v>0.559124086807319</v>
       </c>
       <c r="E280">
         <v>0.2169391376886683</v>
@@ -23533,7 +23533,7 @@
         <v>0.9491761654713873</v>
       </c>
       <c r="D281">
-        <v>0.2285113641982951</v>
+        <v>0.5594586996123461</v>
       </c>
       <c r="E281">
         <v>0.2123777007185934</v>
@@ -23559,7 +23559,7 @@
         <v>0.951423671760157</v>
       </c>
       <c r="D282">
-        <v>0.2473301865089035</v>
+        <v>0.5576691020642436</v>
       </c>
       <c r="E282">
         <v>0.2076287755134397</v>
@@ -23585,7 +23585,7 @@
         <v>0.9496604131623639</v>
       </c>
       <c r="D283">
-        <v>0.2671222944917133</v>
+        <v>0.5594759199045307</v>
       </c>
       <c r="E283">
         <v>0.211363515560431</v>
@@ -23611,7 +23611,7 @@
         <v>0.9482682036768471</v>
       </c>
       <c r="D284">
-        <v>0.3074753767920376</v>
+        <v>0.5742440666796151</v>
       </c>
       <c r="E284">
         <v>0.214266354172438</v>
@@ -23637,7 +23637,7 @@
         <v>0.94774112002071</v>
       </c>
       <c r="D285">
-        <v>0.2928039972871227</v>
+        <v>0.5610958961609631</v>
       </c>
       <c r="E285">
         <v>0.2153551437269996</v>
@@ -23663,7 +23663,7 @@
         <v>0.9467022796037653</v>
       </c>
       <c r="D286">
-        <v>0.3061545297044098</v>
+        <v>0.566360367213454</v>
       </c>
       <c r="E286">
         <v>0.2174851044813624</v>
@@ -23689,7 +23689,7 @@
         <v>0.9241564940367633</v>
       </c>
       <c r="D287">
-        <v>0.2746016017940207</v>
+        <v>0.5237311218671037</v>
       </c>
       <c r="E287">
         <v>0.2594384857080523</v>
@@ -23715,7 +23715,7 @@
         <v>0.9341208233474245</v>
       </c>
       <c r="D288">
-        <v>0.1474237956949678</v>
+        <v>0.5022832165407701</v>
       </c>
       <c r="E288">
         <v>0.2417960945155272</v>
@@ -23741,7 +23741,7 @@
         <v>0.9294901823664788</v>
       </c>
       <c r="D289">
-        <v>0.2300418316504883</v>
+        <v>0.5315632067304136</v>
       </c>
       <c r="E289">
         <v>0.2501497056477235</v>
@@ -23767,7 +23767,7 @@
         <v>0.9358824083575439</v>
       </c>
       <c r="D290">
-        <v>0.2795530910858414</v>
+        <v>0.5540359341956882</v>
       </c>
       <c r="E290">
         <v>0.2385414204739763</v>
@@ -23793,7 +23793,7 @@
         <v>0.9371387193305323</v>
       </c>
       <c r="D291">
-        <v>0.3108899949720416</v>
+        <v>0.5290306821236389</v>
       </c>
       <c r="E291">
         <v>0.2361928860136544</v>
@@ -23819,7 +23819,7 @@
         <v>0.9344935348353945</v>
       </c>
       <c r="D292">
-        <v>0.2960282092986887</v>
+        <v>0.5672891923054146</v>
       </c>
       <c r="E292">
         <v>0.2411111435769347</v>
@@ -23845,7 +23845,7 @@
         <v>0.940871712125245</v>
       </c>
       <c r="D293">
-        <v>0.2379952009150694</v>
+        <v>0.5543801045337092</v>
       </c>
       <c r="E293">
         <v>0.2290724455489504</v>
@@ -23871,7 +23871,7 @@
         <v>0.9394420672729213</v>
       </c>
       <c r="D294">
-        <v>0.2143770614895718</v>
+        <v>0.5454872964290309</v>
       </c>
       <c r="E294">
         <v>0.2318252416026257</v>
@@ -23897,7 +23897,7 @@
         <v>0.939377983445295</v>
       </c>
       <c r="D295">
-        <v>0.2100399331607079</v>
+        <v>0.5536357207535478</v>
       </c>
       <c r="E295">
         <v>0.2319478706284508</v>
@@ -23923,7 +23923,7 @@
         <v>0.9371538793148421</v>
       </c>
       <c r="D296">
-        <v>0.2041906163322637</v>
+        <v>0.5430680738289519</v>
       </c>
       <c r="E296">
         <v>0.2361644034857907</v>
@@ -23949,7 +23949,7 @@
         <v>0.9383640022666208</v>
       </c>
       <c r="D297">
-        <v>0.2215933826162539</v>
+        <v>0.546278311806116</v>
       </c>
       <c r="E297">
         <v>0.2338796394924232</v>
@@ -23975,7 +23975,7 @@
         <v>0.9394619447554214</v>
       </c>
       <c r="D298">
-        <v>0.1856585266398112</v>
+        <v>0.5163289209596873</v>
       </c>
       <c r="E298">
         <v>0.2317871914234219</v>
@@ -24001,7 +24001,7 @@
         <v>0.9395607056599942</v>
       </c>
       <c r="D299">
-        <v>0.1866823427644608</v>
+        <v>0.5335096876402239</v>
       </c>
       <c r="E299">
         <v>0.2315980471203512</v>
@@ -24027,7 +24027,7 @@
         <v>0.9405072504002823</v>
       </c>
       <c r="D300">
-        <v>0.1800169053505949</v>
+        <v>0.5433206274056803</v>
       </c>
       <c r="E300">
         <v>0.2297773524825338</v>
@@ -24053,7 +24053,7 @@
         <v>0.944871742524375</v>
       </c>
       <c r="D301">
-        <v>0.1441475001917364</v>
+        <v>0.5331744326246399</v>
       </c>
       <c r="E301">
         <v>0.2211883928763585</v>
@@ -24079,7 +24079,7 @@
         <v>0.9459131752986372</v>
       </c>
       <c r="D302">
-        <v>0.1632616011590643</v>
+        <v>0.5377949034209208</v>
       </c>
       <c r="E302">
         <v>0.2190891868159211</v>
@@ -24105,7 +24105,7 @@
         <v>0.9435159524587865</v>
       </c>
       <c r="D303">
-        <v>0.1586335929821262</v>
+        <v>0.5446663788005011</v>
       </c>
       <c r="E303">
         <v>0.2238917574745035</v>
@@ -24131,7 +24131,7 @@
         <v>0.9419247053538395</v>
       </c>
       <c r="D304">
-        <v>0.1388047271113014</v>
+        <v>0.5209275371185775</v>
       </c>
       <c r="E304">
         <v>0.2270235504684356</v>
@@ -24157,7 +24157,7 @@
         <v>0.94050211667934</v>
       </c>
       <c r="D305">
-        <v>0.1253785219770934</v>
+        <v>0.5227229616258448</v>
       </c>
       <c r="E305">
         <v>0.2297872661893962</v>
@@ -24183,7 +24183,7 @@
         <v>0.9141127094423355</v>
       </c>
       <c r="D306">
-        <v>0.3408338957738347</v>
+        <v>0.5770141099401139</v>
       </c>
       <c r="E306">
         <v>0.2760829912510313</v>
@@ -24209,7 +24209,7 @@
         <v>0.9343569394919986</v>
       </c>
       <c r="D307">
-        <v>0.235104671021324</v>
+        <v>0.5578074941696658</v>
       </c>
       <c r="E307">
         <v>0.2413623974665425</v>
@@ -24235,7 +24235,7 @@
         <v>0.9237676261912723</v>
       </c>
       <c r="D308">
-        <v>0.2442160358734794</v>
+        <v>0.528399664783949</v>
       </c>
       <c r="E308">
         <v>0.2601027370228668</v>
@@ -24261,7 +24261,7 @@
         <v>0.9314701817316193</v>
       </c>
       <c r="D309">
-        <v>0.2555166369757894</v>
+        <v>0.5300698425367266</v>
       </c>
       <c r="E309">
         <v>0.2466124458959447</v>
@@ -24287,7 +24287,7 @@
         <v>0.9314352948674313</v>
       </c>
       <c r="D310">
-        <v>0.2953970497414525</v>
+        <v>0.510629440429673</v>
       </c>
       <c r="E310">
         <v>0.2466752101089576</v>
@@ -24313,7 +24313,7 @@
         <v>0.9276607266802958</v>
       </c>
       <c r="D311">
-        <v>0.1932743428497411</v>
+        <v>0.5487306923303132</v>
       </c>
       <c r="E311">
         <v>0.2533741305082639</v>
@@ -24339,7 +24339,7 @@
         <v>0.9359631004595766</v>
       </c>
       <c r="D312">
-        <v>0.1535709613659823</v>
+        <v>0.5340013752942054</v>
       </c>
       <c r="E312">
         <v>0.2383912708192598</v>
@@ -24365,7 +24365,7 @@
         <v>0.932760831713257</v>
       </c>
       <c r="D313">
-        <v>0.1497768428690944</v>
+        <v>0.5400337865528368</v>
       </c>
       <c r="E313">
         <v>0.2442791312876759</v>
@@ -24391,7 +24391,7 @@
         <v>0.9353190882550423</v>
       </c>
       <c r="D314">
-        <v>0.1509663520261649</v>
+        <v>0.5476581838534449</v>
       </c>
       <c r="E314">
         <v>0.2395870096587804</v>
@@ -24417,7 +24417,7 @@
         <v>0.9361023899179233</v>
       </c>
       <c r="D315">
-        <v>0.1451537934571125</v>
+        <v>0.5351401555984643</v>
       </c>
       <c r="E315">
         <v>0.2381318620446763</v>
@@ -24443,7 +24443,7 @@
         <v>0.9361694821708333</v>
       </c>
       <c r="D316">
-        <v>0.1907010637060758</v>
+        <v>0.5423898598665213</v>
       </c>
       <c r="E316">
         <v>0.2380068104254302</v>
@@ -24469,7 +24469,7 @@
         <v>0.9358053174766221</v>
       </c>
       <c r="D317">
-        <v>0.1659266283151096</v>
+        <v>0.5257687577585903</v>
       </c>
       <c r="E317">
         <v>0.2386847808493502</v>
@@ -24495,7 +24495,7 @@
         <v>0.9363919592868288</v>
       </c>
       <c r="D318">
-        <v>0.1612415851491232</v>
+        <v>0.5400288540490823</v>
       </c>
       <c r="E318">
         <v>0.2375916697487391</v>
@@ -24521,7 +24521,7 @@
         <v>0.9397293656889356</v>
       </c>
       <c r="D319">
-        <v>0.1563467975947836</v>
+        <v>0.5434479011771258</v>
       </c>
       <c r="E319">
         <v>0.2312746761852352</v>
@@ -24547,7 +24547,7 @@
         <v>0.9441737706644007</v>
       </c>
       <c r="D320">
-        <v>0.145418497023345</v>
+        <v>0.5449715515489418</v>
       </c>
       <c r="E320">
         <v>0.222584207776223</v>
@@ -24573,7 +24573,7 @@
         <v>0.946422633355243</v>
       </c>
       <c r="D321">
-        <v>0.131121781580238</v>
+        <v>0.5432959348490923</v>
       </c>
       <c r="E321">
         <v>0.2180549161404232</v>
@@ -24599,7 +24599,7 @@
         <v>0.9437244364337545</v>
       </c>
       <c r="D322">
-        <v>0.1292970562400071</v>
+        <v>0.5490943375328741</v>
       </c>
       <c r="E322">
         <v>0.2234781805662519</v>
@@ -24625,7 +24625,7 @@
         <v>0.9431774927634561</v>
       </c>
       <c r="D323">
-        <v>0.08074513617139834</v>
+        <v>0.5219086661232466</v>
       </c>
       <c r="E323">
         <v>0.2245615497412203</v>
@@ -24651,7 +24651,7 @@
         <v>0.9426249467602663</v>
       </c>
       <c r="D324">
-        <v>0.09557355784635613</v>
+        <v>0.5207607563928218</v>
       </c>
       <c r="E324">
         <v>0.2256507343661307</v>
@@ -24677,7 +24677,7 @@
         <v>0.8868633639171241</v>
       </c>
       <c r="D325">
-        <v>0.3943659203194088</v>
+        <v>0.5664741331771045</v>
       </c>
       <c r="E325">
         <v>0.3168668680723821</v>
@@ -24703,7 +24703,7 @@
         <v>0.9070415136268984</v>
       </c>
       <c r="D326">
-        <v>0.1359460472709531</v>
+        <v>0.4632636021432269</v>
       </c>
       <c r="E326">
         <v>0.2872233361184157</v>
@@ -24729,7 +24729,7 @@
         <v>0.9145089348325863</v>
       </c>
       <c r="D327">
-        <v>0.128875651234772</v>
+        <v>0.4317475026706101</v>
       </c>
       <c r="E327">
         <v>0.2754454257505221</v>
@@ -24755,7 +24755,7 @@
         <v>0.9180290201318568</v>
       </c>
       <c r="D328">
-        <v>0.1416460474516855</v>
+        <v>0.4650682187729123</v>
       </c>
       <c r="E328">
         <v>0.2697151016555964</v>
@@ -24781,7 +24781,7 @@
         <v>0.919162274876975</v>
       </c>
       <c r="D329">
-        <v>0.2052894339583867</v>
+        <v>0.4603415918152755</v>
       </c>
       <c r="E329">
         <v>0.2678441973769845</v>
@@ -24807,7 +24807,7 @@
         <v>0.9172497174264693</v>
       </c>
       <c r="D330">
-        <v>0.1204635372041896</v>
+        <v>0.465900580972362</v>
       </c>
       <c r="E330">
         <v>0.2709941671133501</v>
@@ -24833,7 +24833,7 @@
         <v>0.9266450253678853</v>
       </c>
       <c r="D331">
-        <v>0.1532237719414495</v>
+        <v>0.478429096659048</v>
       </c>
       <c r="E331">
         <v>0.2551467178828861</v>
@@ -24859,7 +24859,7 @@
         <v>0.9250852395376521</v>
       </c>
       <c r="D332">
-        <v>0.1709674405079179</v>
+        <v>0.4943967230054072</v>
       </c>
       <c r="E332">
         <v>0.2578451091684554</v>
@@ -24885,7 +24885,7 @@
         <v>0.9250696880623762</v>
       </c>
       <c r="D333">
-        <v>0.2014832009357255</v>
+        <v>0.5157442829152999</v>
       </c>
       <c r="E333">
         <v>0.2578718706753724</v>
@@ -24911,7 +24911,7 @@
         <v>0.9237974504193927</v>
       </c>
       <c r="D334">
-        <v>0.2000701782638173</v>
+        <v>0.5017111807616548</v>
       </c>
       <c r="E334">
         <v>0.2600518523275025</v>
@@ -24937,7 +24937,7 @@
         <v>0.9240354875228499</v>
       </c>
       <c r="D335">
-        <v>0.2257254214970581</v>
+        <v>0.5069352440802066</v>
       </c>
       <c r="E335">
         <v>0.2596453671959053</v>
@@ -24963,7 +24963,7 @@
         <v>0.9252188403571212</v>
       </c>
       <c r="D336">
-        <v>0.1889403407854849</v>
+        <v>0.4878931583460723</v>
       </c>
       <c r="E336">
         <v>0.2576150898110398</v>
@@ -24989,7 +24989,7 @@
         <v>0.9268568221676409</v>
       </c>
       <c r="D337">
-        <v>0.2013755902460681</v>
+        <v>0.5035331564639129</v>
       </c>
       <c r="E337">
         <v>0.2547781108340761</v>
@@ -25015,7 +25015,7 @@
         <v>0.9289949988194919</v>
       </c>
       <c r="D338">
-        <v>0.2110813713166065</v>
+        <v>0.5031666762570917</v>
       </c>
       <c r="E338">
         <v>0.2510265572781618</v>
@@ -25041,7 +25041,7 @@
         <v>0.9313597839519109</v>
       </c>
       <c r="D339">
-        <v>0.2396293389073554</v>
+        <v>0.5106770139519092</v>
       </c>
       <c r="E339">
         <v>0.2468110055251869</v>
@@ -25067,7 +25067,7 @@
         <v>0.9308179731301839</v>
       </c>
       <c r="D340">
-        <v>0.2196312699363199</v>
+        <v>0.50368438923174</v>
       </c>
       <c r="E340">
         <v>0.2477831908475903</v>
@@ -25093,7 +25093,7 @@
         <v>0.9288855073442636</v>
       </c>
       <c r="D341">
-        <v>0.2437143670404088</v>
+        <v>0.5184376131873003</v>
       </c>
       <c r="E341">
         <v>0.251220027315773</v>
@@ -25119,7 +25119,7 @@
         <v>0.9300143747768801</v>
       </c>
       <c r="D342">
-        <v>0.2337785630704524</v>
+        <v>0.5058971267120926</v>
       </c>
       <c r="E342">
         <v>0.2492181247638064</v>
@@ -25145,7 +25145,7 @@
         <v>0.92982658819349</v>
       </c>
       <c r="D343">
-        <v>0.2354726129435941</v>
+        <v>0.5013957042870609</v>
       </c>
       <c r="E343">
         <v>0.249552253869278</v>
@@ -25171,7 +25171,7 @@
         <v>0.8868633639171241</v>
       </c>
       <c r="D344">
-        <v>0.3943659203194088</v>
+        <v>0.5664741331771045</v>
       </c>
       <c r="E344">
         <v>0.3168668680723821</v>
@@ -25197,7 +25197,7 @@
         <v>0.9070415136268984</v>
       </c>
       <c r="D345">
-        <v>0.1359460472709531</v>
+        <v>0.4632636021432269</v>
       </c>
       <c r="E345">
         <v>0.2872233361184157</v>
@@ -25223,7 +25223,7 @@
         <v>0.9145089348325863</v>
       </c>
       <c r="D346">
-        <v>0.128875651234772</v>
+        <v>0.4317475026706101</v>
       </c>
       <c r="E346">
         <v>0.2754454257505221</v>
@@ -25249,7 +25249,7 @@
         <v>0.9180290201318568</v>
       </c>
       <c r="D347">
-        <v>0.1416460474516855</v>
+        <v>0.4650682187729123</v>
       </c>
       <c r="E347">
         <v>0.2697151016555964</v>
@@ -25275,7 +25275,7 @@
         <v>0.919162274876975</v>
       </c>
       <c r="D348">
-        <v>0.2052894339583867</v>
+        <v>0.4603415918152755</v>
       </c>
       <c r="E348">
         <v>0.2678441973769845</v>
@@ -25301,7 +25301,7 @@
         <v>0.9172497174264693</v>
       </c>
       <c r="D349">
-        <v>0.1204635372041896</v>
+        <v>0.465900580972362</v>
       </c>
       <c r="E349">
         <v>0.2709941671133501</v>
@@ -25327,7 +25327,7 @@
         <v>0.9266450253678853</v>
       </c>
       <c r="D350">
-        <v>0.1532237719414495</v>
+        <v>0.478429096659048</v>
       </c>
       <c r="E350">
         <v>0.2551467178828861</v>
@@ -25353,7 +25353,7 @@
         <v>0.9250852395376521</v>
       </c>
       <c r="D351">
-        <v>0.1709674405079179</v>
+        <v>0.4943967230054072</v>
       </c>
       <c r="E351">
         <v>0.2578451091684554</v>
@@ -25379,7 +25379,7 @@
         <v>0.9250696880623762</v>
       </c>
       <c r="D352">
-        <v>0.2014832009357255</v>
+        <v>0.5157442829152999</v>
       </c>
       <c r="E352">
         <v>0.2578718706753724</v>
@@ -25405,7 +25405,7 @@
         <v>0.9237974504193927</v>
       </c>
       <c r="D353">
-        <v>0.2000701782638173</v>
+        <v>0.5017111807616548</v>
       </c>
       <c r="E353">
         <v>0.2600518523275025</v>
@@ -25431,7 +25431,7 @@
         <v>0.9240354875228499</v>
       </c>
       <c r="D354">
-        <v>0.2257254214970581</v>
+        <v>0.5069352440802066</v>
       </c>
       <c r="E354">
         <v>0.2596453671959053</v>
@@ -25457,7 +25457,7 @@
         <v>0.9252188403571212</v>
       </c>
       <c r="D355">
-        <v>0.1889403407854849</v>
+        <v>0.4878931583460723</v>
       </c>
       <c r="E355">
         <v>0.2576150898110398</v>
@@ -25483,7 +25483,7 @@
         <v>0.9268568221676409</v>
       </c>
       <c r="D356">
-        <v>0.2013755902460681</v>
+        <v>0.5035331564639129</v>
       </c>
       <c r="E356">
         <v>0.2547781108340761</v>
@@ -25509,7 +25509,7 @@
         <v>0.9289949988194919</v>
       </c>
       <c r="D357">
-        <v>0.2110813713166065</v>
+        <v>0.5031666762570917</v>
       </c>
       <c r="E357">
         <v>0.2510265572781618</v>
@@ -25535,7 +25535,7 @@
         <v>0.9313597839519109</v>
       </c>
       <c r="D358">
-        <v>0.2396293389073554</v>
+        <v>0.5106770139519092</v>
       </c>
       <c r="E358">
         <v>0.2468110055251869</v>
@@ -25561,7 +25561,7 @@
         <v>0.9308179731301839</v>
       </c>
       <c r="D359">
-        <v>0.2196312699363199</v>
+        <v>0.50368438923174</v>
       </c>
       <c r="E359">
         <v>0.2477831908475903</v>
@@ -25587,7 +25587,7 @@
         <v>0.9288855073442636</v>
       </c>
       <c r="D360">
-        <v>0.2437143670404088</v>
+        <v>0.5184376131873003</v>
       </c>
       <c r="E360">
         <v>0.251220027315773</v>
@@ -25613,7 +25613,7 @@
         <v>0.9300143747768801</v>
       </c>
       <c r="D361">
-        <v>0.2337785630704524</v>
+        <v>0.5058971267120926</v>
       </c>
       <c r="E361">
         <v>0.2492181247638064</v>
@@ -25639,7 +25639,7 @@
         <v>0.92982658819349</v>
       </c>
       <c r="D362">
-        <v>0.2354726129435941</v>
+        <v>0.5013957042870609</v>
       </c>
       <c r="E362">
         <v>0.249552253869278</v>
@@ -25665,7 +25665,7 @@
         <v>0.8710594839895852</v>
       </c>
       <c r="D363">
-        <v>-0.1334686564324978</v>
+        <v>0.4293431756205085</v>
       </c>
       <c r="E363">
         <v>0.3382749997703326</v>
@@ -25691,7 +25691,7 @@
         <v>0.9045490545770197</v>
       </c>
       <c r="D364">
-        <v>-0.2323679350155934</v>
+        <v>0.3096635798326538</v>
       </c>
       <c r="E364">
         <v>0.2910484680208926</v>
@@ -25717,7 +25717,7 @@
         <v>0.9104922467051841</v>
       </c>
       <c r="D365">
-        <v>0.04658883352475529</v>
+        <v>0.5132261501371708</v>
       </c>
       <c r="E365">
         <v>0.2818418809472641</v>
@@ -25743,7 +25743,7 @@
         <v>0.9207673287789565</v>
       </c>
       <c r="D366">
-        <v>0.07690673048285002</v>
+        <v>0.4713078858850268</v>
       </c>
       <c r="E366">
         <v>0.2651718077787112</v>
@@ -25769,7 +25769,7 @@
         <v>0.9187723511740843</v>
       </c>
       <c r="D367">
-        <v>0.1892809009702155</v>
+        <v>0.5039342180845225</v>
       </c>
       <c r="E367">
         <v>0.2684893983819651</v>
@@ -25795,7 +25795,7 @@
         <v>0.9203733647384259</v>
       </c>
       <c r="D368">
-        <v>0.08924809902790021</v>
+        <v>0.499414156160493</v>
       </c>
       <c r="E368">
         <v>0.2658302395646172</v>
@@ -25821,7 +25821,7 @@
         <v>0.9210124556137025</v>
       </c>
       <c r="D369">
-        <v>0.06984825246450854</v>
+        <v>0.5047723848120664</v>
       </c>
       <c r="E369">
         <v>0.2647613011217012</v>
@@ -25847,7 +25847,7 @@
         <v>0.9152791438384634</v>
       </c>
       <c r="D370">
-        <v>0.05636657095064646</v>
+        <v>0.5256749251816055</v>
       </c>
       <c r="E370">
         <v>0.2742018423407603</v>
@@ -25873,7 +25873,7 @@
         <v>0.9136899330036828</v>
       </c>
       <c r="D371">
-        <v>0.07225961443816997</v>
+        <v>0.534759848117251</v>
       </c>
       <c r="E371">
         <v>0.2767616603330452</v>
@@ -25899,7 +25899,7 @@
         <v>0.9178879856256456</v>
       </c>
       <c r="D372">
-        <v>0.009174198852863635</v>
+        <v>0.492481173919798</v>
       </c>
       <c r="E372">
         <v>0.2699470300058462</v>
@@ -25925,7 +25925,7 @@
         <v>0.9197140845665491</v>
       </c>
       <c r="D373">
-        <v>-0.004700921821519044</v>
+        <v>0.5075416919650994</v>
       </c>
       <c r="E373">
         <v>0.2669284608692646</v>
@@ -25951,7 +25951,7 @@
         <v>0.9183753794875308</v>
       </c>
       <c r="D374">
-        <v>-0.028980640391709</v>
+        <v>0.4954731570666896</v>
       </c>
       <c r="E374">
         <v>0.2691446727046953</v>
@@ -25977,7 +25977,7 @@
         <v>0.920678036917025</v>
       </c>
       <c r="D375">
-        <v>-0.05696260223077432</v>
+        <v>0.4785315716495547</v>
       </c>
       <c r="E375">
         <v>0.2653211843988802</v>
@@ -26003,7 +26003,7 @@
         <v>0.92182478554657</v>
       </c>
       <c r="D376">
-        <v>-0.03277032397641499</v>
+        <v>0.4675992993892757</v>
       </c>
       <c r="E376">
         <v>0.2633963431239937</v>
@@ -26029,7 +26029,7 @@
         <v>0.9233975725922392</v>
       </c>
       <c r="D377">
-        <v>-0.04794742694722798</v>
+        <v>0.4394159190472622</v>
       </c>
       <c r="E377">
         <v>0.260733279030299</v>
@@ -26055,7 +26055,7 @@
         <v>0.923892406147595</v>
       </c>
       <c r="D378">
-        <v>-0.07004979305121051</v>
+        <v>0.4323983311605037</v>
       </c>
       <c r="E378">
         <v>0.2598897769734994</v>
@@ -26081,7 +26081,7 @@
         <v>0.9245420746181564</v>
       </c>
       <c r="D379">
-        <v>-0.04822394276037723</v>
+        <v>0.4557605451390908</v>
       </c>
       <c r="E379">
         <v>0.2587781661045279</v>
@@ -26107,7 +26107,7 @@
         <v>0.922134125986518</v>
       </c>
       <c r="D380">
-        <v>-0.06343984135720437</v>
+        <v>0.4487256228923681</v>
       </c>
       <c r="E380">
         <v>0.2628746950246962</v>
@@ -26133,7 +26133,7 @@
         <v>0.9195764320609914</v>
       </c>
       <c r="D381">
-        <v>-0.01770293977122894</v>
+        <v>0.454460652506373</v>
       </c>
       <c r="E381">
         <v>0.2671571911225153</v>
@@ -26159,7 +26159,7 @@
         <v>0.8281250098614714</v>
       </c>
       <c r="D382">
-        <v>-0.3962250601278432</v>
+        <v>0.2990033154069669</v>
       </c>
       <c r="E382">
         <v>0.3905544077833741</v>
@@ -26185,7 +26185,7 @@
         <v>0.8488224976908404</v>
       </c>
       <c r="D383">
-        <v>-0.7722246888870787</v>
+        <v>0.2650889831947926</v>
       </c>
       <c r="E383">
         <v>0.3662847043599884</v>
@@ -26211,7 +26211,7 @@
         <v>0.877596457432787</v>
       </c>
       <c r="D384">
-        <v>-0.3258143741626114</v>
+        <v>0.4810465521526904</v>
       </c>
       <c r="E384">
         <v>0.3295886094278694</v>
@@ -26237,7 +26237,7 @@
         <v>0.8836699306531826</v>
       </c>
       <c r="D385">
-        <v>-0.2695709532238648</v>
+        <v>0.4256048170951156</v>
       </c>
       <c r="E385">
         <v>0.3213077448421021</v>
@@ -26263,7 +26263,7 @@
         <v>0.8836491404269522</v>
       </c>
       <c r="D386">
-        <v>-0.1090139749001369</v>
+        <v>0.5120757416999442</v>
       </c>
       <c r="E386">
         <v>0.3213364552275939</v>
@@ -26289,7 +26289,7 @@
         <v>0.8953556842157051</v>
       </c>
       <c r="D387">
-        <v>-0.05873945552143267</v>
+        <v>0.523513804062484</v>
       </c>
       <c r="E387">
         <v>0.304742497052365</v>
@@ -26315,7 +26315,7 @@
         <v>0.8964699447839468</v>
       </c>
       <c r="D388">
-        <v>-0.05028704726150091</v>
+        <v>0.5108652931369285</v>
       </c>
       <c r="E388">
         <v>0.3031156943346544</v>
@@ -26341,7 +26341,7 @@
         <v>0.8864718806996955</v>
       </c>
       <c r="D389">
-        <v>-0.05149663797226878</v>
+        <v>0.5321170111207041</v>
       </c>
       <c r="E389">
         <v>0.3174146169742385</v>
@@ -26367,7 +26367,7 @@
         <v>0.8833799198990537</v>
       </c>
       <c r="D390">
-        <v>-0.009932848077492507</v>
+        <v>0.5367872573535002</v>
       </c>
       <c r="E390">
         <v>0.3217080054887877</v>
@@ -26393,7 +26393,7 @@
         <v>0.8912053959357269</v>
       </c>
       <c r="D391">
-        <v>0.0222746982387132</v>
+        <v>0.5391085151418484</v>
       </c>
       <c r="E391">
         <v>0.3107269187415464</v>
@@ -26419,7 +26419,7 @@
         <v>0.8981674177439934</v>
       </c>
       <c r="D392">
-        <v>0.01624192954751613</v>
+        <v>0.560696736556757</v>
       </c>
       <c r="E392">
         <v>0.300620490323102</v>
@@ -26445,7 +26445,7 @@
         <v>0.893354867931759</v>
       </c>
       <c r="D393">
-        <v>-0.05421320569511567</v>
+        <v>0.5303767361382671</v>
       </c>
       <c r="E393">
         <v>0.3076420655989232</v>
@@ -26471,7 +26471,7 @@
         <v>0.8944486124030669</v>
       </c>
       <c r="D394">
-        <v>-0.02552793283463806</v>
+        <v>0.5350199351689806</v>
       </c>
       <c r="E394">
         <v>0.306060422876382</v>
@@ -26497,7 +26497,7 @@
         <v>0.8980329360193294</v>
       </c>
       <c r="D395">
-        <v>-0.02597678645612156</v>
+        <v>0.5363937857518265</v>
       </c>
       <c r="E395">
         <v>0.3008189269259392</v>
@@ -26523,7 +26523,7 @@
         <v>0.9027211433499894</v>
       </c>
       <c r="D396">
-        <v>-0.04764509152778129</v>
+        <v>0.5139336285570195</v>
       </c>
       <c r="E396">
         <v>0.2938220802827325</v>
@@ -26549,7 +26549,7 @@
         <v>0.9029718584192854</v>
       </c>
       <c r="D397">
-        <v>-0.04377204000125512</v>
+        <v>0.4970222831859686</v>
       </c>
       <c r="E397">
         <v>0.2934432047937727</v>
@@ -26575,7 +26575,7 @@
         <v>0.9049400394899583</v>
       </c>
       <c r="D398">
-        <v>-0.0151728009569998</v>
+        <v>0.5006662576976436</v>
       </c>
       <c r="E398">
         <v>0.2904517618768251</v>
@@ -26601,7 +26601,7 @@
         <v>0.9013393770619492</v>
       </c>
       <c r="D399">
-        <v>-0.04345944543664237</v>
+        <v>0.5052774130353455</v>
       </c>
       <c r="E399">
         <v>0.2959014730066271</v>
@@ -26627,7 +26627,7 @@
         <v>0.9022301473871082</v>
       </c>
       <c r="D400">
-        <v>-0.05011274796525034</v>
+        <v>0.5005751802927203</v>
       </c>
       <c r="E400">
         <v>0.2945626516681275</v>
@@ -26686,7 +26686,7 @@
         <v>0.4192361374125562</v>
       </c>
       <c r="D2">
-        <v>-3.606156850964074</v>
+        <v>0.1100360414239123</v>
       </c>
       <c r="E2">
         <v>0.7179182490604147</v>
@@ -26709,7 +26709,7 @@
         <v>0.6207355070493252</v>
       </c>
       <c r="D3">
-        <v>0.07660640447212141</v>
+        <v>0.2815287665924385</v>
       </c>
       <c r="E3">
         <v>0.580158010709681</v>
@@ -26732,7 +26732,7 @@
         <v>0.6236563693476731</v>
       </c>
       <c r="D4">
-        <v>0.07578687913299487</v>
+        <v>0.2819701374050945</v>
       </c>
       <c r="E4">
         <v>0.5779196823996561</v>
@@ -26755,7 +26755,7 @@
         <v>0.6130871816292602</v>
       </c>
       <c r="D5">
-        <v>-0.03196651363512371</v>
+        <v>0.259049997113854</v>
       </c>
       <c r="E5">
         <v>0.5859786049722913</v>
@@ -26778,7 +26778,7 @@
         <v>0.6199488811666544</v>
       </c>
       <c r="D6">
-        <v>-0.07571981745776202</v>
+        <v>0.2704808814599975</v>
       </c>
       <c r="E6">
         <v>0.5807593468813405</v>
@@ -26801,7 +26801,7 @@
         <v>0.7090123525479461</v>
       </c>
       <c r="D7">
-        <v>0.1182373594003469</v>
+        <v>0.388739944816925</v>
       </c>
       <c r="E7">
         <v>0.5081740420623347</v>
@@ -26824,7 +26824,7 @@
         <v>0.6954049197382011</v>
       </c>
       <c r="D8">
-        <v>0.06916680019491794</v>
+        <v>0.345555882466154</v>
       </c>
       <c r="E8">
         <v>0.519920142149259</v>
@@ -26847,7 +26847,7 @@
         <v>0.6442675980808188</v>
       </c>
       <c r="D9">
-        <v>0.125179293821394</v>
+        <v>0.4293352930181979</v>
       </c>
       <c r="E9">
         <v>0.5618713823428999</v>
@@ -26870,7 +26870,7 @@
         <v>0.6442675980808188</v>
       </c>
       <c r="D10">
-        <v>0.125179293821394</v>
+        <v>0.4293352930181979</v>
       </c>
       <c r="E10">
         <v>0.5618713823428999</v>
@@ -26893,7 +26893,7 @@
         <v>0.6376184459706533</v>
       </c>
       <c r="D11">
-        <v>0.04307090580979511</v>
+        <v>0.4076721700773686</v>
       </c>
       <c r="E11">
         <v>0.5670981650037251</v>
@@ -26916,7 +26916,7 @@
         <v>0.6287032540742957</v>
       </c>
       <c r="D12">
-        <v>0.02189872233262569</v>
+        <v>0.490192651831638</v>
       </c>
       <c r="E12">
         <v>0.5740315621508095</v>
@@ -26939,7 +26939,7 @@
         <v>0.6266139778315245</v>
       </c>
       <c r="D13">
-        <v>0.03517516178333724</v>
+        <v>0.4733218908004828</v>
       </c>
       <c r="E13">
         <v>0.5756443262365062</v>
@@ -26962,7 +26962,7 @@
         <v>0.6266139778315245</v>
       </c>
       <c r="D14">
-        <v>0.03517516178333724</v>
+        <v>0.4733218908004828</v>
       </c>
       <c r="E14">
         <v>0.5756443262365062</v>
@@ -26985,7 +26985,7 @@
         <v>0.5401272925309539</v>
       </c>
       <c r="D15">
-        <v>-0.3397569616043876</v>
+        <v>0.1402400548888016</v>
       </c>
       <c r="E15">
         <v>0.638842820434892</v>
@@ -27008,7 +27008,7 @@
         <v>0.5499092586905767</v>
       </c>
       <c r="D16">
-        <v>-0.4065679495004375</v>
+        <v>0.1262166837505894</v>
       </c>
       <c r="E16">
         <v>0.6320118774840977</v>
@@ -27031,7 +27031,7 @@
         <v>0.6552012663543767</v>
       </c>
       <c r="D17">
-        <v>-0.7377969334429517</v>
+        <v>0.3897959714023674</v>
       </c>
       <c r="E17">
         <v>0.5531692516765251</v>
@@ -27054,7 +27054,7 @@
         <v>0.6233796479598317</v>
       </c>
       <c r="D18">
-        <v>-0.3208123970528738</v>
+        <v>0.3813592297558638</v>
       </c>
       <c r="E18">
         <v>0.5781321123931397</v>
@@ -27077,7 +27077,7 @@
         <v>0.6398367295985287</v>
       </c>
       <c r="D19">
-        <v>-0.3226930533767416</v>
+        <v>0.4020196197401789</v>
       </c>
       <c r="E19">
         <v>0.5653597823052801</v>
@@ -27100,7 +27100,7 @@
         <v>0.6398367295985287</v>
       </c>
       <c r="D20">
-        <v>-0.3226930533767416</v>
+        <v>0.4020196197401789</v>
       </c>
       <c r="E20">
         <v>0.5653597823052801</v>
@@ -27123,7 +27123,7 @@
         <v>0.5955322952577401</v>
       </c>
       <c r="D21">
-        <v>-0.4432319423491737</v>
+        <v>0.4265204102100015</v>
       </c>
       <c r="E21">
         <v>0.5991245636968381</v>
@@ -27146,7 +27146,7 @@
         <v>0.575237291235299</v>
       </c>
       <c r="D22">
-        <v>-0.1193531614701473</v>
+        <v>0.4548654061537126</v>
       </c>
       <c r="E22">
         <v>0.6139717534296958</v>
@@ -27202,7 +27202,7 @@
         <v>0.7434331107879601</v>
       </c>
       <c r="D2">
-        <v>0.4903840963655219</v>
+        <v>0.6797593775729818</v>
       </c>
       <c r="E2">
         <v>0.477172607584798</v>
@@ -27225,7 +27225,7 @@
         <v>0.7076391791043032</v>
       </c>
       <c r="D3">
-        <v>0.4197217004017119</v>
+        <v>0.6839380989874054</v>
       </c>
       <c r="E3">
         <v>0.5093716698617723</v>
@@ -27248,7 +27248,7 @@
         <v>0.7079447312496893</v>
       </c>
       <c r="D4">
-        <v>0.4331153855748208</v>
+        <v>0.6873292809730838</v>
       </c>
       <c r="E4">
         <v>0.5091054230151032</v>
@@ -27271,7 +27271,7 @@
         <v>0.6683668704274388</v>
       </c>
       <c r="D5">
-        <v>0.1030652591797169</v>
+        <v>0.5461845100535245</v>
       </c>
       <c r="E5">
         <v>0.5425055120468798</v>
@@ -27294,7 +27294,7 @@
         <v>0.6626933169064311</v>
       </c>
       <c r="D6">
-        <v>-0.2874229079419683</v>
+        <v>0.4938896174614142</v>
       </c>
       <c r="E6">
         <v>0.5471264032335934</v>
@@ -27317,7 +27317,7 @@
         <v>0.6137205942983348</v>
       </c>
       <c r="D7">
-        <v>-1.090859876030216</v>
+        <v>0.3366672299264433</v>
       </c>
       <c r="E7">
         <v>0.585498757461999</v>
@@ -27340,7 +27340,7 @@
         <v>0.5902366909571168</v>
       </c>
       <c r="D8">
-        <v>-1.182581578219525</v>
+        <v>0.04294507081630683</v>
       </c>
       <c r="E8">
         <v>0.6030339105537478</v>
@@ -27363,7 +27363,7 @@
         <v>0.5703384601311859</v>
       </c>
       <c r="D9">
-        <v>-0.9240568094388737</v>
+        <v>0.2516106810112124</v>
       </c>
       <c r="E9">
         <v>0.6175021026791524</v>
@@ -27386,7 +27386,7 @@
         <v>0.570389845722703</v>
       </c>
       <c r="D10">
-        <v>-0.9633827388117839</v>
+        <v>0.2704124719891752</v>
       </c>
       <c r="E10">
         <v>0.6174651763352349</v>
@@ -27409,7 +27409,7 @@
         <v>0.5723848823600239</v>
       </c>
       <c r="D11">
-        <v>-0.9878396896507415</v>
+        <v>0.2426205220262803</v>
       </c>
       <c r="E11">
         <v>0.6160298062550963</v>
@@ -27432,7 +27432,7 @@
         <v>0.5790956249585077</v>
       </c>
       <c r="D12">
-        <v>-0.7427917657540735</v>
+        <v>0.3457662568408609</v>
       </c>
       <c r="E12">
         <v>0.6111768847413873</v>
@@ -27455,7 +27455,7 @@
         <v>0.5658234813898257</v>
       </c>
       <c r="D13">
-        <v>-0.6192972179528773</v>
+        <v>0.3940603486393079</v>
       </c>
       <c r="E13">
         <v>0.6207380484015473</v>
@@ -27478,7 +27478,7 @@
         <v>0.5658234813898257</v>
       </c>
       <c r="D14">
-        <v>-0.6192972179528773</v>
+        <v>0.3940603486393079</v>
       </c>
       <c r="E14">
         <v>0.6207380484015473</v>
@@ -27501,7 +27501,7 @@
         <v>0.5626451896426437</v>
       </c>
       <c r="D15">
-        <v>-0.5605623117978196</v>
+        <v>0.3808831100647436</v>
       </c>
       <c r="E15">
         <v>0.6230058924332036</v>
@@ -27524,7 +27524,7 @@
         <v>0.5450666172257388</v>
       </c>
       <c r="D16">
-        <v>-0.3841406435114396</v>
+        <v>0.4091214828951537</v>
       </c>
       <c r="E16">
         <v>0.635402769778413</v>
@@ -27547,7 +27547,7 @@
         <v>0.4965600418030804</v>
       </c>
       <c r="D17">
-        <v>-0.3450030200374035</v>
+        <v>0.4155944825868904</v>
       </c>
       <c r="E17">
         <v>0.6684193931942488</v>
@@ -27570,7 +27570,7 @@
         <v>0.4629303158514347</v>
       </c>
       <c r="D18">
-        <v>-0.6838448829859918</v>
+        <v>0.3138207882156968</v>
       </c>
       <c r="E18">
         <v>0.6903836851143778</v>
@@ -27593,7 +27593,7 @@
         <v>0.4653501424907071</v>
       </c>
       <c r="D19">
-        <v>-0.7457467167235228</v>
+        <v>0.2903936494024443</v>
       </c>
       <c r="E19">
         <v>0.6888266293809975</v>
@@ -27616,7 +27616,7 @@
         <v>0.4653501424907071</v>
       </c>
       <c r="D20">
-        <v>-0.7457467167235228</v>
+        <v>0.2903936494024443</v>
       </c>
       <c r="E20">
         <v>0.6888266293809975</v>
@@ -27639,7 +27639,7 @@
         <v>0.4557075390734154</v>
       </c>
       <c r="D21">
-        <v>-0.8981318193396819</v>
+        <v>0.3186507764416732</v>
       </c>
       <c r="E21">
         <v>0.6950104905437156</v>
@@ -27662,7 +27662,7 @@
         <v>0.4142337951213418</v>
       </c>
       <c r="D22">
-        <v>-0.919763819324567</v>
+        <v>0.4458030446072588</v>
       </c>
       <c r="E22">
         <v>0.7210034726109186</v>
